--- a/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BOOKS\демография СССР и РСФСР\1897-1913\Отчет о состоянии народного здравия\таблицы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC41F2D-87EB-49C6-BDB7-82FC882E12C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5370FD1-8E4A-4671-A2C7-728CE48B7AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6495" yWindow="1950" windowWidth="16695" windowHeight="21630" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t xml:space="preserve">Бакинская   </t>
   </si>
   <si>
-    <t xml:space="preserve">Бакинское градояан </t>
-  </si>
-  <si>
     <t xml:space="preserve">Батумская </t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t xml:space="preserve">Семирѣченская </t>
+  </si>
+  <si>
+    <t>Бакинское градонач</t>
   </si>
 </sst>
 </file>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C7940-0325-42DE-9989-EDE5D7F661BD}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,10 +1813,10 @@
         <v>1817500</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,10 +1841,10 @@
         <v>1295400</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,10 +1855,10 @@
         <v>1010300</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,10 +1869,10 @@
         <v>805700</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1897,10 +1897,10 @@
         <v>2044500</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1989,7 +1989,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2">
         <v>383726</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2">
         <v>176366</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2">
         <v>700964</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2">
         <v>1249494</v>
@@ -2045,21 +2045,21 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2">
         <v>389800</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2">
         <v>2911800</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2">
         <v>1204497</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2">
         <v>1283034</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2">
         <v>1235219</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2">
         <v>14799330</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2">
         <v>179796</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2">
         <v>918619</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2">
         <v>12950023</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2">
         <v>321794</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2">
         <v>1119208</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2">
         <v>926757</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2">
         <v>736222</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2">
         <v>39400</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2">
         <v>619185</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2">
         <v>5593</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2">
         <v>2103294</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2">
         <v>4181444</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2">
         <v>280551</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2">
         <v>10333448</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2">
         <v>1525543</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2">
         <v>487601</v>
@@ -2353,35 +2353,35 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2">
         <v>1194000</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2">
         <v>862000</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B115" s="2">
         <v>1291672</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2">
         <v>1985311</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2">
         <v>828885</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2">
         <v>818260</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2">
         <v>2116000</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2">
         <v>1104172</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="2">
         <v>34387543</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2">
         <v>174074878</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BOOKS\демография СССР и РСФСР\1897-1913\Отчет о состоянии народного здравия\таблицы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5370FD1-8E4A-4671-A2C7-728CE48B7AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9104E79-2BAE-4368-97DF-AA23F9174BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="1950" windowWidth="16695" windowHeight="21630" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
+    <workbookView xWindow="3765" yWindow="795" windowWidth="16485" windowHeight="21630" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,12 +432,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -452,10 +458,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C7940-0325-42DE-9989-EDE5D7F661BD}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,7 +1957,7 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>1278771</v>
+        <v>12178771</v>
       </c>
       <c r="C84" s="2">
         <v>147021</v>
@@ -2117,8 +2124,8 @@
       <c r="A96" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="2">
-        <v>14799330</v>
+      <c r="B96" s="3">
+        <v>1497330</v>
       </c>
       <c r="C96" s="2">
         <v>46728</v>
@@ -2342,7 +2349,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="2">
-        <v>487601</v>
+        <v>487501</v>
       </c>
       <c r="C112" s="2">
         <v>19245</v>
@@ -2412,7 +2419,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="2">
-        <v>828885</v>
+        <v>823885</v>
       </c>
       <c r="C117" s="2">
         <v>38803</v>
@@ -2454,7 +2461,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="2">
-        <v>1104172</v>
+        <v>11104172</v>
       </c>
       <c r="C120" s="2">
         <v>333304</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9104E79-2BAE-4368-97DF-AA23F9174BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D6ECC3-EDED-4B62-AC4C-CA5B54BF4EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="795" windowWidth="16485" windowHeight="21630" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
+    <workbookView xWindow="17565" yWindow="1740" windowWidth="13545" windowHeight="21630" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C7940-0325-42DE-9989-EDE5D7F661BD}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1341,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>3510673</v>
+        <v>3510573</v>
       </c>
       <c r="C40" s="2">
         <v>151615</v>
@@ -1453,7 +1453,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>13653759</v>
+        <v>13653758</v>
       </c>
       <c r="C48" s="2">
         <v>483624</v>
@@ -1481,7 +1481,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>8059904</v>
+        <v>3059904</v>
       </c>
       <c r="C50" s="2">
         <v>126623</v>
@@ -1551,7 +1551,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>3480379</v>
+        <v>3430379</v>
       </c>
       <c r="C55" s="2">
         <v>160371</v>
@@ -1579,7 +1579,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>15422233</v>
+        <v>15422239</v>
       </c>
       <c r="C57" s="2">
         <v>968602</v>
@@ -1663,7 +1663,7 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>1900824</v>
+        <v>1909824</v>
       </c>
       <c r="C63" s="2">
         <v>60854</v>
@@ -1733,7 +1733,7 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>1469149</v>
+        <v>1459149</v>
       </c>
       <c r="C68" s="2">
         <v>31928</v>
@@ -1775,7 +1775,7 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>127506464</v>
+        <v>127508464</v>
       </c>
       <c r="C71" s="2">
         <v>5276656</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D6ECC3-EDED-4B62-AC4C-CA5B54BF4EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055BF4C6-404C-4175-BEC5-61F524E110AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17565" yWindow="1740" windowWidth="13545" windowHeight="21630" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
+    <workbookView xWindow="18330" yWindow="2295" windowWidth="18495" windowHeight="22125" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C7940-0325-42DE-9989-EDE5D7F661BD}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +812,7 @@
         <v>469845</v>
       </c>
       <c r="C2" s="2">
-        <v>20076</v>
+        <v>20075</v>
       </c>
       <c r="D2" s="2">
         <v>12592</v>
@@ -896,7 +896,7 @@
         <v>1449601</v>
       </c>
       <c r="C8" s="2">
-        <v>65386</v>
+        <v>55386</v>
       </c>
       <c r="D8" s="2">
         <v>307831</v>
@@ -1218,7 +1218,7 @@
         <v>12297391</v>
       </c>
       <c r="C31" s="2">
-        <v>559092</v>
+        <v>559082</v>
       </c>
       <c r="D31" s="2">
         <v>376814</v>
@@ -1232,7 +1232,7 @@
         <v>3813263</v>
       </c>
       <c r="C32" s="2">
-        <v>138351</v>
+        <v>188351</v>
       </c>
       <c r="D32" s="2">
         <v>136454</v>
@@ -1288,7 +1288,7 @@
         <v>2276163</v>
       </c>
       <c r="C36" s="2">
-        <v>12060</v>
+        <v>120509</v>
       </c>
       <c r="D36" s="2">
         <v>81325</v>
@@ -1316,7 +1316,7 @@
         <v>1347837</v>
       </c>
       <c r="C38" s="2">
-        <v>60086</v>
+        <v>50086</v>
       </c>
       <c r="D38" s="2">
         <v>30059</v>
@@ -1582,7 +1582,7 @@
         <v>15422239</v>
       </c>
       <c r="C57" s="2">
-        <v>968602</v>
+        <v>668602</v>
       </c>
       <c r="D57" s="2">
         <v>381659</v>
@@ -1652,7 +1652,7 @@
         <v>9415507</v>
       </c>
       <c r="C62" s="2">
-        <v>357506</v>
+        <v>357566</v>
       </c>
       <c r="D62" s="2">
         <v>194350</v>
@@ -1680,7 +1680,7 @@
         <v>1961411</v>
       </c>
       <c r="C64" s="2">
-        <v>67672</v>
+        <v>57672</v>
       </c>
       <c r="D64" s="2">
         <v>33490</v>
@@ -1750,7 +1750,7 @@
         <v>492000</v>
       </c>
       <c r="C69" s="2">
-        <v>11663</v>
+        <v>11653</v>
       </c>
       <c r="D69" s="2">
         <v>9089</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055BF4C6-404C-4175-BEC5-61F524E110AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA542D-2A0B-48FA-A5C0-440934FF24C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18330" yWindow="2295" windowWidth="18495" windowHeight="22125" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
+    <workbookView xWindow="20115" yWindow="2805" windowWidth="18495" windowHeight="22125" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C7940-0325-42DE-9989-EDE5D7F661BD}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +829,7 @@
         <v>81609</v>
       </c>
       <c r="D3" s="2">
-        <v>65240</v>
+        <v>55240</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
         <v>20594</v>
       </c>
       <c r="D5" s="2">
-        <v>16356</v>
+        <v>16856</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
         <v>55386</v>
       </c>
       <c r="D8" s="2">
-        <v>307831</v>
+        <v>36783</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>147275</v>
       </c>
       <c r="D34" s="2">
-        <v>927851</v>
+        <v>92785</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
         <v>145796</v>
       </c>
       <c r="D45" s="2">
-        <v>843341</v>
+        <v>84334</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,7 +1585,7 @@
         <v>668602</v>
       </c>
       <c r="D57" s="2">
-        <v>381659</v>
+        <v>388658</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>64596</v>
       </c>
       <c r="D58" s="2">
-        <v>34428</v>
+        <v>34425</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,7 +1963,7 @@
         <v>147021</v>
       </c>
       <c r="D84" s="2">
-        <v>83968</v>
+        <v>88988</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2005,7 +2005,7 @@
         <v>11382</v>
       </c>
       <c r="D87" s="2">
-        <v>6024</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2173,7 +2173,7 @@
         <v>475662</v>
       </c>
       <c r="D99" s="2">
-        <v>204587</v>
+        <v>264587</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">

--- a/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA542D-2A0B-48FA-A5C0-440934FF24C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78FF473-B965-4904-992B-28BCA30E3309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20115" yWindow="2805" windowWidth="18495" windowHeight="22125" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
+    <workbookView xWindow="3180" yWindow="2580" windowWidth="26340" windowHeight="18825" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="138">
   <si>
     <t>губ</t>
   </si>
@@ -409,6 +409,42 @@
   </si>
   <si>
     <t>Бакинское градонач</t>
+  </si>
+  <si>
+    <t>чж-гор-м NYY</t>
+  </si>
+  <si>
+    <t>чж-гор-ж NYY</t>
+  </si>
+  <si>
+    <t>чр-гор-м YY</t>
+  </si>
+  <si>
+    <t>чр-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чс-гор-м YY</t>
+  </si>
+  <si>
+    <t>чс-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чж-уез-м NYY</t>
+  </si>
+  <si>
+    <t>чж-уез-ж NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-м YY</t>
+  </si>
+  <si>
+    <t>чр-уез-ж YY</t>
+  </si>
+  <si>
+    <t>чс-уез-м YY</t>
+  </si>
+  <si>
+    <t>чс-уез-ж YY</t>
   </si>
 </sst>
 </file>
@@ -777,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C7940-0325-42DE-9989-EDE5D7F661BD}">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,9 +824,15 @@
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,8 +845,44 @@
       <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -818,7 +896,7 @@
         <v>12592</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -832,7 +910,7 @@
         <v>55240</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -846,7 +924,7 @@
         <v>67832</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -860,7 +938,7 @@
         <v>16856</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -874,7 +952,7 @@
         <v>36020</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -888,7 +966,7 @@
         <v>36076</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -902,7 +980,7 @@
         <v>36783</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -916,7 +994,7 @@
         <v>48320</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -930,7 +1008,7 @@
         <v>174055</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -944,7 +1022,7 @@
         <v>66673</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -958,7 +1036,7 @@
         <v>37988</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -972,7 +1050,7 @@
         <v>54762</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -986,7 +1064,7 @@
         <v>60397</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1000,7 +1078,7 @@
         <v>57392</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78FF473-B965-4904-992B-28BCA30E3309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF2D78D-F531-4740-A294-EF5852E0353E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2580" windowWidth="26340" windowHeight="18825" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="144">
   <si>
     <t>губ</t>
   </si>
@@ -445,13 +445,31 @@
   </si>
   <si>
     <t>чс-уез-ж YY</t>
+  </si>
+  <si>
+    <t>183(</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>100079!</t>
+  </si>
+  <si>
+    <t>989І8І</t>
+  </si>
+  <si>
+    <t>6в60</t>
+  </si>
+  <si>
+    <t>2285!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +481,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -494,11 +518,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C7940-0325-42DE-9989-EDE5D7F661BD}">
-  <dimension ref="A1:Q125"/>
+  <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="U71" sqref="U71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,6 +925,42 @@
       <c r="D2" s="2">
         <v>12592</v>
       </c>
+      <c r="F2" s="4">
+        <v>29291</v>
+      </c>
+      <c r="G2" s="4">
+        <v>28091</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1055</v>
+      </c>
+      <c r="I2" s="4">
+        <v>960</v>
+      </c>
+      <c r="J2" s="4">
+        <v>989</v>
+      </c>
+      <c r="K2" s="4">
+        <v>683</v>
+      </c>
+      <c r="L2" s="4">
+        <v>197689</v>
+      </c>
+      <c r="M2" s="4">
+        <v>214774</v>
+      </c>
+      <c r="N2" s="4">
+        <v>9113</v>
+      </c>
+      <c r="O2" s="4">
+        <v>8944</v>
+      </c>
+      <c r="P2" s="4">
+        <v>5699</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>5221</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -909,6 +975,42 @@
       <c r="D3" s="2">
         <v>55240</v>
       </c>
+      <c r="F3" s="4">
+        <v>35622</v>
+      </c>
+      <c r="G3" s="4">
+        <v>36098</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1755</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1771</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1338</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1069</v>
+      </c>
+      <c r="L3" s="4">
+        <v>770011</v>
+      </c>
+      <c r="M3" s="4">
+        <v>837974</v>
+      </c>
+      <c r="N3" s="4">
+        <v>39808</v>
+      </c>
+      <c r="O3" s="4">
+        <v>33272</v>
+      </c>
+      <c r="P3" s="4">
+        <v>27829</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>25014</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -923,6 +1025,42 @@
       <c r="D4" s="2">
         <v>67832</v>
       </c>
+      <c r="F4" s="4">
+        <v>64913</v>
+      </c>
+      <c r="G4" s="4">
+        <v>64189</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2616</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2731</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2327</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1742</v>
+      </c>
+      <c r="L4" s="4">
+        <v>967700</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1052748</v>
+      </c>
+      <c r="N4" s="4">
+        <v>40321</v>
+      </c>
+      <c r="O4" s="4">
+        <v>47216</v>
+      </c>
+      <c r="P4" s="4">
+        <v>33528</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>30235</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -937,6 +1075,42 @@
       <c r="D5" s="2">
         <v>16856</v>
       </c>
+      <c r="F5" s="4">
+        <v>16947</v>
+      </c>
+      <c r="G5" s="4">
+        <v>18326</v>
+      </c>
+      <c r="H5" s="4">
+        <v>638</v>
+      </c>
+      <c r="I5" s="4">
+        <v>548</v>
+      </c>
+      <c r="J5" s="4">
+        <v>631</v>
+      </c>
+      <c r="K5" s="4">
+        <v>440</v>
+      </c>
+      <c r="L5" s="4">
+        <v>204711</v>
+      </c>
+      <c r="M5" s="4">
+        <v>212014</v>
+      </c>
+      <c r="N5" s="4">
+        <v>9866</v>
+      </c>
+      <c r="O5" s="4">
+        <v>9543</v>
+      </c>
+      <c r="P5" s="4">
+        <v>8291</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>7494</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -951,6 +1125,42 @@
       <c r="D6" s="2">
         <v>36020</v>
       </c>
+      <c r="F6" s="4">
+        <v>319964</v>
+      </c>
+      <c r="G6" s="4">
+        <v>261476</v>
+      </c>
+      <c r="H6" s="4">
+        <v>8990</v>
+      </c>
+      <c r="I6" s="4">
+        <v>8608</v>
+      </c>
+      <c r="J6" s="4">
+        <v>8265</v>
+      </c>
+      <c r="K6" s="4">
+        <v>6277</v>
+      </c>
+      <c r="L6" s="4">
+        <v>517355</v>
+      </c>
+      <c r="M6" s="4">
+        <v>525890</v>
+      </c>
+      <c r="N6" s="4">
+        <v>15479</v>
+      </c>
+      <c r="O6" s="4">
+        <v>14594</v>
+      </c>
+      <c r="P6" s="4">
+        <v>11708</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>9770</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -965,6 +1175,42 @@
       <c r="D7" s="2">
         <v>36076</v>
       </c>
+      <c r="F7" s="4">
+        <v>891873</v>
+      </c>
+      <c r="G7" s="4">
+        <v>816727</v>
+      </c>
+      <c r="H7" s="4">
+        <v>22732</v>
+      </c>
+      <c r="I7" s="4">
+        <v>21671</v>
+      </c>
+      <c r="J7" s="4">
+        <v>20925</v>
+      </c>
+      <c r="K7" s="4">
+        <v>16151</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -979,6 +1225,42 @@
       <c r="D8" s="2">
         <v>36783</v>
       </c>
+      <c r="F8" s="4">
+        <v>417481</v>
+      </c>
+      <c r="G8" s="4">
+        <v>44132</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1676</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1458</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1459</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1154</v>
+      </c>
+      <c r="L8" s="4">
+        <v>667111</v>
+      </c>
+      <c r="M8" s="4">
+        <v>706610</v>
+      </c>
+      <c r="N8" s="4">
+        <v>266511</v>
+      </c>
+      <c r="O8" s="4">
+        <v>25701</v>
+      </c>
+      <c r="P8" s="4">
+        <v>18128</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>16047</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -993,6 +1275,42 @@
       <c r="D9" s="2">
         <v>48320</v>
       </c>
+      <c r="F9" s="4">
+        <v>43822</v>
+      </c>
+      <c r="G9" s="4">
+        <v>46038</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1742</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1649</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1541</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1388</v>
+      </c>
+      <c r="L9" s="4">
+        <v>763340</v>
+      </c>
+      <c r="M9" s="4">
+        <v>823873</v>
+      </c>
+      <c r="N9" s="4">
+        <v>34732</v>
+      </c>
+      <c r="O9" s="4">
+        <v>32598</v>
+      </c>
+      <c r="P9" s="4">
+        <v>24297</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>21094</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1007,6 +1325,42 @@
       <c r="D10" s="2">
         <v>174055</v>
       </c>
+      <c r="F10" s="4">
+        <v>1314354</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1186664</v>
+      </c>
+      <c r="H10" s="4">
+        <v>35678</v>
+      </c>
+      <c r="I10" s="4">
+        <v>33934</v>
+      </c>
+      <c r="J10" s="4">
+        <v>32821</v>
+      </c>
+      <c r="K10" s="4">
+        <v>24410</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2132517</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2268387</v>
+      </c>
+      <c r="N10" s="4">
+        <v>86727</v>
+      </c>
+      <c r="O10" s="4">
+        <v>82436</v>
+      </c>
+      <c r="P10" s="4">
+        <v>92419</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>54405</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1021,6 +1375,42 @@
       <c r="D11" s="2">
         <v>66673</v>
       </c>
+      <c r="F11" s="4">
+        <v>84096</v>
+      </c>
+      <c r="G11" s="4">
+        <v>84601</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2715</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2615</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2280</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2135</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1005640</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1202342</v>
+      </c>
+      <c r="N11" s="4">
+        <v>45142</v>
+      </c>
+      <c r="O11" s="4">
+        <v>48217</v>
+      </c>
+      <c r="P11" s="4">
+        <v>82918</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>29840</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1035,6 +1425,42 @@
       <c r="D12" s="2">
         <v>37988</v>
       </c>
+      <c r="F12" s="4">
+        <v>111157</v>
+      </c>
+      <c r="G12" s="4">
+        <v>107030</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4274</v>
+      </c>
+      <c r="I12" s="4">
+        <v>4191</v>
+      </c>
+      <c r="J12" s="4">
+        <v>8778</v>
+      </c>
+      <c r="K12" s="4">
+        <v>3083</v>
+      </c>
+      <c r="L12" s="4">
+        <v>565287</v>
+      </c>
+      <c r="M12" s="4">
+        <v>642201</v>
+      </c>
+      <c r="N12" s="4">
+        <v>21657</v>
+      </c>
+      <c r="O12" s="4">
+        <v>20668</v>
+      </c>
+      <c r="P12" s="4">
+        <v>16105</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>16027</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1049,6 +1475,42 @@
       <c r="D13" s="2">
         <v>54762</v>
       </c>
+      <c r="F13" s="4">
+        <v>48532</v>
+      </c>
+      <c r="G13" s="4">
+        <v>61822</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2726</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2534</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2126</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1823</v>
+      </c>
+      <c r="L13" s="4">
+        <v>7914151</v>
+      </c>
+      <c r="M13" s="4">
+        <v>893100</v>
+      </c>
+      <c r="N13" s="4">
+        <v>38515</v>
+      </c>
+      <c r="O13" s="4">
+        <v>36619</v>
+      </c>
+      <c r="P13" s="4">
+        <v>26363</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>24450</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1063,6 +1525,42 @@
       <c r="D14" s="2">
         <v>60397</v>
       </c>
+      <c r="F14" s="4">
+        <v>190496</v>
+      </c>
+      <c r="G14" s="4">
+        <v>176547</v>
+      </c>
+      <c r="H14" s="4">
+        <v>7138</v>
+      </c>
+      <c r="I14" s="4">
+        <v>6681</v>
+      </c>
+      <c r="J14" s="4">
+        <v>6124</v>
+      </c>
+      <c r="K14" s="4">
+        <v>4504</v>
+      </c>
+      <c r="L14" s="4">
+        <v>931650</v>
+      </c>
+      <c r="M14" s="4">
+        <v>968466</v>
+      </c>
+      <c r="N14" s="4">
+        <v>38062</v>
+      </c>
+      <c r="O14" s="4">
+        <v>37424</v>
+      </c>
+      <c r="P14" s="4">
+        <v>26728</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>24041</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1077,6 +1575,42 @@
       <c r="D15" s="2">
         <v>57392</v>
       </c>
+      <c r="F15" s="4">
+        <v>73161</v>
+      </c>
+      <c r="G15" s="4">
+        <v>65033</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3791</v>
+      </c>
+      <c r="I15" s="4">
+        <v>3509</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2814</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2227</v>
+      </c>
+      <c r="L15" s="4">
+        <v>754790</v>
+      </c>
+      <c r="M15" s="4">
+        <v>929985</v>
+      </c>
+      <c r="N15" s="4">
+        <v>36532</v>
+      </c>
+      <c r="O15" s="4">
+        <v>36501</v>
+      </c>
+      <c r="P15" s="4">
+        <v>27939</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>24412</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1091,8 +1625,44 @@
       <c r="D16" s="2">
         <v>41940</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="4">
+        <v>905783</v>
+      </c>
+      <c r="G16" s="4">
+        <v>769114</v>
+      </c>
+      <c r="H16" s="4">
+        <v>27831</v>
+      </c>
+      <c r="I16" s="4">
+        <v>26818</v>
+      </c>
+      <c r="J16" s="4">
+        <v>23204</v>
+      </c>
+      <c r="K16" s="4">
+        <v>18736</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1105,8 +1675,44 @@
       <c r="D17" s="2">
         <v>45864</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="4">
+        <v>49291</v>
+      </c>
+      <c r="G17" s="4">
+        <v>48336</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1943</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1816</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1643</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1312</v>
+      </c>
+      <c r="L17" s="4">
+        <v>654549</v>
+      </c>
+      <c r="M17" s="4">
+        <v>744083</v>
+      </c>
+      <c r="N17" s="4">
+        <v>32668</v>
+      </c>
+      <c r="O17" s="4">
+        <v>31604</v>
+      </c>
+      <c r="P17" s="4">
+        <v>22520</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>20389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1119,8 +1725,44 @@
       <c r="D18" s="2">
         <v>365016</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="4">
+        <v>1452466</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1300983</v>
+      </c>
+      <c r="H18" s="4">
+        <v>50418</v>
+      </c>
+      <c r="I18" s="4">
+        <v>48064</v>
+      </c>
+      <c r="J18" s="4">
+        <v>40964</v>
+      </c>
+      <c r="K18" s="4">
+        <v>33820</v>
+      </c>
+      <c r="L18" s="4">
+        <v>4703281</v>
+      </c>
+      <c r="M18" s="4">
+        <v>5365227</v>
+      </c>
+      <c r="N18" s="4">
+        <v>213576</v>
+      </c>
+      <c r="O18" s="4">
+        <v>205233</v>
+      </c>
+      <c r="P18" s="4">
+        <v>152573</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>137659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1133,8 +1775,44 @@
       <c r="D19" s="2">
         <v>61754</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="4">
+        <v>109318</v>
+      </c>
+      <c r="G19" s="4">
+        <v>97130</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3906</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3681</v>
+      </c>
+      <c r="J19" s="4">
+        <v>3550</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2912</v>
+      </c>
+      <c r="L19" s="4">
+        <v>878264</v>
+      </c>
+      <c r="M19" s="4">
+        <v>893546</v>
+      </c>
+      <c r="N19" s="4">
+        <v>88554</v>
+      </c>
+      <c r="O19" s="4">
+        <v>36433</v>
+      </c>
+      <c r="P19" s="4">
+        <v>29093</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>26199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1147,8 +1825,44 @@
       <c r="D20" s="2">
         <v>66643</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="4">
+        <v>74756</v>
+      </c>
+      <c r="G20" s="4">
+        <v>70153</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2891</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2719</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2430</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1984</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1245462</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1263514</v>
+      </c>
+      <c r="N20" s="4">
+        <v>49850</v>
+      </c>
+      <c r="O20" s="4">
+        <v>47491</v>
+      </c>
+      <c r="P20" s="4">
+        <v>32660</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>29569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1161,8 +1875,44 @@
       <c r="D21" s="2">
         <v>73317</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="4">
+        <v>159600</v>
+      </c>
+      <c r="G21" s="4">
+        <v>151800</v>
+      </c>
+      <c r="H21" s="4">
+        <v>4198</v>
+      </c>
+      <c r="I21" s="4">
+        <v>4012</v>
+      </c>
+      <c r="J21" s="4">
+        <v>8610</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2944</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1178100</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1229700</v>
+      </c>
+      <c r="N21" s="4">
+        <v>56364</v>
+      </c>
+      <c r="O21" s="4">
+        <v>53729</v>
+      </c>
+      <c r="P21" s="4">
+        <v>35058</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>31705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1175,8 +1925,44 @@
       <c r="D22" s="2">
         <v>88041</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="4">
+        <v>125186</v>
+      </c>
+      <c r="G22" s="4">
+        <v>127357</v>
+      </c>
+      <c r="H22" s="4">
+        <v>661</v>
+      </c>
+      <c r="I22" s="4">
+        <v>6098</v>
+      </c>
+      <c r="J22" s="4">
+        <v>4777</v>
+      </c>
+      <c r="K22" s="4">
+        <v>4295</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1403347</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1409967</v>
+      </c>
+      <c r="N22" s="4">
+        <v>67478</v>
+      </c>
+      <c r="O22" s="4">
+        <v>64913</v>
+      </c>
+      <c r="P22" s="4">
+        <v>39286</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>39683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1189,8 +1975,44 @@
       <c r="D23" s="2">
         <v>109194</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="4">
+        <v>87173</v>
+      </c>
+      <c r="G23" s="4">
+        <v>79443</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2767</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2656</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2358</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1908</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1791164</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1744809</v>
+      </c>
+      <c r="N23" s="4">
+        <v>87092</v>
+      </c>
+      <c r="O23" s="4">
+        <v>82795</v>
+      </c>
+      <c r="P23" s="4">
+        <v>54705</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>60223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1203,8 +2025,44 @@
       <c r="D24" s="2">
         <v>112977</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="4">
+        <v>144149</v>
+      </c>
+      <c r="G24" s="4">
+        <v>137024</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4726</v>
+      </c>
+      <c r="I24" s="4">
+        <v>4766</v>
+      </c>
+      <c r="J24" s="4">
+        <v>3711</v>
+      </c>
+      <c r="K24" s="4">
+        <v>3504</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1770778</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1791583</v>
+      </c>
+      <c r="N24" s="4">
+        <v>86513</v>
+      </c>
+      <c r="O24" s="4">
+        <v>82327</v>
+      </c>
+      <c r="P24" s="4">
+        <v>65009</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>50753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1217,8 +2075,44 @@
       <c r="D25" s="2">
         <v>511926</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="4">
+        <v>700082</v>
+      </c>
+      <c r="G25" s="4">
+        <v>662907</v>
+      </c>
+      <c r="H25" s="4">
+        <v>25048</v>
+      </c>
+      <c r="I25" s="4">
+        <v>23832</v>
+      </c>
+      <c r="J25" s="4">
+        <v>20436</v>
+      </c>
+      <c r="K25" s="4">
+        <v>17547</v>
+      </c>
+      <c r="L25" s="4">
+        <v>8267113</v>
+      </c>
+      <c r="M25" s="4">
+        <v>8338124</v>
+      </c>
+      <c r="N25" s="4">
+        <v>385851</v>
+      </c>
+      <c r="O25" s="4">
+        <v>367688</v>
+      </c>
+      <c r="P25" s="4">
+        <v>245811</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>228132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1231,8 +2125,44 @@
       <c r="D26" s="2">
         <v>64323</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="4">
+        <v>84473</v>
+      </c>
+      <c r="G26" s="4">
+        <v>80316</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3728</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3568</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2959</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2433</v>
+      </c>
+      <c r="L26" s="4">
+        <v>921624</v>
+      </c>
+      <c r="M26" s="4">
+        <v>932094</v>
+      </c>
+      <c r="N26" s="4">
+        <v>44076</v>
+      </c>
+      <c r="O26" s="4">
+        <v>43620</v>
+      </c>
+      <c r="P26" s="4">
+        <v>30766</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>28175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1245,8 +2175,44 @@
       <c r="D27" s="2">
         <v>93814</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" s="4">
+        <v>274406</v>
+      </c>
+      <c r="G27" s="4">
+        <v>288283</v>
+      </c>
+      <c r="H27" s="4">
+        <v>9769</v>
+      </c>
+      <c r="I27" s="4">
+        <v>233</v>
+      </c>
+      <c r="J27" s="4">
+        <v>8062</v>
+      </c>
+      <c r="K27" s="4">
+        <v>6691</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1352231</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1366686</v>
+      </c>
+      <c r="N27" s="4">
+        <v>66847</v>
+      </c>
+      <c r="O27" s="4">
+        <v>64617</v>
+      </c>
+      <c r="P27" s="4">
+        <v>40847</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>38214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1259,8 +2225,44 @@
       <c r="D28" s="2">
         <v>64187</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" s="4">
+        <v>91633</v>
+      </c>
+      <c r="G28" s="4">
+        <v>81648</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4120</v>
+      </c>
+      <c r="I28" s="4">
+        <v>3945</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3127</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2802</v>
+      </c>
+      <c r="L28" s="4">
+        <v>915048</v>
+      </c>
+      <c r="M28" s="4">
+        <v>950590</v>
+      </c>
+      <c r="N28" s="4">
+        <v>47516</v>
+      </c>
+      <c r="O28" s="4">
+        <v>45280</v>
+      </c>
+      <c r="P28" s="4">
+        <v>29996</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>28262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1273,8 +2275,44 @@
       <c r="D29" s="2">
         <v>66329</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" s="4">
+        <v>77438</v>
+      </c>
+      <c r="G29" s="4">
+        <v>74458</v>
+      </c>
+      <c r="H29" s="4">
+        <v>8291</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3020</v>
+      </c>
+      <c r="J29" s="4">
+        <v>2711</v>
+      </c>
+      <c r="K29" s="4">
+        <v>2247</v>
+      </c>
+      <c r="L29" s="4">
+        <v>961778</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1004684</v>
+      </c>
+      <c r="N29" s="4">
+        <v>46220</v>
+      </c>
+      <c r="O29" s="4">
+        <v>42003</v>
+      </c>
+      <c r="P29" s="4">
+        <v>32359</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>29012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1287,8 +2325,44 @@
       <c r="D30" s="2">
         <v>88161</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" s="4">
+        <v>130938</v>
+      </c>
+      <c r="G30" s="4">
+        <v>129037</v>
+      </c>
+      <c r="H30" s="4">
+        <v>4470</v>
+      </c>
+      <c r="I30" s="4">
+        <v>5015</v>
+      </c>
+      <c r="J30" s="4">
+        <v>4071</v>
+      </c>
+      <c r="K30" s="4">
+        <v>3325</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1299993</v>
+      </c>
+      <c r="M30" s="4">
+        <v>1290133</v>
+      </c>
+      <c r="N30" s="4">
+        <v>55127</v>
+      </c>
+      <c r="O30" s="4">
+        <v>53617</v>
+      </c>
+      <c r="P30" s="4">
+        <v>40871</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>39894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1301,8 +2375,44 @@
       <c r="D31" s="2">
         <v>376814</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" s="4">
+        <v>658688</v>
+      </c>
+      <c r="G31" s="4">
+        <v>653642</v>
+      </c>
+      <c r="H31" s="4">
+        <v>25378</v>
+      </c>
+      <c r="I31" s="4">
+        <v>24781</v>
+      </c>
+      <c r="J31" s="4">
+        <v>20930</v>
+      </c>
+      <c r="K31" s="4">
+        <v>17498</v>
+      </c>
+      <c r="L31" s="4">
+        <v>5440674</v>
+      </c>
+      <c r="M31" s="4">
+        <v>5544187</v>
+      </c>
+      <c r="N31" s="4">
+        <v>259786</v>
+      </c>
+      <c r="O31" s="4">
+        <v>249137</v>
+      </c>
+      <c r="P31" s="4">
+        <v>174829</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>163557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1315,8 +2425,44 @@
       <c r="D32" s="2">
         <v>136454</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="4">
+        <v>79288</v>
+      </c>
+      <c r="G32" s="4">
+        <v>76452</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2414</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2181</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1977</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1727</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1791168</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1866345</v>
+      </c>
+      <c r="N32" s="4">
+        <v>84025</v>
+      </c>
+      <c r="O32" s="4">
+        <v>89731</v>
+      </c>
+      <c r="P32" s="4">
+        <v>88142</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>64608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1329,8 +2475,44 @@
       <c r="D33" s="2">
         <v>154406</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="4">
+        <v>108932</v>
+      </c>
+      <c r="G33" s="4">
+        <v>102533</v>
+      </c>
+      <c r="H33" s="4">
+        <v>6224</v>
+      </c>
+      <c r="I33" s="4">
+        <v>4922</v>
+      </c>
+      <c r="J33" s="4">
+        <v>4924</v>
+      </c>
+      <c r="K33" s="4">
+        <v>4086</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1752312</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1872811</v>
+      </c>
+      <c r="N33" s="4">
+        <v>99766</v>
+      </c>
+      <c r="O33" s="4">
+        <v>96549</v>
+      </c>
+      <c r="P33" s="4">
+        <v>75448</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>69948</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1343,8 +2525,44 @@
       <c r="D34" s="2">
         <v>92785</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="4">
+        <v>93178</v>
+      </c>
+      <c r="G34" s="4">
+        <v>94206</v>
+      </c>
+      <c r="H34" s="4">
+        <v>4660</v>
+      </c>
+      <c r="I34" s="4">
+        <v>4469</v>
+      </c>
+      <c r="J34" s="4">
+        <v>3757</v>
+      </c>
+      <c r="K34" s="4">
+        <v>3016</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1425375</v>
+      </c>
+      <c r="M34" s="4">
+        <v>1630334</v>
+      </c>
+      <c r="N34" s="4">
+        <v>70811</v>
+      </c>
+      <c r="O34" s="4">
+        <v>67445</v>
+      </c>
+      <c r="P34" s="4">
+        <v>43394</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>42618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1357,8 +2575,44 @@
       <c r="D35" s="2">
         <v>383645</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="4">
+        <v>276378</v>
+      </c>
+      <c r="G35" s="4">
+        <v>273191</v>
+      </c>
+      <c r="H35" s="4">
+        <v>12198</v>
+      </c>
+      <c r="I35" s="4">
+        <v>11562</v>
+      </c>
+      <c r="J35" s="4">
+        <v>10658</v>
+      </c>
+      <c r="K35" s="4">
+        <v>8829</v>
+      </c>
+      <c r="L35" s="4">
+        <v>4968885</v>
+      </c>
+      <c r="M35" s="4">
+        <v>5269490</v>
+      </c>
+      <c r="N35" s="4">
+        <v>264602</v>
+      </c>
+      <c r="O35" s="4">
+        <v>253725</v>
+      </c>
+      <c r="P35" s="4">
+        <v>186984</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>177174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1371,8 +2625,44 @@
       <c r="D36" s="2">
         <v>81325</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" s="4">
+        <v>166173</v>
+      </c>
+      <c r="G36" s="4">
+        <v>136444</v>
+      </c>
+      <c r="H36" s="4">
+        <v>5909</v>
+      </c>
+      <c r="I36" s="4">
+        <v>5851</v>
+      </c>
+      <c r="J36" s="4">
+        <v>4871</v>
+      </c>
+      <c r="K36" s="4">
+        <v>3960</v>
+      </c>
+      <c r="L36" s="4">
+        <v>994340</v>
+      </c>
+      <c r="M36" s="4">
+        <v>990206</v>
+      </c>
+      <c r="N36" s="4">
+        <v>54968</v>
+      </c>
+      <c r="O36" s="4">
+        <v>53781</v>
+      </c>
+      <c r="P36" s="4">
+        <v>37096</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>35398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1385,8 +2675,44 @@
       <c r="D37" s="2">
         <v>117771</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" s="4">
+        <v>84996</v>
+      </c>
+      <c r="G37" s="4">
+        <v>94617</v>
+      </c>
+      <c r="H37" s="4">
+        <v>6220</v>
+      </c>
+      <c r="I37" s="4">
+        <v>6107</v>
+      </c>
+      <c r="J37" s="4">
+        <v>5249</v>
+      </c>
+      <c r="K37" s="4">
+        <v>4214</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1795559</v>
+      </c>
+      <c r="M37" s="4">
+        <v>1830724</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O37" s="4">
+        <v>96747</v>
+      </c>
+      <c r="P37" s="4">
+        <v>55991</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>52317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1399,8 +2725,44 @@
       <c r="D38" s="2">
         <v>30059</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" s="4">
+        <v>99438</v>
+      </c>
+      <c r="G38" s="4">
+        <v>97265</v>
+      </c>
+      <c r="H38" s="4">
+        <v>3735</v>
+      </c>
+      <c r="I38" s="4">
+        <v>3632</v>
+      </c>
+      <c r="J38" s="4">
+        <v>3431</v>
+      </c>
+      <c r="K38" s="4">
+        <v>2799</v>
+      </c>
+      <c r="L38" s="4">
+        <v>591946</v>
+      </c>
+      <c r="M38" s="4">
+        <v>559198</v>
+      </c>
+      <c r="N38" s="4">
+        <v>22049</v>
+      </c>
+      <c r="O38" s="4">
+        <v>20670</v>
+      </c>
+      <c r="P38" s="4">
+        <v>12626</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>11203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1413,8 +2775,44 @@
       <c r="D39" s="2">
         <v>229155</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" s="4">
+        <v>339607</v>
+      </c>
+      <c r="G39" s="4">
+        <v>328316</v>
+      </c>
+      <c r="H39" s="4">
+        <v>15864</v>
+      </c>
+      <c r="I39" s="4">
+        <v>15590</v>
+      </c>
+      <c r="J39" s="4">
+        <v>13551</v>
+      </c>
+      <c r="K39" s="4">
+        <v>10973</v>
+      </c>
+      <c r="L39" s="4">
+        <v>3381845</v>
+      </c>
+      <c r="M39" s="4">
+        <v>3380128</v>
+      </c>
+      <c r="N39" s="4">
+        <v>177096</v>
+      </c>
+      <c r="O39" s="4">
+        <v>170198</v>
+      </c>
+      <c r="P39" s="4">
+        <v>105713</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1427,8 +2825,44 @@
       <c r="D40" s="2">
         <v>85852</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" s="4">
+        <v>230163</v>
+      </c>
+      <c r="G40" s="4">
+        <v>216708</v>
+      </c>
+      <c r="H40" s="4">
+        <v>7856</v>
+      </c>
+      <c r="I40" s="4">
+        <v>7299</v>
+      </c>
+      <c r="J40" s="4">
+        <v>5655</v>
+      </c>
+      <c r="K40" s="4">
+        <v>4783</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1601752</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1461950</v>
+      </c>
+      <c r="N40" s="4">
+        <v>70345</v>
+      </c>
+      <c r="O40" s="4">
+        <v>66115</v>
+      </c>
+      <c r="P40" s="4">
+        <v>39226</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>36139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1441,8 +2875,44 @@
       <c r="D41" s="2">
         <v>71886</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" s="4">
+        <v>209183</v>
+      </c>
+      <c r="G41" s="4">
+        <v>212878</v>
+      </c>
+      <c r="H41" s="4">
+        <v>6946</v>
+      </c>
+      <c r="I41" s="4">
+        <v>6699</v>
+      </c>
+      <c r="J41" s="4">
+        <v>4084</v>
+      </c>
+      <c r="K41" s="4">
+        <v>3326</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1683523</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1674359</v>
+      </c>
+      <c r="N41" s="4">
+        <v>61738</v>
+      </c>
+      <c r="O41" s="4">
+        <v>58387</v>
+      </c>
+      <c r="P41" s="4">
+        <v>33985</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>30492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1455,8 +2925,44 @@
       <c r="D42" s="2">
         <v>63274</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" s="4">
+        <v>140168</v>
+      </c>
+      <c r="G42" s="4">
+        <v>138776</v>
+      </c>
+      <c r="H42" s="4">
+        <v>3639</v>
+      </c>
+      <c r="I42" s="4">
+        <v>3653</v>
+      </c>
+      <c r="J42" s="4">
+        <v>2860</v>
+      </c>
+      <c r="K42" s="4">
+        <v>2308</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1344730</v>
+      </c>
+      <c r="M42" s="4">
+        <v>1332653</v>
+      </c>
+      <c r="N42" s="4">
+        <v>54870</v>
+      </c>
+      <c r="O42" s="4">
+        <v>51959</v>
+      </c>
+      <c r="P42" s="4">
+        <v>30572</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>27534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1469,8 +2975,44 @@
       <c r="D43" s="2">
         <v>221012</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" s="4">
+        <v>579515</v>
+      </c>
+      <c r="G43" s="4">
+        <v>568361</v>
+      </c>
+      <c r="H43" s="4">
+        <v>17440</v>
+      </c>
+      <c r="I43" s="4">
+        <v>16851</v>
+      </c>
+      <c r="J43" s="4">
+        <v>12590</v>
+      </c>
+      <c r="K43" s="4">
+        <v>10416</v>
+      </c>
+      <c r="L43" s="4">
+        <v>4630005</v>
+      </c>
+      <c r="M43" s="4">
+        <v>4468862</v>
+      </c>
+      <c r="N43" s="4">
+        <v>186353</v>
+      </c>
+      <c r="O43" s="4">
+        <v>176461</v>
+      </c>
+      <c r="P43" s="4">
+        <v>103782</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>94215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1483,8 +3025,44 @@
       <c r="D44" s="2">
         <v>104327</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" s="4">
+        <v>463899</v>
+      </c>
+      <c r="G44" s="4">
+        <v>471506</v>
+      </c>
+      <c r="H44" s="4">
+        <v>10872</v>
+      </c>
+      <c r="I44" s="4">
+        <v>10321</v>
+      </c>
+      <c r="J44" s="4">
+        <v>8227</v>
+      </c>
+      <c r="K44" s="4">
+        <v>6640</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1970393</v>
+      </c>
+      <c r="M44" s="4">
+        <v>1996994</v>
+      </c>
+      <c r="N44" s="4">
+        <v>79143</v>
+      </c>
+      <c r="O44" s="4">
+        <v>74768</v>
+      </c>
+      <c r="P44" s="4">
+        <v>47406</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>42054</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1497,8 +3075,44 @@
       <c r="D45" s="2">
         <v>84334</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" s="4">
+        <v>161434</v>
+      </c>
+      <c r="G45" s="4">
+        <v>178438</v>
+      </c>
+      <c r="H45" s="4">
+        <v>4363</v>
+      </c>
+      <c r="I45" s="4">
+        <v>3938</v>
+      </c>
+      <c r="J45" s="4">
+        <v>3172</v>
+      </c>
+      <c r="K45" s="4">
+        <v>2669</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1770967</v>
+      </c>
+      <c r="M45" s="4">
+        <v>176853</v>
+      </c>
+      <c r="N45" s="4">
+        <v>70747</v>
+      </c>
+      <c r="O45" s="4">
+        <v>66748</v>
+      </c>
+      <c r="P45" s="4">
+        <v>41208</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>37385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1511,8 +3125,44 @@
       <c r="D46" s="2">
         <v>87214</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" s="4">
+        <v>144451</v>
+      </c>
+      <c r="G46" s="4">
+        <v>160935</v>
+      </c>
+      <c r="H46" s="4">
+        <v>8498</v>
+      </c>
+      <c r="I46" s="4">
+        <v>3240</v>
+      </c>
+      <c r="J46" s="4">
+        <v>2568</v>
+      </c>
+      <c r="K46" s="4">
+        <v>2087</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1780396</v>
+      </c>
+      <c r="M46" s="4">
+        <v>1813442</v>
+      </c>
+      <c r="N46" s="4">
+        <v>66497</v>
+      </c>
+      <c r="O46" s="4">
+        <v>62510</v>
+      </c>
+      <c r="P46" s="4">
+        <v>43248</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>89311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1525,8 +3175,44 @@
       <c r="D47" s="2">
         <v>15258</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" s="4">
+        <v>62982</v>
+      </c>
+      <c r="G47" s="4">
+        <v>49692</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1183</v>
+      </c>
+      <c r="I47" s="4">
+        <v>817</v>
+      </c>
+      <c r="J47" s="4">
+        <v>636</v>
+      </c>
+      <c r="K47" s="4">
+        <v>523</v>
+      </c>
+      <c r="L47" s="4">
+        <v>440360</v>
+      </c>
+      <c r="M47" s="4">
+        <v>444334</v>
+      </c>
+      <c r="N47" s="4">
+        <v>12842</v>
+      </c>
+      <c r="O47" s="4">
+        <v>12135</v>
+      </c>
+      <c r="P47" s="4">
+        <v>7120</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>6979</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1539,8 +3225,44 @@
       <c r="D48" s="2">
         <v>291133</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" s="4">
+        <v>822766</v>
+      </c>
+      <c r="G48" s="4">
+        <v>845571</v>
+      </c>
+      <c r="H48" s="4">
+        <v>19918</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J48" s="4">
+        <v>14603</v>
+      </c>
+      <c r="K48" s="4">
+        <v>11819</v>
+      </c>
+      <c r="L48" s="4">
+        <v>5962116</v>
+      </c>
+      <c r="M48" s="4">
+        <v>6023305</v>
+      </c>
+      <c r="N48" s="4">
+        <v>229229</v>
+      </c>
+      <c r="O48" s="4">
+        <v>216161</v>
+      </c>
+      <c r="P48" s="4">
+        <v>138982</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>125729</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1553,8 +3275,44 @@
       <c r="D49" s="2">
         <v>76687</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="4">
+        <v>144430</v>
+      </c>
+      <c r="G49" s="4">
+        <v>137664</v>
+      </c>
+      <c r="H49" s="4">
+        <v>4067</v>
+      </c>
+      <c r="I49" s="4">
+        <v>3806</v>
+      </c>
+      <c r="J49" s="4">
+        <v>3794</v>
+      </c>
+      <c r="K49" s="4">
+        <v>3157</v>
+      </c>
+      <c r="L49" s="4">
+        <v>1088454</v>
+      </c>
+      <c r="M49" s="4">
+        <v>1102067</v>
+      </c>
+      <c r="N49" s="4">
+        <v>47792</v>
+      </c>
+      <c r="O49" s="4">
+        <v>44777</v>
+      </c>
+      <c r="P49" s="4">
+        <v>35696</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>34040</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1567,8 +3325,44 @@
       <c r="D50" s="2">
         <v>72117</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="4">
+        <v>115406</v>
+      </c>
+      <c r="G50" s="4">
+        <v>109459</v>
+      </c>
+      <c r="H50" s="4">
+        <v>4244</v>
+      </c>
+      <c r="I50" s="4">
+        <v>4216</v>
+      </c>
+      <c r="J50" s="4">
+        <v>3395</v>
+      </c>
+      <c r="K50" s="4">
+        <v>2728</v>
+      </c>
+      <c r="L50" s="4">
+        <v>1464120</v>
+      </c>
+      <c r="M50" s="4">
+        <v>1370919</v>
+      </c>
+      <c r="N50" s="4">
+        <v>60471</v>
+      </c>
+      <c r="O50" s="4">
+        <v>57692</v>
+      </c>
+      <c r="P50" s="4">
+        <v>36125</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>30869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1581,8 +3375,44 @@
       <c r="D51" s="2">
         <v>3310</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="4">
+        <v>67226</v>
+      </c>
+      <c r="G51" s="4">
+        <v>53821</v>
+      </c>
+      <c r="H51" s="4">
+        <v>2381</v>
+      </c>
+      <c r="I51" s="4">
+        <v>2219</v>
+      </c>
+      <c r="J51" s="4">
+        <v>1876</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1434</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4">
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1595,8 +3425,44 @@
       <c r="D52" s="2">
         <v>10248</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="4">
+        <v>329902</v>
+      </c>
+      <c r="G52" s="4">
+        <v>325983</v>
+      </c>
+      <c r="H52" s="4">
+        <v>7309</v>
+      </c>
+      <c r="I52" s="4">
+        <v>6946</v>
+      </c>
+      <c r="J52" s="4">
+        <v>5778</v>
+      </c>
+      <c r="K52" s="4">
+        <v>4470</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0</v>
+      </c>
+      <c r="P52" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1609,8 +3475,44 @@
       <c r="D53" s="2">
         <v>45828</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="4">
+        <v>178266</v>
+      </c>
+      <c r="G53" s="4">
+        <v>166564</v>
+      </c>
+      <c r="H53" s="4">
+        <v>6652</v>
+      </c>
+      <c r="I53" s="4">
+        <v>6051</v>
+      </c>
+      <c r="J53" s="4">
+        <v>4640</v>
+      </c>
+      <c r="K53" s="4">
+        <v>3454</v>
+      </c>
+      <c r="L53" s="4">
+        <v>826813</v>
+      </c>
+      <c r="M53" s="4">
+        <v>788777</v>
+      </c>
+      <c r="N53" s="4">
+        <v>38476</v>
+      </c>
+      <c r="O53" s="4">
+        <v>36307</v>
+      </c>
+      <c r="P53" s="4">
+        <v>19664</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>18170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1623,8 +3525,44 @@
       <c r="D54" s="2">
         <v>1773</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" s="4">
+        <v>39292</v>
+      </c>
+      <c r="G54" s="4">
+        <v>33419</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1410</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1338</v>
+      </c>
+      <c r="J54" s="4">
+        <v>999</v>
+      </c>
+      <c r="K54" s="4">
+        <v>774</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
+        <v>0</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0</v>
+      </c>
+      <c r="P54" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -1637,8 +3575,44 @@
       <c r="D55" s="2">
         <v>79557</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" s="4">
+        <v>258646</v>
+      </c>
+      <c r="G55" s="4">
+        <v>238172</v>
+      </c>
+      <c r="H55" s="4">
+        <v>8606</v>
+      </c>
+      <c r="I55" s="4">
+        <v>8112</v>
+      </c>
+      <c r="J55" s="4">
+        <v>5745</v>
+      </c>
+      <c r="K55" s="4">
+        <v>4334</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1547391</v>
+      </c>
+      <c r="M55" s="4">
+        <v>1386170</v>
+      </c>
+      <c r="N55" s="4">
+        <v>74011</v>
+      </c>
+      <c r="O55" s="4">
+        <v>69643</v>
+      </c>
+      <c r="P55" s="4">
+        <v>37716</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>31762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1651,8 +3625,44 @@
       <c r="D56" s="2">
         <v>99138</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="4">
+        <v>204909</v>
+      </c>
+      <c r="G56" s="4">
+        <v>192727</v>
+      </c>
+      <c r="H56" s="4">
+        <v>7076</v>
+      </c>
+      <c r="I56" s="4">
+        <v>6848</v>
+      </c>
+      <c r="J56" s="4">
+        <v>6182</v>
+      </c>
+      <c r="K56" s="4">
+        <v>3901</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1667144</v>
+      </c>
+      <c r="M56" s="4">
+        <v>1614608</v>
+      </c>
+      <c r="N56" s="4">
+        <v>81253</v>
+      </c>
+      <c r="O56" s="4">
+        <v>77010</v>
+      </c>
+      <c r="P56" s="4">
+        <v>47770</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1665,8 +3675,44 @@
       <c r="D57" s="2">
         <v>388658</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" s="4">
+        <v>1328077</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1247798</v>
+      </c>
+      <c r="H57" s="4">
+        <v>41634</v>
+      </c>
+      <c r="I57" s="4">
+        <v>39536</v>
+      </c>
+      <c r="J57" s="4">
+        <v>31309</v>
+      </c>
+      <c r="K57" s="4">
+        <v>24252</v>
+      </c>
+      <c r="L57" s="4">
+        <v>6583922</v>
+      </c>
+      <c r="M57" s="4">
+        <v>8262441</v>
+      </c>
+      <c r="N57" s="4">
+        <v>302003</v>
+      </c>
+      <c r="O57" s="4">
+        <v>285429</v>
+      </c>
+      <c r="P57" s="4">
+        <v>175971</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>157126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1679,8 +3725,44 @@
       <c r="D58" s="2">
         <v>34425</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" s="4">
+        <v>172962</v>
+      </c>
+      <c r="G58" s="4">
+        <v>171899</v>
+      </c>
+      <c r="H58" s="4">
+        <v>4759</v>
+      </c>
+      <c r="I58" s="4">
+        <v>4059</v>
+      </c>
+      <c r="J58" s="4">
+        <v>2109</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1839</v>
+      </c>
+      <c r="L58" s="4">
+        <v>782092</v>
+      </c>
+      <c r="M58" s="4">
+        <v>798818</v>
+      </c>
+      <c r="N58" s="4">
+        <v>28478</v>
+      </c>
+      <c r="O58" s="4">
+        <v>27300</v>
+      </c>
+      <c r="P58" s="4">
+        <v>16286</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>14191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -1693,8 +3775,44 @@
       <c r="D59" s="2">
         <v>59938</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" s="4">
+        <v>110104</v>
+      </c>
+      <c r="G59" s="4">
+        <v>89927</v>
+      </c>
+      <c r="H59" s="4">
+        <v>2889</v>
+      </c>
+      <c r="I59" s="4">
+        <v>2241</v>
+      </c>
+      <c r="J59" s="4">
+        <v>1823</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1501</v>
+      </c>
+      <c r="L59" s="4">
+        <v>977853</v>
+      </c>
+      <c r="M59" s="4">
+        <v>982500</v>
+      </c>
+      <c r="N59" s="4">
+        <v>47334</v>
+      </c>
+      <c r="O59" s="4">
+        <v>44635</v>
+      </c>
+      <c r="P59" s="4">
+        <v>30319</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>26295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -1707,8 +3825,44 @@
       <c r="D60" s="2">
         <v>44621</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" s="4">
+        <v>144735</v>
+      </c>
+      <c r="G60" s="4">
+        <v>139858</v>
+      </c>
+      <c r="H60" s="4">
+        <v>2819</v>
+      </c>
+      <c r="I60" s="4">
+        <v>2666</v>
+      </c>
+      <c r="J60" s="4">
+        <v>1938</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1528</v>
+      </c>
+      <c r="L60" s="4">
+        <v>1058284</v>
+      </c>
+      <c r="M60" s="4">
+        <v>1049032</v>
+      </c>
+      <c r="N60" s="4">
+        <v>41496</v>
+      </c>
+      <c r="O60" s="4">
+        <v>39698</v>
+      </c>
+      <c r="P60" s="4">
+        <v>21686</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>19482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -1721,8 +3875,44 @@
       <c r="D61" s="2">
         <v>55376</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" s="4">
+        <v>133061</v>
+      </c>
+      <c r="G61" s="4">
+        <v>129884</v>
+      </c>
+      <c r="H61" s="4">
+        <v>4580</v>
+      </c>
+      <c r="I61" s="4">
+        <v>4026</v>
+      </c>
+      <c r="J61" s="4">
+        <v>2687</v>
+      </c>
+      <c r="K61" s="4">
+        <v>2338</v>
+      </c>
+      <c r="L61" s="4">
+        <v>1366431</v>
+      </c>
+      <c r="M61" s="4">
+        <v>1363067</v>
+      </c>
+      <c r="N61" s="4">
+        <v>52316</v>
+      </c>
+      <c r="O61" s="4">
+        <v>48789</v>
+      </c>
+      <c r="P61" s="4">
+        <v>26886</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>23470</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -1735,8 +3925,44 @@
       <c r="D62" s="2">
         <v>194350</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" s="4">
+        <v>560862</v>
+      </c>
+      <c r="G62" s="4">
+        <v>531558</v>
+      </c>
+      <c r="H62" s="4">
+        <v>14527</v>
+      </c>
+      <c r="I62" s="4">
+        <v>12993</v>
+      </c>
+      <c r="J62" s="4">
+        <v>8547</v>
+      </c>
+      <c r="K62" s="4">
+        <v>7196</v>
+      </c>
+      <c r="L62" s="4">
+        <v>4184660</v>
+      </c>
+      <c r="M62" s="4">
+        <v>4138417</v>
+      </c>
+      <c r="N62" s="4">
+        <v>189624</v>
+      </c>
+      <c r="O62" s="4">
+        <v>160422</v>
+      </c>
+      <c r="P62" s="4">
+        <v>95179</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>83438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1749,8 +3975,44 @@
       <c r="D63" s="2">
         <v>36942</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" s="4">
+        <v>150886</v>
+      </c>
+      <c r="G63" s="4">
+        <v>152067</v>
+      </c>
+      <c r="H63" s="4">
+        <v>3536</v>
+      </c>
+      <c r="I63" s="4">
+        <v>2886</v>
+      </c>
+      <c r="J63" s="4">
+        <v>2263</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1856</v>
+      </c>
+      <c r="L63" s="4">
+        <v>809846</v>
+      </c>
+      <c r="M63" s="4">
+        <v>797025</v>
+      </c>
+      <c r="N63" s="4">
+        <v>28064</v>
+      </c>
+      <c r="O63" s="4">
+        <v>26368</v>
+      </c>
+      <c r="P63" s="4">
+        <v>17060</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>15763</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -1763,8 +4025,44 @@
       <c r="D64" s="2">
         <v>33490</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" s="4">
+        <v>142065</v>
+      </c>
+      <c r="G64" s="4">
+        <v>145596</v>
+      </c>
+      <c r="H64" s="4">
+        <v>3930</v>
+      </c>
+      <c r="I64" s="4">
+        <v>3508</v>
+      </c>
+      <c r="J64" s="4">
+        <v>2968</v>
+      </c>
+      <c r="K64" s="4">
+        <v>2558</v>
+      </c>
+      <c r="L64" s="4">
+        <v>832616</v>
+      </c>
+      <c r="M64" s="4">
+        <v>841136</v>
+      </c>
+      <c r="N64" s="4">
+        <v>25748</v>
+      </c>
+      <c r="O64" s="4">
+        <v>24486</v>
+      </c>
+      <c r="P64" s="4">
+        <v>14882</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>13087</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -1777,8 +4075,44 @@
       <c r="D65" s="2">
         <v>32211</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" s="4">
+        <v>86114</v>
+      </c>
+      <c r="G65" s="4">
+        <v>72698</v>
+      </c>
+      <c r="H65" s="4">
+        <v>1988</v>
+      </c>
+      <c r="I65" s="4">
+        <v>1821</v>
+      </c>
+      <c r="J65" s="4">
+        <v>1529</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1286</v>
+      </c>
+      <c r="L65" s="4">
+        <v>807499</v>
+      </c>
+      <c r="M65" s="4">
+        <v>833168</v>
+      </c>
+      <c r="N65" s="4">
+        <v>22850</v>
+      </c>
+      <c r="O65" s="4">
+        <v>213421</v>
+      </c>
+      <c r="P65" s="4">
+        <v>15274</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>14122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -1791,8 +4125,44 @@
       <c r="D66" s="2">
         <v>102643</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" s="4">
+        <v>379065</v>
+      </c>
+      <c r="G66" s="4">
+        <v>370381</v>
+      </c>
+      <c r="H66" s="4">
+        <v>9454</v>
+      </c>
+      <c r="I66" s="4">
+        <v>8215</v>
+      </c>
+      <c r="J66" s="4">
+        <v>6755</v>
+      </c>
+      <c r="K66" s="4">
+        <v>5700</v>
+      </c>
+      <c r="L66" s="4">
+        <v>2449960</v>
+      </c>
+      <c r="M66" s="4">
+        <v>2471313</v>
+      </c>
+      <c r="N66" s="4">
+        <v>76671</v>
+      </c>
+      <c r="O66" s="4">
+        <v>72196</v>
+      </c>
+      <c r="P66" s="4">
+        <v>47216</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -1805,8 +4175,44 @@
       <c r="D67" s="2">
         <v>13862</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" s="4">
+        <v>106132</v>
+      </c>
+      <c r="G67" s="4">
+        <v>101962</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2932</v>
+      </c>
+      <c r="I67" s="4">
+        <v>2717</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K67" s="4">
+        <v>2093</v>
+      </c>
+      <c r="L67" s="4">
+        <v>286170</v>
+      </c>
+      <c r="M67" s="4">
+        <v>288189</v>
+      </c>
+      <c r="N67" s="4">
+        <v>6685</v>
+      </c>
+      <c r="O67" s="4">
+        <v>6922</v>
+      </c>
+      <c r="P67" s="4">
+        <v>4691</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -1819,8 +4225,44 @@
       <c r="D68" s="2">
         <v>24996</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" s="4">
+        <v>214725</v>
+      </c>
+      <c r="G68" s="4">
+        <v>225394</v>
+      </c>
+      <c r="H68" s="4">
+        <v>7338</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J68" s="4">
+        <v>6101</v>
+      </c>
+      <c r="K68" s="4">
+        <v>4834</v>
+      </c>
+      <c r="L68" s="4">
+        <v>492586</v>
+      </c>
+      <c r="M68" s="4">
+        <v>526444</v>
+      </c>
+      <c r="N68" s="4">
+        <v>9306</v>
+      </c>
+      <c r="O68" s="4">
+        <v>8624</v>
+      </c>
+      <c r="P68" s="4">
+        <v>7374</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>6627</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -1833,8 +4275,44 @@
       <c r="D69" s="2">
         <v>9089</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" s="4">
+        <v>50800</v>
+      </c>
+      <c r="G69" s="4">
+        <v>50200</v>
+      </c>
+      <c r="H69" s="4">
+        <v>1690</v>
+      </c>
+      <c r="I69" s="4">
+        <v>1533</v>
+      </c>
+      <c r="J69" s="4">
+        <v>1606</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1128</v>
+      </c>
+      <c r="L69" s="4">
+        <v>192400</v>
+      </c>
+      <c r="M69" s="4">
+        <v>199100</v>
+      </c>
+      <c r="N69" s="4">
+        <v>4298</v>
+      </c>
+      <c r="O69" s="4">
+        <v>4132</v>
+      </c>
+      <c r="P69" s="4">
+        <v>3363</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -1847,8 +4325,44 @@
       <c r="D70" s="2">
         <v>47947</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" s="4">
+        <v>370157</v>
+      </c>
+      <c r="G70" s="4">
+        <v>377555</v>
+      </c>
+      <c r="H70" s="4">
+        <v>11960</v>
+      </c>
+      <c r="I70" s="4">
+        <v>10910</v>
+      </c>
+      <c r="J70" s="4">
+        <v>10002</v>
+      </c>
+      <c r="K70" s="4">
+        <v>8055</v>
+      </c>
+      <c r="L70" s="5">
+        <v>971158</v>
+      </c>
+      <c r="M70" s="4">
+        <v>1013733</v>
+      </c>
+      <c r="N70" s="4">
+        <v>28239</v>
+      </c>
+      <c r="O70" s="4">
+        <v>19678</v>
+      </c>
+      <c r="P70" s="4">
+        <v>15428</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>14462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -1861,8 +4375,44 @@
       <c r="D71" s="2">
         <v>3354195</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71" s="4">
+        <v>8857130</v>
+      </c>
+      <c r="G71" s="4">
+        <v>8411138</v>
+      </c>
+      <c r="H71" s="4">
+        <v>282333</v>
+      </c>
+      <c r="I71" s="4">
+        <v>267015</v>
+      </c>
+      <c r="J71" s="4">
+        <v>225502</v>
+      </c>
+      <c r="K71" s="4">
+        <v>182257</v>
+      </c>
+      <c r="L71" s="4">
+        <v>54643834</v>
+      </c>
+      <c r="M71" s="4">
+        <v>55596362</v>
+      </c>
+      <c r="N71" s="4">
+        <v>2421328</v>
+      </c>
+      <c r="O71" s="4">
+        <v>2305380</v>
+      </c>
+      <c r="P71" s="4">
+        <v>1338415</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>1408022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -1875,8 +4425,44 @@
       <c r="D72" s="2">
         <v>2554937</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72" s="4">
+        <v>6345373</v>
+      </c>
+      <c r="G72" s="4">
+        <v>5321432</v>
+      </c>
+      <c r="H72" s="4">
+        <v>211085</v>
+      </c>
+      <c r="I72" s="4">
+        <v>201533</v>
+      </c>
+      <c r="J72" s="4">
+        <v>72948</v>
+      </c>
+      <c r="K72" s="4">
+        <v>139645</v>
+      </c>
+      <c r="L72" s="4">
+        <v>38612676</v>
+      </c>
+      <c r="M72" s="4">
+        <v>39903408</v>
+      </c>
+      <c r="N72" s="4">
+        <v>1805486</v>
+      </c>
+      <c r="O72" s="4">
+        <v>1721753</v>
+      </c>
+      <c r="P72" s="4">
+        <v>1168738</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>1073609</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -1889,8 +4475,44 @@
       <c r="D73" s="2">
         <v>635916</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" s="4">
+        <v>1883503</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1859571</v>
+      </c>
+      <c r="H73" s="4">
+        <v>51027</v>
+      </c>
+      <c r="I73" s="4">
+        <v>45907</v>
+      </c>
+      <c r="J73" s="4">
+        <v>36737</v>
+      </c>
+      <c r="K73" s="4">
+        <v>30133</v>
+      </c>
+      <c r="L73" s="4">
+        <v>12962498</v>
+      </c>
+      <c r="M73" s="4">
+        <v>13020379</v>
+      </c>
+      <c r="N73" s="4">
+        <v>501478</v>
+      </c>
+      <c r="O73" s="4">
+        <v>475404</v>
+      </c>
+      <c r="P73" s="4">
+        <v>299359</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>270687</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -1903,8 +4525,44 @@
       <c r="D74" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74" s="4">
+        <v>122200</v>
+      </c>
+      <c r="G74" s="4">
+        <v>109900</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L74" s="4">
+        <v>804000</v>
+      </c>
+      <c r="M74" s="4">
+        <v>781400</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q74" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -1917,8 +4575,44 @@
       <c r="D75" s="2">
         <v>16562</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75" s="4">
+        <v>407157</v>
+      </c>
+      <c r="G75" s="4">
+        <v>437973</v>
+      </c>
+      <c r="H75" s="4">
+        <v>11817</v>
+      </c>
+      <c r="I75" s="4">
+        <v>11048</v>
+      </c>
+      <c r="J75" s="4">
+        <v>8722</v>
+      </c>
+      <c r="K75" s="4">
+        <v>7840</v>
+      </c>
+      <c r="L75" s="4">
+        <v>0</v>
+      </c>
+      <c r="M75" s="4">
+        <v>0</v>
+      </c>
+      <c r="N75" s="4">
+        <v>0</v>
+      </c>
+      <c r="O75" s="4">
+        <v>0</v>
+      </c>
+      <c r="P75" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -1931,8 +4625,44 @@
       <c r="D76" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76" s="4">
+        <v>96700</v>
+      </c>
+      <c r="G76" s="4">
+        <v>96200</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L76" s="4">
+        <v>646600</v>
+      </c>
+      <c r="M76" s="4">
+        <v>566900</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -1945,8 +4675,44 @@
       <c r="D77" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77" s="4">
+        <v>42100</v>
+      </c>
+      <c r="G77" s="4">
+        <v>40800</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L77" s="4">
+        <v>460600</v>
+      </c>
+      <c r="M77" s="4">
+        <v>486800</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q77" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -1959,8 +4725,44 @@
       <c r="D78" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" s="4">
+        <v>67700</v>
+      </c>
+      <c r="G78" s="4">
+        <v>47200</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L78" s="4">
+        <v>359200</v>
+      </c>
+      <c r="M78" s="4">
+        <v>341800</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q78" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -1973,8 +4775,44 @@
       <c r="D79" s="2">
         <v>25649</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79" s="4">
+        <v>97356</v>
+      </c>
+      <c r="G79" s="4">
+        <v>98903</v>
+      </c>
+      <c r="H79" s="4">
+        <v>2774</v>
+      </c>
+      <c r="I79" s="4">
+        <v>2679</v>
+      </c>
+      <c r="J79" s="4">
+        <v>1997</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1791</v>
+      </c>
+      <c r="L79" s="4">
+        <v>718641</v>
+      </c>
+      <c r="M79" s="4">
+        <v>721213</v>
+      </c>
+      <c r="N79" s="4">
+        <v>20893</v>
+      </c>
+      <c r="O79" s="4">
+        <v>19887</v>
+      </c>
+      <c r="P79" s="4">
+        <v>11345</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>10516</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -1987,8 +4825,44 @@
       <c r="D80" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F80" s="4">
+        <v>409600</v>
+      </c>
+      <c r="G80" s="4">
+        <v>411300</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L80" s="4">
+        <v>610100</v>
+      </c>
+      <c r="M80" s="4">
+        <v>613500</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -2001,8 +4875,44 @@
       <c r="D81" s="2">
         <v>12998</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F81" s="4">
+        <v>45346</v>
+      </c>
+      <c r="G81" s="4">
+        <v>47826</v>
+      </c>
+      <c r="H81" s="4">
+        <v>1149</v>
+      </c>
+      <c r="I81" s="4">
+        <v>990</v>
+      </c>
+      <c r="J81" s="4">
+        <v>852</v>
+      </c>
+      <c r="K81" s="4">
+        <v>771</v>
+      </c>
+      <c r="L81" s="4">
+        <v>344777</v>
+      </c>
+      <c r="M81" s="4">
+        <v>349782</v>
+      </c>
+      <c r="N81" s="4">
+        <v>9220</v>
+      </c>
+      <c r="O81" s="4">
+        <v>9210</v>
+      </c>
+      <c r="P81" s="4">
+        <v>6760</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -2015,8 +4925,44 @@
       <c r="D82" s="2">
         <v>23030</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82" s="4">
+        <v>52163</v>
+      </c>
+      <c r="G82" s="4">
+        <v>52962</v>
+      </c>
+      <c r="H82" s="4">
+        <v>1860</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1715</v>
+      </c>
+      <c r="J82" s="4">
+        <v>1199</v>
+      </c>
+      <c r="K82" s="4">
+        <v>1089</v>
+      </c>
+      <c r="L82" s="4">
+        <v>596465</v>
+      </c>
+      <c r="M82" s="4">
+        <v>587599</v>
+      </c>
+      <c r="N82" s="4">
+        <v>19588</v>
+      </c>
+      <c r="O82" s="4">
+        <v>18602</v>
+      </c>
+      <c r="P82" s="4">
+        <v>10704</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>10038</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2029,8 +4975,44 @@
       <c r="D83" s="2">
         <v>10749</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F83" s="4">
+        <v>32796</v>
+      </c>
+      <c r="G83" s="4">
+        <v>34687</v>
+      </c>
+      <c r="H83" s="4">
+        <v>564</v>
+      </c>
+      <c r="I83" s="4">
+        <v>534</v>
+      </c>
+      <c r="J83" s="4">
+        <v>406</v>
+      </c>
+      <c r="K83" s="4">
+        <v>344</v>
+      </c>
+      <c r="L83" s="4">
+        <v>282421</v>
+      </c>
+      <c r="M83" s="4">
+        <v>300405</v>
+      </c>
+      <c r="N83" s="4">
+        <v>7336</v>
+      </c>
+      <c r="O83" s="4">
+        <v>7160</v>
+      </c>
+      <c r="P83" s="4">
+        <v>5029</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -2043,8 +5025,44 @@
       <c r="D84" s="2">
         <v>88988</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F84" s="4">
+        <v>1383117</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1375551</v>
+      </c>
+      <c r="H84" s="4">
+        <v>18164</v>
+      </c>
+      <c r="I84" s="4">
+        <v>18961</v>
+      </c>
+      <c r="J84" s="4">
+        <v>13175</v>
+      </c>
+      <c r="K84" s="4">
+        <v>11835</v>
+      </c>
+      <c r="L84" s="4">
+        <v>4720804</v>
+      </c>
+      <c r="M84" s="4">
+        <v>4719199</v>
+      </c>
+      <c r="N84" s="4">
+        <v>57037</v>
+      </c>
+      <c r="O84" s="4">
+        <v>54869</v>
+      </c>
+      <c r="P84" s="4">
+        <v>32828</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>31149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2057,8 +5075,44 @@
       <c r="D85" s="2">
         <v>3443184</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F85" s="4">
+        <v>10220247</v>
+      </c>
+      <c r="G85" s="4">
+        <v>9786789</v>
+      </c>
+      <c r="H85" s="4">
+        <v>300497</v>
+      </c>
+      <c r="I85" s="4">
+        <v>283976</v>
+      </c>
+      <c r="J85" s="4">
+        <v>238875</v>
+      </c>
+      <c r="K85" s="4">
+        <v>194092</v>
+      </c>
+      <c r="L85" s="4">
+        <v>59364638</v>
+      </c>
+      <c r="M85" s="4">
+        <v>50315581</v>
+      </c>
+      <c r="N85" s="4">
+        <v>2478365</v>
+      </c>
+      <c r="O85" s="4">
+        <v>2350839</v>
+      </c>
+      <c r="P85" s="4">
+        <v>1571243</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>1439171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -2071,8 +5125,44 @@
       <c r="D86" s="2">
         <v>15397</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F86" s="4">
+        <v>47616</v>
+      </c>
+      <c r="G86" s="4">
+        <v>4400</v>
+      </c>
+      <c r="H86" s="4">
+        <v>739</v>
+      </c>
+      <c r="I86" s="4">
+        <v>571</v>
+      </c>
+      <c r="J86" s="4">
+        <v>543</v>
+      </c>
+      <c r="K86" s="4">
+        <v>380</v>
+      </c>
+      <c r="L86" s="4">
+        <v>393016</v>
+      </c>
+      <c r="M86" s="4">
+        <v>334646</v>
+      </c>
+      <c r="N86" s="4">
+        <v>10849</v>
+      </c>
+      <c r="O86" s="4">
+        <v>9357</v>
+      </c>
+      <c r="P86" s="4">
+        <v>7933</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>6541</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>125</v>
       </c>
@@ -2085,8 +5175,44 @@
       <c r="D87" s="2">
         <v>5024</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F87" s="4">
+        <v>220261</v>
+      </c>
+      <c r="G87" s="4">
+        <v>163475</v>
+      </c>
+      <c r="H87" s="4">
+        <v>5781</v>
+      </c>
+      <c r="I87" s="4">
+        <v>5621</v>
+      </c>
+      <c r="J87" s="4">
+        <v>2800</v>
+      </c>
+      <c r="K87" s="4">
+        <v>2224</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2099,8 +5225,44 @@
       <c r="D88" s="2">
         <v>2078</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F88" s="4">
+        <v>26968</v>
+      </c>
+      <c r="G88" s="4">
+        <v>19481</v>
+      </c>
+      <c r="H88" s="4">
+        <v>626</v>
+      </c>
+      <c r="I88" s="4">
+        <v>559</v>
+      </c>
+      <c r="J88" s="4">
+        <v>434</v>
+      </c>
+      <c r="K88" s="4">
+        <v>267</v>
+      </c>
+      <c r="L88" s="4">
+        <v>69284</v>
+      </c>
+      <c r="M88" s="4">
+        <v>60633</v>
+      </c>
+      <c r="N88" s="4">
+        <v>1882</v>
+      </c>
+      <c r="O88" s="4">
+        <v>1635</v>
+      </c>
+      <c r="P88" s="4">
+        <v>757</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2113,8 +5275,44 @@
       <c r="D89" s="2">
         <v>13047</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F89" s="4">
+        <v>43690</v>
+      </c>
+      <c r="G89" s="4">
+        <v>23889</v>
+      </c>
+      <c r="H89" s="4">
+        <v>890</v>
+      </c>
+      <c r="I89" s="4">
+        <v>717</v>
+      </c>
+      <c r="J89" s="4">
+        <v>728</v>
+      </c>
+      <c r="K89" s="4">
+        <v>461</v>
+      </c>
+      <c r="L89" s="4">
+        <v>317696</v>
+      </c>
+      <c r="M89" s="4">
+        <v>310690</v>
+      </c>
+      <c r="N89" s="4">
+        <v>8000</v>
+      </c>
+      <c r="O89" s="4">
+        <v>7649</v>
+      </c>
+      <c r="P89" s="4">
+        <v>6044</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>6814</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2127,8 +5325,44 @@
       <c r="D90" s="2">
         <v>16413</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F90" s="4">
+        <v>72084</v>
+      </c>
+      <c r="G90" s="4">
+        <v>72521</v>
+      </c>
+      <c r="H90" s="4">
+        <v>1273</v>
+      </c>
+      <c r="I90" s="4">
+        <v>1227</v>
+      </c>
+      <c r="J90" s="4">
+        <v>987</v>
+      </c>
+      <c r="K90" s="4">
+        <v>882</v>
+      </c>
+      <c r="L90" s="4">
+        <v>680716</v>
+      </c>
+      <c r="M90" s="4">
+        <v>624178</v>
+      </c>
+      <c r="N90" s="4">
+        <v>12789</v>
+      </c>
+      <c r="O90" s="4">
+        <v>9724</v>
+      </c>
+      <c r="P90" s="4">
+        <v>7528</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>7066</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2141,8 +5375,44 @@
       <c r="D91" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F91" s="4">
+        <v>25000</v>
+      </c>
+      <c r="G91" s="4">
+        <v>21200</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L91" s="4">
+        <v>183200</v>
+      </c>
+      <c r="M91" s="4">
+        <v>160400</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q91" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2155,8 +5425,44 @@
       <c r="D92" s="2">
         <v>81164</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F92" s="4">
+        <v>124900</v>
+      </c>
+      <c r="G92" s="4">
+        <v>119900</v>
+      </c>
+      <c r="H92" s="4">
+        <v>4648</v>
+      </c>
+      <c r="I92" s="4">
+        <v>4381</v>
+      </c>
+      <c r="J92" s="4">
+        <v>3728</v>
+      </c>
+      <c r="K92" s="4">
+        <v>2801</v>
+      </c>
+      <c r="L92" s="4">
+        <v>1352200</v>
+      </c>
+      <c r="M92" s="4">
+        <v>1314800</v>
+      </c>
+      <c r="N92" s="4">
+        <v>74442</v>
+      </c>
+      <c r="O92" s="4">
+        <v>69620</v>
+      </c>
+      <c r="P92" s="4">
+        <v>38868</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>35777</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2169,8 +5475,44 @@
       <c r="D93" s="2">
         <v>14312</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F93" s="4">
+        <v>69133</v>
+      </c>
+      <c r="G93" s="4">
+        <v>43720</v>
+      </c>
+      <c r="H93" s="4">
+        <v>1102</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1057</v>
+      </c>
+      <c r="J93" s="4">
+        <v>801</v>
+      </c>
+      <c r="K93" s="4">
+        <v>670</v>
+      </c>
+      <c r="L93" s="4">
+        <v>687133</v>
+      </c>
+      <c r="M93" s="4">
+        <v>604511</v>
+      </c>
+      <c r="N93" s="4">
+        <v>13124</v>
+      </c>
+      <c r="O93" s="4">
+        <v>12668</v>
+      </c>
+      <c r="P93" s="4">
+        <v>6759</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>6182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2183,8 +5525,44 @@
       <c r="D94" s="2">
         <v>39177</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F94" s="4">
+        <v>39114</v>
+      </c>
+      <c r="G94" s="4">
+        <v>34369</v>
+      </c>
+      <c r="H94" s="4">
+        <v>1260</v>
+      </c>
+      <c r="I94" s="4">
+        <v>1171</v>
+      </c>
+      <c r="J94" s="4">
+        <v>912</v>
+      </c>
+      <c r="K94" s="4">
+        <v>744</v>
+      </c>
+      <c r="L94" s="4">
+        <v>616293</v>
+      </c>
+      <c r="M94" s="4">
+        <v>693258</v>
+      </c>
+      <c r="N94" s="4">
+        <v>85853</v>
+      </c>
+      <c r="O94" s="4">
+        <v>33834</v>
+      </c>
+      <c r="P94" s="4">
+        <v>19695</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>17826</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2197,8 +5575,44 @@
       <c r="D95" s="2">
         <v>29244</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F95" s="4">
+        <v>111679</v>
+      </c>
+      <c r="G95" s="4">
+        <v>96232</v>
+      </c>
+      <c r="H95" s="4">
+        <v>3984</v>
+      </c>
+      <c r="I95" s="4">
+        <v>3897</v>
+      </c>
+      <c r="J95" s="4">
+        <v>2693</v>
+      </c>
+      <c r="K95" s="4">
+        <v>2218</v>
+      </c>
+      <c r="L95" s="4">
+        <v>634730</v>
+      </c>
+      <c r="M95" s="4">
+        <v>492578</v>
+      </c>
+      <c r="N95" s="4">
+        <v>24088</v>
+      </c>
+      <c r="O95" s="4">
+        <v>23495</v>
+      </c>
+      <c r="P95" s="4">
+        <v>12691</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>11442</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2211,8 +5625,44 @@
       <c r="D96" s="2">
         <v>27143</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F96" s="4">
+        <v>260281</v>
+      </c>
+      <c r="G96" s="4">
+        <v>207807</v>
+      </c>
+      <c r="H96" s="4">
+        <v>3534</v>
+      </c>
+      <c r="I96" s="4">
+        <v>3213</v>
+      </c>
+      <c r="J96" s="4">
+        <v>2853</v>
+      </c>
+      <c r="K96" s="4">
+        <v>2261</v>
+      </c>
+      <c r="L96" s="4">
+        <v>658707</v>
+      </c>
+      <c r="M96" s="4">
+        <v>482536</v>
+      </c>
+      <c r="N96" s="4">
+        <v>22203</v>
+      </c>
+      <c r="O96" s="4">
+        <v>17778</v>
+      </c>
+      <c r="P96" s="4">
+        <v>11756</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>10273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2225,8 +5675,44 @@
       <c r="D97" s="2">
         <v>2819</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F97" s="4">
+        <v>57526</v>
+      </c>
+      <c r="G97" s="4">
+        <v>35501</v>
+      </c>
+      <c r="H97" s="4">
+        <v>1141</v>
+      </c>
+      <c r="I97" s="4">
+        <v>3107</v>
+      </c>
+      <c r="J97" s="4">
+        <v>956</v>
+      </c>
+      <c r="K97" s="4">
+        <v>621</v>
+      </c>
+      <c r="L97" s="4">
+        <v>61194</v>
+      </c>
+      <c r="M97" s="4">
+        <v>36575</v>
+      </c>
+      <c r="N97" s="4">
+        <v>1747</v>
+      </c>
+      <c r="O97" s="4">
+        <v>1600</v>
+      </c>
+      <c r="P97" s="4">
+        <v>725</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -2239,8 +5725,44 @@
       <c r="D98" s="2">
         <v>18769</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F98" s="4">
+        <v>63160</v>
+      </c>
+      <c r="G98" s="4">
+        <v>39040</v>
+      </c>
+      <c r="H98" s="4">
+        <v>1331</v>
+      </c>
+      <c r="I98" s="4">
+        <v>1267</v>
+      </c>
+      <c r="J98" s="4">
+        <v>1045</v>
+      </c>
+      <c r="K98" s="4">
+        <v>841</v>
+      </c>
+      <c r="L98" s="4">
+        <v>438798</v>
+      </c>
+      <c r="M98" s="4">
+        <v>387621</v>
+      </c>
+      <c r="N98" s="4">
+        <v>17797</v>
+      </c>
+      <c r="O98" s="4">
+        <v>15561</v>
+      </c>
+      <c r="P98" s="4">
+        <v>8942</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>7941</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2253,8 +5775,44 @@
       <c r="D99" s="2">
         <v>264587</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F99" s="4">
+        <v>1141402</v>
+      </c>
+      <c r="G99" s="4">
+        <v>926235</v>
+      </c>
+      <c r="H99" s="4">
+        <v>20209</v>
+      </c>
+      <c r="I99" s="4">
+        <v>24788</v>
+      </c>
+      <c r="J99" s="4">
+        <v>18480</v>
+      </c>
+      <c r="K99" s="4">
+        <v>14110</v>
+      </c>
+      <c r="L99" s="4">
+        <v>5880966</v>
+      </c>
+      <c r="M99" s="4">
+        <v>5201420</v>
+      </c>
+      <c r="N99" s="4">
+        <v>222774</v>
+      </c>
+      <c r="O99" s="4">
+        <v>201811</v>
+      </c>
+      <c r="P99" s="4">
+        <v>121888</v>
+      </c>
+      <c r="Q99" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -2267,8 +5825,44 @@
       <c r="D100" s="2">
         <v>5386</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F100" s="4">
+        <v>46670</v>
+      </c>
+      <c r="G100" s="4">
+        <v>29083</v>
+      </c>
+      <c r="H100" s="4">
+        <v>1589</v>
+      </c>
+      <c r="I100" s="4">
+        <v>1541</v>
+      </c>
+      <c r="J100" s="4">
+        <v>969</v>
+      </c>
+      <c r="K100" s="4">
+        <v>705</v>
+      </c>
+      <c r="L100" s="4">
+        <v>148069</v>
+      </c>
+      <c r="M100" s="4">
+        <v>98072</v>
+      </c>
+      <c r="N100" s="4">
+        <v>5121</v>
+      </c>
+      <c r="O100" s="4">
+        <v>4490</v>
+      </c>
+      <c r="P100" s="4">
+        <v>2106</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2281,8 +5875,44 @@
       <c r="D101" s="2">
         <v>38520</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F101" s="4">
+        <v>78604</v>
+      </c>
+      <c r="G101" s="4">
+        <v>68729</v>
+      </c>
+      <c r="H101" s="4">
+        <v>2686</v>
+      </c>
+      <c r="I101" s="4">
+        <v>2628</v>
+      </c>
+      <c r="J101" s="4">
+        <v>2182</v>
+      </c>
+      <c r="K101" s="4">
+        <v>1693</v>
+      </c>
+      <c r="L101" s="4">
+        <v>503570</v>
+      </c>
+      <c r="M101" s="4">
+        <v>468406</v>
+      </c>
+      <c r="N101" s="4">
+        <v>27660</v>
+      </c>
+      <c r="O101" s="4">
+        <v>26306</v>
+      </c>
+      <c r="P101" s="4">
+        <v>18399</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>16246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2295,8 +5925,44 @@
       <c r="D102" s="2">
         <v>21618</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F102" s="4">
+        <v>85702</v>
+      </c>
+      <c r="G102" s="4">
+        <v>56286</v>
+      </c>
+      <c r="H102" s="4">
+        <v>2202</v>
+      </c>
+      <c r="I102" s="4">
+        <v>1981</v>
+      </c>
+      <c r="J102" s="4">
+        <v>1484</v>
+      </c>
+      <c r="K102" s="4">
+        <v>1150</v>
+      </c>
+      <c r="L102" s="4">
+        <v>404502</v>
+      </c>
+      <c r="M102" s="4">
+        <v>380267</v>
+      </c>
+      <c r="N102" s="4">
+        <v>16093</v>
+      </c>
+      <c r="O102" s="4">
+        <v>14854</v>
+      </c>
+      <c r="P102" s="4">
+        <v>9974</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>9011</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2309,8 +5975,44 @@
       <c r="D103" s="2">
         <v>19806</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F103" s="4">
+        <v>75223</v>
+      </c>
+      <c r="G103" s="4">
+        <v>63172</v>
+      </c>
+      <c r="H103" s="4">
+        <v>2571</v>
+      </c>
+      <c r="I103" s="4">
+        <v>2711</v>
+      </c>
+      <c r="J103" s="4">
+        <v>1102</v>
+      </c>
+      <c r="K103" s="4">
+        <v>1550</v>
+      </c>
+      <c r="L103" s="4">
+        <v>320473</v>
+      </c>
+      <c r="M103" s="4">
+        <v>277354</v>
+      </c>
+      <c r="N103" s="4">
+        <v>13209</v>
+      </c>
+      <c r="O103" s="4">
+        <v>12183</v>
+      </c>
+      <c r="P103" s="4">
+        <v>8940</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>7614</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2323,8 +6025,44 @@
       <c r="D104" s="2">
         <v>622</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F104" s="4">
+        <v>1400</v>
+      </c>
+      <c r="G104" s="4">
+        <v>1400</v>
+      </c>
+      <c r="H104" s="4">
+        <v>90</v>
+      </c>
+      <c r="I104" s="4">
+        <v>94</v>
+      </c>
+      <c r="J104" s="4">
+        <v>92</v>
+      </c>
+      <c r="K104" s="4">
+        <v>64</v>
+      </c>
+      <c r="L104" s="4">
+        <v>19100</v>
+      </c>
+      <c r="M104" s="4">
+        <v>17500</v>
+      </c>
+      <c r="N104" s="4">
+        <v>317</v>
+      </c>
+      <c r="O104" s="4">
+        <v>306</v>
+      </c>
+      <c r="P104" s="4">
+        <v>240</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -2337,8 +6075,44 @@
       <c r="D105" s="2">
         <v>9591</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F105" s="4">
+        <v>148627</v>
+      </c>
+      <c r="G105" s="4">
+        <v>62863</v>
+      </c>
+      <c r="H105" s="4">
+        <v>2796</v>
+      </c>
+      <c r="I105" s="4">
+        <v>2544</v>
+      </c>
+      <c r="J105" s="4">
+        <v>2032</v>
+      </c>
+      <c r="K105" s="4">
+        <v>1120</v>
+      </c>
+      <c r="L105" s="4">
+        <v>231017</v>
+      </c>
+      <c r="M105" s="4">
+        <v>176678</v>
+      </c>
+      <c r="N105" s="4">
+        <v>8157</v>
+      </c>
+      <c r="O105" s="4">
+        <v>6930</v>
+      </c>
+      <c r="P105" s="4">
+        <v>3447</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -2351,8 +6125,44 @@
       <c r="D106" s="2">
         <v>151</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F106" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L106" s="4">
+        <v>3383</v>
+      </c>
+      <c r="M106" s="4">
+        <v>2210</v>
+      </c>
+      <c r="N106" s="4">
+        <v>112</v>
+      </c>
+      <c r="O106" s="4">
+        <v>102</v>
+      </c>
+      <c r="P106" s="4">
+        <v>118</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -2365,8 +6175,44 @@
       <c r="D107" s="2">
         <v>82181</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F107" s="4">
+        <v>75043</v>
+      </c>
+      <c r="G107" s="4">
+        <v>67014</v>
+      </c>
+      <c r="H107" s="4">
+        <v>2405</v>
+      </c>
+      <c r="I107" s="4">
+        <v>2873</v>
+      </c>
+      <c r="J107" s="4">
+        <v>2425</v>
+      </c>
+      <c r="K107" s="4">
+        <v>1972</v>
+      </c>
+      <c r="L107" s="4">
+        <v>982669</v>
+      </c>
+      <c r="M107" s="4">
+        <v>977768</v>
+      </c>
+      <c r="N107" s="4">
+        <v>56449</v>
+      </c>
+      <c r="O107" s="4">
+        <v>52688</v>
+      </c>
+      <c r="P107" s="4">
+        <v>40460</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>37324</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -2379,8 +6225,44 @@
       <c r="D108" s="2">
         <v>136811</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F108" s="4">
+        <v>123038</v>
+      </c>
+      <c r="G108" s="4">
+        <v>116614</v>
+      </c>
+      <c r="H108" s="4">
+        <v>4949</v>
+      </c>
+      <c r="I108" s="4">
+        <v>4700</v>
+      </c>
+      <c r="J108" s="4">
+        <v>3309</v>
+      </c>
+      <c r="K108" s="4">
+        <v>2929</v>
+      </c>
+      <c r="L108" s="4">
+        <v>1990447</v>
+      </c>
+      <c r="M108" s="4">
+        <v>1951346</v>
+      </c>
+      <c r="N108" s="4">
+        <v>106507</v>
+      </c>
+      <c r="O108" s="4">
+        <v>107979</v>
+      </c>
+      <c r="P108" s="4">
+        <v>65033</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>65040</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -2393,8 +6275,44 @@
       <c r="D109" s="2">
         <v>5375</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F109" s="4">
+        <v>6788</v>
+      </c>
+      <c r="G109" s="4">
+        <v>5141</v>
+      </c>
+      <c r="H109" s="4">
+        <v>373</v>
+      </c>
+      <c r="I109" s="4">
+        <v>336</v>
+      </c>
+      <c r="J109" s="4">
+        <v>306</v>
+      </c>
+      <c r="K109" s="4">
+        <v>232</v>
+      </c>
+      <c r="L109" s="4">
+        <v>136746</v>
+      </c>
+      <c r="M109" s="4">
+        <v>131876</v>
+      </c>
+      <c r="N109" s="4">
+        <v>3088</v>
+      </c>
+      <c r="O109" s="4">
+        <v>2935</v>
+      </c>
+      <c r="P109" s="4">
+        <v>2606</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -2407,8 +6325,44 @@
       <c r="D110" s="2">
         <v>320062</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F110" s="4">
+        <v>641795</v>
+      </c>
+      <c r="G110" s="4">
+        <v>470302</v>
+      </c>
+      <c r="H110" s="4">
+        <v>19000</v>
+      </c>
+      <c r="I110" s="4">
+        <v>18803</v>
+      </c>
+      <c r="J110" s="4">
+        <v>15001</v>
+      </c>
+      <c r="K110" s="4">
+        <v>11415</v>
+      </c>
+      <c r="L110" s="4">
+        <v>4739876</v>
+      </c>
+      <c r="M110" s="4">
+        <v>4481475</v>
+      </c>
+      <c r="N110" s="4">
+        <v>235703</v>
+      </c>
+      <c r="O110" s="4">
+        <v>228772</v>
+      </c>
+      <c r="P110" s="4">
+        <v>51225</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>142421</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -2421,8 +6375,44 @@
       <c r="D111" s="2">
         <v>37525</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F111" s="4">
+        <v>101891</v>
+      </c>
+      <c r="G111" s="4">
+        <v>102456</v>
+      </c>
+      <c r="H111" s="4">
+        <v>3693</v>
+      </c>
+      <c r="I111" s="4">
+        <v>3624</v>
+      </c>
+      <c r="J111" s="4">
+        <v>2537</v>
+      </c>
+      <c r="K111" s="4">
+        <v>2514</v>
+      </c>
+      <c r="L111" s="4">
+        <v>683192</v>
+      </c>
+      <c r="M111" s="4">
+        <v>638006</v>
+      </c>
+      <c r="N111" s="4">
+        <v>28881</v>
+      </c>
+      <c r="O111" s="4">
+        <v>26881</v>
+      </c>
+      <c r="P111" s="4">
+        <v>17245</v>
+      </c>
+      <c r="Q111" s="4">
+        <v>15229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -2435,8 +6425,44 @@
       <c r="D112" s="2">
         <v>13995</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F112" s="4">
+        <v>39254</v>
+      </c>
+      <c r="G112" s="4">
+        <v>33179</v>
+      </c>
+      <c r="H112" s="4">
+        <v>1577</v>
+      </c>
+      <c r="I112" s="4">
+        <v>1313</v>
+      </c>
+      <c r="J112" s="4">
+        <v>1391</v>
+      </c>
+      <c r="K112" s="4">
+        <v>1112</v>
+      </c>
+      <c r="L112" s="4">
+        <v>224758</v>
+      </c>
+      <c r="M112" s="4">
+        <v>190310</v>
+      </c>
+      <c r="N112" s="4">
+        <v>8088</v>
+      </c>
+      <c r="O112" s="4">
+        <v>7837</v>
+      </c>
+      <c r="P112" s="4">
+        <v>6204</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -2449,8 +6475,44 @@
       <c r="D113" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F113" s="4">
+        <v>113400</v>
+      </c>
+      <c r="G113" s="4">
+        <v>93000</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L113" s="4">
+        <v>541300</v>
+      </c>
+      <c r="M113" s="4">
+        <v>446300</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q113" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -2463,8 +6525,44 @@
       <c r="D114" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F114" s="4">
+        <v>36200</v>
+      </c>
+      <c r="G114" s="4">
+        <v>33800</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L114" s="4">
+        <v>426100</v>
+      </c>
+      <c r="M114" s="4">
+        <v>365900</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q114" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -2477,8 +6575,44 @@
       <c r="D115" s="2">
         <v>29592</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F115" s="4">
+        <v>58690</v>
+      </c>
+      <c r="G115" s="4">
+        <v>49284</v>
+      </c>
+      <c r="H115" s="4">
+        <v>2417</v>
+      </c>
+      <c r="I115" s="4">
+        <v>2337</v>
+      </c>
+      <c r="J115" s="4">
+        <v>1826</v>
+      </c>
+      <c r="K115" s="4">
+        <v>1666</v>
+      </c>
+      <c r="L115" s="4">
+        <v>654516</v>
+      </c>
+      <c r="M115" s="4">
+        <v>529233</v>
+      </c>
+      <c r="N115" s="4">
+        <v>22199</v>
+      </c>
+      <c r="O115" s="4">
+        <v>10021</v>
+      </c>
+      <c r="P115" s="4">
+        <v>13902</v>
+      </c>
+      <c r="Q115" s="4">
+        <v>12198</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2491,8 +6625,44 @@
       <c r="D116" s="2">
         <v>36672</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F116" s="4">
+        <v>163116</v>
+      </c>
+      <c r="G116" s="4">
+        <v>161515</v>
+      </c>
+      <c r="H116" s="4">
+        <v>2043</v>
+      </c>
+      <c r="I116" s="4">
+        <v>2742</v>
+      </c>
+      <c r="J116" s="4">
+        <v>1648</v>
+      </c>
+      <c r="K116" s="4">
+        <v>1377</v>
+      </c>
+      <c r="L116" s="4">
+        <v>838119</v>
+      </c>
+      <c r="M116" s="4">
+        <v>821962</v>
+      </c>
+      <c r="N116" s="4">
+        <v>30722</v>
+      </c>
+      <c r="O116" s="4">
+        <v>29647</v>
+      </c>
+      <c r="P116" s="4">
+        <v>17124</v>
+      </c>
+      <c r="Q116" s="4">
+        <v>16623</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2505,8 +6675,44 @@
       <c r="D117" s="2">
         <v>23407</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F117" s="4">
+        <v>22625</v>
+      </c>
+      <c r="G117" s="4">
+        <v>20320</v>
+      </c>
+      <c r="H117" s="4">
+        <v>922</v>
+      </c>
+      <c r="I117" s="4">
+        <v>955</v>
+      </c>
+      <c r="J117" s="4">
+        <v>650</v>
+      </c>
+      <c r="K117" s="4">
+        <v>607</v>
+      </c>
+      <c r="L117" s="4">
+        <v>410290</v>
+      </c>
+      <c r="M117" s="4">
+        <v>370750</v>
+      </c>
+      <c r="N117" s="4">
+        <v>19421</v>
+      </c>
+      <c r="O117" s="4">
+        <v>17505</v>
+      </c>
+      <c r="P117" s="4">
+        <v>11661</v>
+      </c>
+      <c r="Q117" s="4">
+        <v>10481</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2519,8 +6725,44 @@
       <c r="D118" s="2">
         <v>14696</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F118" s="4">
+        <v>33218</v>
+      </c>
+      <c r="G118" s="4">
+        <v>31911</v>
+      </c>
+      <c r="H118" s="4">
+        <v>1196</v>
+      </c>
+      <c r="I118" s="4">
+        <v>1110</v>
+      </c>
+      <c r="J118" s="4">
+        <v>756</v>
+      </c>
+      <c r="K118" s="4">
+        <v>580</v>
+      </c>
+      <c r="L118" s="4">
+        <v>396878</v>
+      </c>
+      <c r="M118" s="4">
+        <v>366253</v>
+      </c>
+      <c r="N118" s="4">
+        <v>9831</v>
+      </c>
+      <c r="O118" s="4">
+        <v>8104</v>
+      </c>
+      <c r="P118" s="4">
+        <v>7116</v>
+      </c>
+      <c r="Q118" s="4">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2533,8 +6775,44 @@
       <c r="D119" s="2">
         <v>44748</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F119" s="4">
+        <v>222400</v>
+      </c>
+      <c r="G119" s="4">
+        <v>196000</v>
+      </c>
+      <c r="H119" s="4">
+        <v>7134</v>
+      </c>
+      <c r="I119" s="4">
+        <v>6950</v>
+      </c>
+      <c r="J119" s="4">
+        <v>5436</v>
+      </c>
+      <c r="K119" s="4">
+        <v>6027</v>
+      </c>
+      <c r="L119" s="4">
+        <v>906300</v>
+      </c>
+      <c r="M119" s="4">
+        <v>792800</v>
+      </c>
+      <c r="N119" s="4">
+        <v>33885</v>
+      </c>
+      <c r="O119" s="4">
+        <v>32299</v>
+      </c>
+      <c r="P119" s="4">
+        <v>17382</v>
+      </c>
+      <c r="Q119" s="4">
+        <v>16903</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2547,8 +6825,44 @@
       <c r="D120" s="2">
         <v>200535</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F120" s="4">
+        <v>790993</v>
+      </c>
+      <c r="G120" s="4">
+        <v>721414</v>
+      </c>
+      <c r="H120" s="4">
+        <v>19882</v>
+      </c>
+      <c r="I120" s="4">
+        <v>19031</v>
+      </c>
+      <c r="J120" s="4">
+        <v>14243</v>
+      </c>
+      <c r="K120" s="4">
+        <v>12882</v>
+      </c>
+      <c r="L120" s="4">
+        <v>5081052</v>
+      </c>
+      <c r="M120" s="4">
+        <v>4511013</v>
+      </c>
+      <c r="N120" s="4">
+        <v>153627</v>
+      </c>
+      <c r="O120" s="4">
+        <v>140824</v>
+      </c>
+      <c r="P120" s="4">
+        <v>642</v>
+      </c>
+      <c r="Q120" s="4">
+        <v>82768</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2561,8 +6875,44 @@
       <c r="D121" s="2">
         <v>785184</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F121" s="4">
+        <v>2573890</v>
+      </c>
+      <c r="G121" s="4">
+        <v>2117951</v>
+      </c>
+      <c r="H121" s="4">
+        <v>5037</v>
+      </c>
+      <c r="I121" s="4">
+        <v>2022</v>
+      </c>
+      <c r="J121" s="4">
+        <v>47724</v>
+      </c>
+      <c r="K121" s="4">
+        <v>38407</v>
+      </c>
+      <c r="L121" s="4">
+        <v>5501894</v>
+      </c>
+      <c r="M121" s="4">
+        <v>14193906</v>
+      </c>
+      <c r="N121" s="4">
+        <v>612104</v>
+      </c>
+      <c r="O121" s="4">
+        <v>571407</v>
+      </c>
+      <c r="P121" s="4">
+        <v>363755</v>
+      </c>
+      <c r="Q121" s="4">
+        <v>335298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2575,21 +6925,191 @@
       <c r="D122" s="2">
         <v>4228368</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F122" s="4">
+        <v>12734137</v>
+      </c>
+      <c r="G122" s="4">
+        <v>11904740</v>
+      </c>
+      <c r="H122" s="4">
+        <v>300334</v>
+      </c>
+      <c r="I122" s="4">
+        <v>340598</v>
+      </c>
+      <c r="J122" s="4">
+        <v>280402</v>
+      </c>
+      <c r="K122" s="4">
+        <v>232499</v>
+      </c>
+      <c r="L122" s="4">
+        <v>74866532</v>
+      </c>
+      <c r="M122" s="4">
+        <v>74509469</v>
+      </c>
+      <c r="N122" s="4">
+        <v>3090469</v>
+      </c>
+      <c r="O122" s="4">
+        <v>2932246</v>
+      </c>
+      <c r="P122" s="4">
+        <v>1934998</v>
+      </c>
+      <c r="Q122" s="4">
+        <v>1774469</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+    </row>
+    <row r="129" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+    </row>
+    <row r="130" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+    </row>
+    <row r="131" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+    </row>
+    <row r="132" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF2D78D-F531-4740-A294-EF5852E0353E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3955CE2-7B68-43B3-B266-5D2BD8803490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="151">
   <si>
     <t>губ</t>
   </si>
@@ -463,6 +463,27 @@
   </si>
   <si>
     <t>2285!</t>
+  </si>
+  <si>
+    <t>чж-гор-о NYY</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>чр-гор-о YY</t>
+  </si>
+  <si>
+    <t>чс-гор-о YY</t>
+  </si>
+  <si>
+    <t>чж-уез-о NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-о YY</t>
+  </si>
+  <si>
+    <t>чс-уез-о YY</t>
   </si>
 </sst>
 </file>
@@ -843,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C7940-0325-42DE-9989-EDE5D7F661BD}">
-  <dimension ref="A1:Q132"/>
+  <dimension ref="A1:AC132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="U71" sqref="U71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,15 +875,27 @@
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,37 +915,73 @@
         <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -931,38 +1000,48 @@
       <c r="G2" s="4">
         <v>28091</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
         <v>1055</v>
       </c>
-      <c r="I2" s="4">
+      <c r="K2" s="4">
         <v>960</v>
       </c>
-      <c r="J2" s="4">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4">
         <v>989</v>
       </c>
-      <c r="K2" s="4">
+      <c r="O2" s="4">
         <v>683</v>
       </c>
-      <c r="L2" s="4">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4">
         <v>197689</v>
       </c>
-      <c r="M2" s="4">
+      <c r="S2" s="4">
         <v>214774</v>
       </c>
-      <c r="N2" s="4">
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4">
         <v>9113</v>
       </c>
-      <c r="O2" s="4">
+      <c r="W2" s="4">
         <v>8944</v>
       </c>
-      <c r="P2" s="4">
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4">
         <v>5699</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="AA2" s="4">
         <v>5221</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -981,38 +1060,48 @@
       <c r="G3" s="4">
         <v>36098</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
         <v>1755</v>
       </c>
-      <c r="I3" s="4">
+      <c r="K3" s="4">
         <v>1771</v>
       </c>
-      <c r="J3" s="4">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
         <v>1338</v>
       </c>
-      <c r="K3" s="4">
+      <c r="O3" s="4">
         <v>1069</v>
       </c>
-      <c r="L3" s="4">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4">
         <v>770011</v>
       </c>
-      <c r="M3" s="4">
+      <c r="S3" s="4">
         <v>837974</v>
       </c>
-      <c r="N3" s="4">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4">
         <v>39808</v>
       </c>
-      <c r="O3" s="4">
+      <c r="W3" s="4">
         <v>33272</v>
       </c>
-      <c r="P3" s="4">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4">
         <v>27829</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="AA3" s="4">
         <v>25014</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1031,38 +1120,48 @@
       <c r="G4" s="4">
         <v>64189</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
         <v>2616</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <v>2731</v>
       </c>
-      <c r="J4" s="4">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
         <v>2327</v>
       </c>
-      <c r="K4" s="4">
+      <c r="O4" s="4">
         <v>1742</v>
       </c>
-      <c r="L4" s="4">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4">
         <v>967700</v>
       </c>
-      <c r="M4" s="4">
+      <c r="S4" s="4">
         <v>1052748</v>
       </c>
-      <c r="N4" s="4">
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4">
         <v>40321</v>
       </c>
-      <c r="O4" s="4">
+      <c r="W4" s="4">
         <v>47216</v>
       </c>
-      <c r="P4" s="4">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4">
         <v>33528</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="AA4" s="4">
         <v>30235</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1081,38 +1180,48 @@
       <c r="G5" s="4">
         <v>18326</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>638</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="4">
         <v>548</v>
       </c>
-      <c r="J5" s="4">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
         <v>631</v>
       </c>
-      <c r="K5" s="4">
+      <c r="O5" s="4">
         <v>440</v>
       </c>
-      <c r="L5" s="4">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
         <v>204711</v>
       </c>
-      <c r="M5" s="4">
+      <c r="S5" s="4">
         <v>212014</v>
       </c>
-      <c r="N5" s="4">
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4">
         <v>9866</v>
       </c>
-      <c r="O5" s="4">
+      <c r="W5" s="4">
         <v>9543</v>
       </c>
-      <c r="P5" s="4">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4">
         <v>8291</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="AA5" s="4">
         <v>7494</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1131,38 +1240,48 @@
       <c r="G6" s="4">
         <v>261476</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <v>8990</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="4">
         <v>8608</v>
       </c>
-      <c r="J6" s="4">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
         <v>8265</v>
       </c>
-      <c r="K6" s="4">
+      <c r="O6" s="4">
         <v>6277</v>
       </c>
-      <c r="L6" s="4">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
         <v>517355</v>
       </c>
-      <c r="M6" s="4">
+      <c r="S6" s="4">
         <v>525890</v>
       </c>
-      <c r="N6" s="4">
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
         <v>15479</v>
       </c>
-      <c r="O6" s="4">
+      <c r="W6" s="4">
         <v>14594</v>
       </c>
-      <c r="P6" s="4">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4">
         <v>11708</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="AA6" s="4">
         <v>9770</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1181,38 +1300,48 @@
       <c r="G7" s="4">
         <v>816727</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>22732</v>
       </c>
-      <c r="I7" s="4">
+      <c r="K7" s="4">
         <v>21671</v>
       </c>
-      <c r="J7" s="4">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
         <v>20925</v>
       </c>
-      <c r="K7" s="4">
+      <c r="O7" s="4">
         <v>16151</v>
       </c>
-      <c r="L7" s="4">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
         <v>0</v>
       </c>
-      <c r="M7" s="4">
+      <c r="S7" s="4">
         <v>0</v>
       </c>
-      <c r="N7" s="4">
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
         <v>0</v>
       </c>
-      <c r="O7" s="4">
+      <c r="W7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="4">
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4">
         <v>0</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="AA7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1231,38 +1360,48 @@
       <c r="G8" s="4">
         <v>44132</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4">
         <v>1676</v>
       </c>
-      <c r="I8" s="4">
+      <c r="K8" s="4">
         <v>1458</v>
       </c>
-      <c r="J8" s="4">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
         <v>1459</v>
       </c>
-      <c r="K8" s="4">
+      <c r="O8" s="4">
         <v>1154</v>
       </c>
-      <c r="L8" s="4">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
         <v>667111</v>
       </c>
-      <c r="M8" s="4">
+      <c r="S8" s="4">
         <v>706610</v>
       </c>
-      <c r="N8" s="4">
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4">
         <v>266511</v>
       </c>
-      <c r="O8" s="4">
+      <c r="W8" s="4">
         <v>25701</v>
       </c>
-      <c r="P8" s="4">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4">
         <v>18128</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="AA8" s="4">
         <v>16047</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1281,38 +1420,48 @@
       <c r="G9" s="4">
         <v>46038</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>1742</v>
       </c>
-      <c r="I9" s="4">
+      <c r="K9" s="4">
         <v>1649</v>
       </c>
-      <c r="J9" s="4">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
         <v>1541</v>
       </c>
-      <c r="K9" s="4">
+      <c r="O9" s="4">
         <v>1388</v>
       </c>
-      <c r="L9" s="4">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
         <v>763340</v>
       </c>
-      <c r="M9" s="4">
+      <c r="S9" s="4">
         <v>823873</v>
       </c>
-      <c r="N9" s="4">
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4">
         <v>34732</v>
       </c>
-      <c r="O9" s="4">
+      <c r="W9" s="4">
         <v>32598</v>
       </c>
-      <c r="P9" s="4">
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4">
         <v>24297</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="AA9" s="4">
         <v>21094</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1331,38 +1480,48 @@
       <c r="G10" s="4">
         <v>1186664</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
         <v>35678</v>
       </c>
-      <c r="I10" s="4">
+      <c r="K10" s="4">
         <v>33934</v>
       </c>
-      <c r="J10" s="4">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
         <v>32821</v>
       </c>
-      <c r="K10" s="4">
+      <c r="O10" s="4">
         <v>24410</v>
       </c>
-      <c r="L10" s="4">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
         <v>2132517</v>
       </c>
-      <c r="M10" s="4">
+      <c r="S10" s="4">
         <v>2268387</v>
       </c>
-      <c r="N10" s="4">
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4">
         <v>86727</v>
       </c>
-      <c r="O10" s="4">
+      <c r="W10" s="4">
         <v>82436</v>
       </c>
-      <c r="P10" s="4">
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4">
         <v>92419</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="AA10" s="4">
         <v>54405</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1381,38 +1540,48 @@
       <c r="G11" s="4">
         <v>84601</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
         <v>2715</v>
       </c>
-      <c r="I11" s="4">
+      <c r="K11" s="4">
         <v>2615</v>
       </c>
-      <c r="J11" s="4">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
         <v>2280</v>
       </c>
-      <c r="K11" s="4">
+      <c r="O11" s="4">
         <v>2135</v>
       </c>
-      <c r="L11" s="4">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4">
         <v>1005640</v>
       </c>
-      <c r="M11" s="4">
+      <c r="S11" s="4">
         <v>1202342</v>
       </c>
-      <c r="N11" s="4">
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4">
         <v>45142</v>
       </c>
-      <c r="O11" s="4">
+      <c r="W11" s="4">
         <v>48217</v>
       </c>
-      <c r="P11" s="4">
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4">
         <v>82918</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="AA11" s="4">
         <v>29840</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1431,38 +1600,48 @@
       <c r="G12" s="4">
         <v>107030</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>4274</v>
       </c>
-      <c r="I12" s="4">
+      <c r="K12" s="4">
         <v>4191</v>
       </c>
-      <c r="J12" s="4">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
         <v>8778</v>
       </c>
-      <c r="K12" s="4">
+      <c r="O12" s="4">
         <v>3083</v>
       </c>
-      <c r="L12" s="4">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4">
         <v>565287</v>
       </c>
-      <c r="M12" s="4">
+      <c r="S12" s="4">
         <v>642201</v>
       </c>
-      <c r="N12" s="4">
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4">
         <v>21657</v>
       </c>
-      <c r="O12" s="4">
+      <c r="W12" s="4">
         <v>20668</v>
       </c>
-      <c r="P12" s="4">
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4">
         <v>16105</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="AA12" s="4">
         <v>16027</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1481,38 +1660,48 @@
       <c r="G13" s="4">
         <v>61822</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
         <v>2726</v>
       </c>
-      <c r="I13" s="4">
+      <c r="K13" s="4">
         <v>2534</v>
       </c>
-      <c r="J13" s="4">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
         <v>2126</v>
       </c>
-      <c r="K13" s="4">
+      <c r="O13" s="4">
         <v>1823</v>
       </c>
-      <c r="L13" s="4">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4">
         <v>7914151</v>
       </c>
-      <c r="M13" s="4">
+      <c r="S13" s="4">
         <v>893100</v>
       </c>
-      <c r="N13" s="4">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4">
         <v>38515</v>
       </c>
-      <c r="O13" s="4">
+      <c r="W13" s="4">
         <v>36619</v>
       </c>
-      <c r="P13" s="4">
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4">
         <v>26363</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="AA13" s="4">
         <v>24450</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1531,38 +1720,48 @@
       <c r="G14" s="4">
         <v>176547</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
         <v>7138</v>
       </c>
-      <c r="I14" s="4">
+      <c r="K14" s="4">
         <v>6681</v>
       </c>
-      <c r="J14" s="4">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
         <v>6124</v>
       </c>
-      <c r="K14" s="4">
+      <c r="O14" s="4">
         <v>4504</v>
       </c>
-      <c r="L14" s="4">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
         <v>931650</v>
       </c>
-      <c r="M14" s="4">
+      <c r="S14" s="4">
         <v>968466</v>
       </c>
-      <c r="N14" s="4">
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4">
         <v>38062</v>
       </c>
-      <c r="O14" s="4">
+      <c r="W14" s="4">
         <v>37424</v>
       </c>
-      <c r="P14" s="4">
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4">
         <v>26728</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="AA14" s="4">
         <v>24041</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1581,38 +1780,48 @@
       <c r="G15" s="4">
         <v>65033</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
         <v>3791</v>
       </c>
-      <c r="I15" s="4">
+      <c r="K15" s="4">
         <v>3509</v>
       </c>
-      <c r="J15" s="4">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4">
         <v>2814</v>
       </c>
-      <c r="K15" s="4">
+      <c r="O15" s="4">
         <v>2227</v>
       </c>
-      <c r="L15" s="4">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4">
         <v>754790</v>
       </c>
-      <c r="M15" s="4">
+      <c r="S15" s="4">
         <v>929985</v>
       </c>
-      <c r="N15" s="4">
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4">
         <v>36532</v>
       </c>
-      <c r="O15" s="4">
+      <c r="W15" s="4">
         <v>36501</v>
       </c>
-      <c r="P15" s="4">
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4">
         <v>27939</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="AA15" s="4">
         <v>24412</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1631,38 +1840,48 @@
       <c r="G16" s="4">
         <v>769114</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
         <v>27831</v>
       </c>
-      <c r="I16" s="4">
+      <c r="K16" s="4">
         <v>26818</v>
       </c>
-      <c r="J16" s="4">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
         <v>23204</v>
       </c>
-      <c r="K16" s="4">
+      <c r="O16" s="4">
         <v>18736</v>
       </c>
-      <c r="L16" s="4">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4">
         <v>0</v>
       </c>
-      <c r="M16" s="4">
+      <c r="S16" s="4">
         <v>0</v>
       </c>
-      <c r="N16" s="4">
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4">
         <v>0</v>
       </c>
-      <c r="O16" s="4">
+      <c r="W16" s="4">
         <v>0</v>
       </c>
-      <c r="P16" s="4">
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4">
         <v>0</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="AA16" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1681,38 +1900,48 @@
       <c r="G17" s="4">
         <v>48336</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4">
         <v>1943</v>
       </c>
-      <c r="I17" s="4">
+      <c r="K17" s="4">
         <v>1816</v>
       </c>
-      <c r="J17" s="4">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
         <v>1643</v>
       </c>
-      <c r="K17" s="4">
+      <c r="O17" s="4">
         <v>1312</v>
       </c>
-      <c r="L17" s="4">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4">
         <v>654549</v>
       </c>
-      <c r="M17" s="4">
+      <c r="S17" s="4">
         <v>744083</v>
       </c>
-      <c r="N17" s="4">
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4">
         <v>32668</v>
       </c>
-      <c r="O17" s="4">
+      <c r="W17" s="4">
         <v>31604</v>
       </c>
-      <c r="P17" s="4">
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4">
         <v>22520</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="AA17" s="4">
         <v>20389</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1731,38 +1960,48 @@
       <c r="G18" s="4">
         <v>1300983</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
         <v>50418</v>
       </c>
-      <c r="I18" s="4">
+      <c r="K18" s="4">
         <v>48064</v>
       </c>
-      <c r="J18" s="4">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
         <v>40964</v>
       </c>
-      <c r="K18" s="4">
+      <c r="O18" s="4">
         <v>33820</v>
       </c>
-      <c r="L18" s="4">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4">
         <v>4703281</v>
       </c>
-      <c r="M18" s="4">
+      <c r="S18" s="4">
         <v>5365227</v>
       </c>
-      <c r="N18" s="4">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4">
         <v>213576</v>
       </c>
-      <c r="O18" s="4">
+      <c r="W18" s="4">
         <v>205233</v>
       </c>
-      <c r="P18" s="4">
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4">
         <v>152573</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="AA18" s="4">
         <v>137659</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1781,38 +2020,48 @@
       <c r="G19" s="4">
         <v>97130</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
         <v>3906</v>
       </c>
-      <c r="I19" s="4">
+      <c r="K19" s="4">
         <v>3681</v>
       </c>
-      <c r="J19" s="4">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4">
         <v>3550</v>
       </c>
-      <c r="K19" s="4">
+      <c r="O19" s="4">
         <v>2912</v>
       </c>
-      <c r="L19" s="4">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4">
         <v>878264</v>
       </c>
-      <c r="M19" s="4">
+      <c r="S19" s="4">
         <v>893546</v>
       </c>
-      <c r="N19" s="4">
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4">
         <v>88554</v>
       </c>
-      <c r="O19" s="4">
+      <c r="W19" s="4">
         <v>36433</v>
       </c>
-      <c r="P19" s="4">
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4">
         <v>29093</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="AA19" s="4">
         <v>26199</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1831,38 +2080,48 @@
       <c r="G20" s="4">
         <v>70153</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
         <v>2891</v>
       </c>
-      <c r="I20" s="4">
+      <c r="K20" s="4">
         <v>2719</v>
       </c>
-      <c r="J20" s="4">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4">
         <v>2430</v>
       </c>
-      <c r="K20" s="4">
+      <c r="O20" s="4">
         <v>1984</v>
       </c>
-      <c r="L20" s="4">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4">
         <v>1245462</v>
       </c>
-      <c r="M20" s="4">
+      <c r="S20" s="4">
         <v>1263514</v>
       </c>
-      <c r="N20" s="4">
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4">
         <v>49850</v>
       </c>
-      <c r="O20" s="4">
+      <c r="W20" s="4">
         <v>47491</v>
       </c>
-      <c r="P20" s="4">
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4">
         <v>32660</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="AA20" s="4">
         <v>29569</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1881,38 +2140,48 @@
       <c r="G21" s="4">
         <v>151800</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
         <v>4198</v>
       </c>
-      <c r="I21" s="4">
+      <c r="K21" s="4">
         <v>4012</v>
       </c>
-      <c r="J21" s="4">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
         <v>8610</v>
       </c>
-      <c r="K21" s="4">
+      <c r="O21" s="4">
         <v>2944</v>
       </c>
-      <c r="L21" s="4">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4">
         <v>1178100</v>
       </c>
-      <c r="M21" s="4">
+      <c r="S21" s="4">
         <v>1229700</v>
       </c>
-      <c r="N21" s="4">
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4">
         <v>56364</v>
       </c>
-      <c r="O21" s="4">
+      <c r="W21" s="4">
         <v>53729</v>
       </c>
-      <c r="P21" s="4">
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4">
         <v>35058</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="AA21" s="4">
         <v>31705</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1931,38 +2200,48 @@
       <c r="G22" s="4">
         <v>127357</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
         <v>661</v>
       </c>
-      <c r="I22" s="4">
+      <c r="K22" s="4">
         <v>6098</v>
       </c>
-      <c r="J22" s="4">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4">
         <v>4777</v>
       </c>
-      <c r="K22" s="4">
+      <c r="O22" s="4">
         <v>4295</v>
       </c>
-      <c r="L22" s="4">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4">
         <v>1403347</v>
       </c>
-      <c r="M22" s="4">
+      <c r="S22" s="4">
         <v>1409967</v>
       </c>
-      <c r="N22" s="4">
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4">
         <v>67478</v>
       </c>
-      <c r="O22" s="4">
+      <c r="W22" s="4">
         <v>64913</v>
       </c>
-      <c r="P22" s="4">
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4">
         <v>39286</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="AA22" s="4">
         <v>39683</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1981,38 +2260,48 @@
       <c r="G23" s="4">
         <v>79443</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
         <v>2767</v>
       </c>
-      <c r="I23" s="4">
+      <c r="K23" s="4">
         <v>2656</v>
       </c>
-      <c r="J23" s="4">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4">
         <v>2358</v>
       </c>
-      <c r="K23" s="4">
+      <c r="O23" s="4">
         <v>1908</v>
       </c>
-      <c r="L23" s="4">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4">
         <v>1791164</v>
       </c>
-      <c r="M23" s="4">
+      <c r="S23" s="4">
         <v>1744809</v>
       </c>
-      <c r="N23" s="4">
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4">
         <v>87092</v>
       </c>
-      <c r="O23" s="4">
+      <c r="W23" s="4">
         <v>82795</v>
       </c>
-      <c r="P23" s="4">
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4">
         <v>54705</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="AA23" s="4">
         <v>60223</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2031,38 +2320,48 @@
       <c r="G24" s="4">
         <v>137024</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
         <v>4726</v>
       </c>
-      <c r="I24" s="4">
+      <c r="K24" s="4">
         <v>4766</v>
       </c>
-      <c r="J24" s="4">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4">
         <v>3711</v>
       </c>
-      <c r="K24" s="4">
+      <c r="O24" s="4">
         <v>3504</v>
       </c>
-      <c r="L24" s="4">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4">
         <v>1770778</v>
       </c>
-      <c r="M24" s="4">
+      <c r="S24" s="4">
         <v>1791583</v>
       </c>
-      <c r="N24" s="4">
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4">
         <v>86513</v>
       </c>
-      <c r="O24" s="4">
+      <c r="W24" s="4">
         <v>82327</v>
       </c>
-      <c r="P24" s="4">
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4">
         <v>65009</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="AA24" s="4">
         <v>50753</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2081,38 +2380,48 @@
       <c r="G25" s="4">
         <v>662907</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
         <v>25048</v>
       </c>
-      <c r="I25" s="4">
+      <c r="K25" s="4">
         <v>23832</v>
       </c>
-      <c r="J25" s="4">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4">
         <v>20436</v>
       </c>
-      <c r="K25" s="4">
+      <c r="O25" s="4">
         <v>17547</v>
       </c>
-      <c r="L25" s="4">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4">
         <v>8267113</v>
       </c>
-      <c r="M25" s="4">
+      <c r="S25" s="4">
         <v>8338124</v>
       </c>
-      <c r="N25" s="4">
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4">
         <v>385851</v>
       </c>
-      <c r="O25" s="4">
+      <c r="W25" s="4">
         <v>367688</v>
       </c>
-      <c r="P25" s="4">
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4">
         <v>245811</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="AA25" s="4">
         <v>228132</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2131,38 +2440,48 @@
       <c r="G26" s="4">
         <v>80316</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
         <v>3728</v>
       </c>
-      <c r="I26" s="4">
+      <c r="K26" s="4">
         <v>3568</v>
       </c>
-      <c r="J26" s="4">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4">
         <v>2959</v>
       </c>
-      <c r="K26" s="4">
+      <c r="O26" s="4">
         <v>2433</v>
       </c>
-      <c r="L26" s="4">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4">
         <v>921624</v>
       </c>
-      <c r="M26" s="4">
+      <c r="S26" s="4">
         <v>932094</v>
       </c>
-      <c r="N26" s="4">
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4">
         <v>44076</v>
       </c>
-      <c r="O26" s="4">
+      <c r="W26" s="4">
         <v>43620</v>
       </c>
-      <c r="P26" s="4">
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4">
         <v>30766</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="AA26" s="4">
         <v>28175</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2181,38 +2500,48 @@
       <c r="G27" s="4">
         <v>288283</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4">
         <v>9769</v>
       </c>
-      <c r="I27" s="4">
+      <c r="K27" s="4">
         <v>233</v>
       </c>
-      <c r="J27" s="4">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4">
         <v>8062</v>
       </c>
-      <c r="K27" s="4">
+      <c r="O27" s="4">
         <v>6691</v>
       </c>
-      <c r="L27" s="4">
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4">
         <v>1352231</v>
       </c>
-      <c r="M27" s="4">
+      <c r="S27" s="4">
         <v>1366686</v>
       </c>
-      <c r="N27" s="4">
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4">
         <v>66847</v>
       </c>
-      <c r="O27" s="4">
+      <c r="W27" s="4">
         <v>64617</v>
       </c>
-      <c r="P27" s="4">
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4">
         <v>40847</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="AA27" s="4">
         <v>38214</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2231,38 +2560,48 @@
       <c r="G28" s="4">
         <v>81648</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
         <v>4120</v>
       </c>
-      <c r="I28" s="4">
+      <c r="K28" s="4">
         <v>3945</v>
       </c>
-      <c r="J28" s="4">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4">
         <v>3127</v>
       </c>
-      <c r="K28" s="4">
+      <c r="O28" s="4">
         <v>2802</v>
       </c>
-      <c r="L28" s="4">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4">
         <v>915048</v>
       </c>
-      <c r="M28" s="4">
+      <c r="S28" s="4">
         <v>950590</v>
       </c>
-      <c r="N28" s="4">
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4">
         <v>47516</v>
       </c>
-      <c r="O28" s="4">
+      <c r="W28" s="4">
         <v>45280</v>
       </c>
-      <c r="P28" s="4">
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4">
         <v>29996</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="AA28" s="4">
         <v>28262</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2281,38 +2620,48 @@
       <c r="G29" s="4">
         <v>74458</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4">
         <v>8291</v>
       </c>
-      <c r="I29" s="4">
+      <c r="K29" s="4">
         <v>3020</v>
       </c>
-      <c r="J29" s="4">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4">
         <v>2711</v>
       </c>
-      <c r="K29" s="4">
+      <c r="O29" s="4">
         <v>2247</v>
       </c>
-      <c r="L29" s="4">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4">
         <v>961778</v>
       </c>
-      <c r="M29" s="4">
+      <c r="S29" s="4">
         <v>1004684</v>
       </c>
-      <c r="N29" s="4">
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4">
         <v>46220</v>
       </c>
-      <c r="O29" s="4">
+      <c r="W29" s="4">
         <v>42003</v>
       </c>
-      <c r="P29" s="4">
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4">
         <v>32359</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="AA29" s="4">
         <v>29012</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2331,38 +2680,48 @@
       <c r="G30" s="4">
         <v>129037</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4">
         <v>4470</v>
       </c>
-      <c r="I30" s="4">
+      <c r="K30" s="4">
         <v>5015</v>
       </c>
-      <c r="J30" s="4">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4">
         <v>4071</v>
       </c>
-      <c r="K30" s="4">
+      <c r="O30" s="4">
         <v>3325</v>
       </c>
-      <c r="L30" s="4">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4">
         <v>1299993</v>
       </c>
-      <c r="M30" s="4">
+      <c r="S30" s="4">
         <v>1290133</v>
       </c>
-      <c r="N30" s="4">
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4">
         <v>55127</v>
       </c>
-      <c r="O30" s="4">
+      <c r="W30" s="4">
         <v>53617</v>
       </c>
-      <c r="P30" s="4">
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4">
         <v>40871</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="AA30" s="4">
         <v>39894</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2381,38 +2740,48 @@
       <c r="G31" s="4">
         <v>653642</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4">
         <v>25378</v>
       </c>
-      <c r="I31" s="4">
+      <c r="K31" s="4">
         <v>24781</v>
       </c>
-      <c r="J31" s="4">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4">
         <v>20930</v>
       </c>
-      <c r="K31" s="4">
+      <c r="O31" s="4">
         <v>17498</v>
       </c>
-      <c r="L31" s="4">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4">
         <v>5440674</v>
       </c>
-      <c r="M31" s="4">
+      <c r="S31" s="4">
         <v>5544187</v>
       </c>
-      <c r="N31" s="4">
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4">
         <v>259786</v>
       </c>
-      <c r="O31" s="4">
+      <c r="W31" s="4">
         <v>249137</v>
       </c>
-      <c r="P31" s="4">
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4">
         <v>174829</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="AA31" s="4">
         <v>163557</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2431,38 +2800,48 @@
       <c r="G32" s="4">
         <v>76452</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4">
         <v>2414</v>
       </c>
-      <c r="I32" s="4">
+      <c r="K32" s="4">
         <v>2181</v>
       </c>
-      <c r="J32" s="4">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4">
         <v>1977</v>
       </c>
-      <c r="K32" s="4">
+      <c r="O32" s="4">
         <v>1727</v>
       </c>
-      <c r="L32" s="4">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4">
         <v>1791168</v>
       </c>
-      <c r="M32" s="4">
+      <c r="S32" s="4">
         <v>1866345</v>
       </c>
-      <c r="N32" s="4">
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4">
         <v>84025</v>
       </c>
-      <c r="O32" s="4">
+      <c r="W32" s="4">
         <v>89731</v>
       </c>
-      <c r="P32" s="4">
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4">
         <v>88142</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="AA32" s="4">
         <v>64608</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2481,38 +2860,48 @@
       <c r="G33" s="4">
         <v>102533</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
         <v>6224</v>
       </c>
-      <c r="I33" s="4">
+      <c r="K33" s="4">
         <v>4922</v>
       </c>
-      <c r="J33" s="4">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4">
         <v>4924</v>
       </c>
-      <c r="K33" s="4">
+      <c r="O33" s="4">
         <v>4086</v>
       </c>
-      <c r="L33" s="4">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4">
         <v>1752312</v>
       </c>
-      <c r="M33" s="4">
+      <c r="S33" s="4">
         <v>1872811</v>
       </c>
-      <c r="N33" s="4">
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4">
         <v>99766</v>
       </c>
-      <c r="O33" s="4">
+      <c r="W33" s="4">
         <v>96549</v>
       </c>
-      <c r="P33" s="4">
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4">
         <v>75448</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="AA33" s="4">
         <v>69948</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2531,38 +2920,48 @@
       <c r="G34" s="4">
         <v>94206</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
         <v>4660</v>
       </c>
-      <c r="I34" s="4">
+      <c r="K34" s="4">
         <v>4469</v>
       </c>
-      <c r="J34" s="4">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4">
         <v>3757</v>
       </c>
-      <c r="K34" s="4">
+      <c r="O34" s="4">
         <v>3016</v>
       </c>
-      <c r="L34" s="4">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4">
         <v>1425375</v>
       </c>
-      <c r="M34" s="4">
+      <c r="S34" s="4">
         <v>1630334</v>
       </c>
-      <c r="N34" s="4">
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4">
         <v>70811</v>
       </c>
-      <c r="O34" s="4">
+      <c r="W34" s="4">
         <v>67445</v>
       </c>
-      <c r="P34" s="4">
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4">
         <v>43394</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="AA34" s="4">
         <v>42618</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2581,38 +2980,48 @@
       <c r="G35" s="4">
         <v>273191</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4">
         <v>12198</v>
       </c>
-      <c r="I35" s="4">
+      <c r="K35" s="4">
         <v>11562</v>
       </c>
-      <c r="J35" s="4">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4">
         <v>10658</v>
       </c>
-      <c r="K35" s="4">
+      <c r="O35" s="4">
         <v>8829</v>
       </c>
-      <c r="L35" s="4">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4">
         <v>4968885</v>
       </c>
-      <c r="M35" s="4">
+      <c r="S35" s="4">
         <v>5269490</v>
       </c>
-      <c r="N35" s="4">
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4">
         <v>264602</v>
       </c>
-      <c r="O35" s="4">
+      <c r="W35" s="4">
         <v>253725</v>
       </c>
-      <c r="P35" s="4">
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4">
         <v>186984</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="AA35" s="4">
         <v>177174</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2631,38 +3040,48 @@
       <c r="G36" s="4">
         <v>136444</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4">
         <v>5909</v>
       </c>
-      <c r="I36" s="4">
+      <c r="K36" s="4">
         <v>5851</v>
       </c>
-      <c r="J36" s="4">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4">
         <v>4871</v>
       </c>
-      <c r="K36" s="4">
+      <c r="O36" s="4">
         <v>3960</v>
       </c>
-      <c r="L36" s="4">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4">
         <v>994340</v>
       </c>
-      <c r="M36" s="4">
+      <c r="S36" s="4">
         <v>990206</v>
       </c>
-      <c r="N36" s="4">
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4">
         <v>54968</v>
       </c>
-      <c r="O36" s="4">
+      <c r="W36" s="4">
         <v>53781</v>
       </c>
-      <c r="P36" s="4">
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4">
         <v>37096</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="AA36" s="4">
         <v>35398</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2681,38 +3100,48 @@
       <c r="G37" s="4">
         <v>94617</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4">
         <v>6220</v>
       </c>
-      <c r="I37" s="4">
+      <c r="K37" s="4">
         <v>6107</v>
       </c>
-      <c r="J37" s="4">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4">
         <v>5249</v>
       </c>
-      <c r="K37" s="4">
+      <c r="O37" s="4">
         <v>4214</v>
       </c>
-      <c r="L37" s="4">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4">
         <v>1795559</v>
       </c>
-      <c r="M37" s="4">
+      <c r="S37" s="4">
         <v>1830724</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="O37" s="4">
+      <c r="W37" s="4">
         <v>96747</v>
       </c>
-      <c r="P37" s="4">
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4">
         <v>55991</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="AA37" s="4">
         <v>52317</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2731,38 +3160,48 @@
       <c r="G38" s="4">
         <v>97265</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4">
         <v>3735</v>
       </c>
-      <c r="I38" s="4">
+      <c r="K38" s="4">
         <v>3632</v>
       </c>
-      <c r="J38" s="4">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4">
         <v>3431</v>
       </c>
-      <c r="K38" s="4">
+      <c r="O38" s="4">
         <v>2799</v>
       </c>
-      <c r="L38" s="4">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4">
         <v>591946</v>
       </c>
-      <c r="M38" s="4">
+      <c r="S38" s="4">
         <v>559198</v>
       </c>
-      <c r="N38" s="4">
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4">
         <v>22049</v>
       </c>
-      <c r="O38" s="4">
+      <c r="W38" s="4">
         <v>20670</v>
       </c>
-      <c r="P38" s="4">
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4">
         <v>12626</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="AA38" s="4">
         <v>11203</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2781,38 +3220,48 @@
       <c r="G39" s="4">
         <v>328316</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4">
         <v>15864</v>
       </c>
-      <c r="I39" s="4">
+      <c r="K39" s="4">
         <v>15590</v>
       </c>
-      <c r="J39" s="4">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4">
         <v>13551</v>
       </c>
-      <c r="K39" s="4">
+      <c r="O39" s="4">
         <v>10973</v>
       </c>
-      <c r="L39" s="4">
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4">
         <v>3381845</v>
       </c>
-      <c r="M39" s="4">
+      <c r="S39" s="4">
         <v>3380128</v>
       </c>
-      <c r="N39" s="4">
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4">
         <v>177096</v>
       </c>
-      <c r="O39" s="4">
+      <c r="W39" s="4">
         <v>170198</v>
       </c>
-      <c r="P39" s="4">
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4">
         <v>105713</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="AA39" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2831,38 +3280,48 @@
       <c r="G40" s="4">
         <v>216708</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4">
         <v>7856</v>
       </c>
-      <c r="I40" s="4">
+      <c r="K40" s="4">
         <v>7299</v>
       </c>
-      <c r="J40" s="4">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4">
         <v>5655</v>
       </c>
-      <c r="K40" s="4">
+      <c r="O40" s="4">
         <v>4783</v>
       </c>
-      <c r="L40" s="4">
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4">
         <v>1601752</v>
       </c>
-      <c r="M40" s="4">
+      <c r="S40" s="4">
         <v>1461950</v>
       </c>
-      <c r="N40" s="4">
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4">
         <v>70345</v>
       </c>
-      <c r="O40" s="4">
+      <c r="W40" s="4">
         <v>66115</v>
       </c>
-      <c r="P40" s="4">
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4">
         <v>39226</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="AA40" s="4">
         <v>36139</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2881,38 +3340,48 @@
       <c r="G41" s="4">
         <v>212878</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4">
         <v>6946</v>
       </c>
-      <c r="I41" s="4">
+      <c r="K41" s="4">
         <v>6699</v>
       </c>
-      <c r="J41" s="4">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4">
         <v>4084</v>
       </c>
-      <c r="K41" s="4">
+      <c r="O41" s="4">
         <v>3326</v>
       </c>
-      <c r="L41" s="4">
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4">
         <v>1683523</v>
       </c>
-      <c r="M41" s="4">
+      <c r="S41" s="4">
         <v>1674359</v>
       </c>
-      <c r="N41" s="4">
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4">
         <v>61738</v>
       </c>
-      <c r="O41" s="4">
+      <c r="W41" s="4">
         <v>58387</v>
       </c>
-      <c r="P41" s="4">
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4">
         <v>33985</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="AA41" s="4">
         <v>30492</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2931,38 +3400,48 @@
       <c r="G42" s="4">
         <v>138776</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4">
         <v>3639</v>
       </c>
-      <c r="I42" s="4">
+      <c r="K42" s="4">
         <v>3653</v>
       </c>
-      <c r="J42" s="4">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4">
         <v>2860</v>
       </c>
-      <c r="K42" s="4">
+      <c r="O42" s="4">
         <v>2308</v>
       </c>
-      <c r="L42" s="4">
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4">
         <v>1344730</v>
       </c>
-      <c r="M42" s="4">
+      <c r="S42" s="4">
         <v>1332653</v>
       </c>
-      <c r="N42" s="4">
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4">
         <v>54870</v>
       </c>
-      <c r="O42" s="4">
+      <c r="W42" s="4">
         <v>51959</v>
       </c>
-      <c r="P42" s="4">
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4">
         <v>30572</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="AA42" s="4">
         <v>27534</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2981,38 +3460,48 @@
       <c r="G43" s="4">
         <v>568361</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4">
         <v>17440</v>
       </c>
-      <c r="I43" s="4">
+      <c r="K43" s="4">
         <v>16851</v>
       </c>
-      <c r="J43" s="4">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4">
         <v>12590</v>
       </c>
-      <c r="K43" s="4">
+      <c r="O43" s="4">
         <v>10416</v>
       </c>
-      <c r="L43" s="4">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4">
         <v>4630005</v>
       </c>
-      <c r="M43" s="4">
+      <c r="S43" s="4">
         <v>4468862</v>
       </c>
-      <c r="N43" s="4">
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4">
         <v>186353</v>
       </c>
-      <c r="O43" s="4">
+      <c r="W43" s="4">
         <v>176461</v>
       </c>
-      <c r="P43" s="4">
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4">
         <v>103782</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="AA43" s="4">
         <v>94215</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -3031,38 +3520,48 @@
       <c r="G44" s="4">
         <v>471506</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4">
         <v>10872</v>
       </c>
-      <c r="I44" s="4">
+      <c r="K44" s="4">
         <v>10321</v>
       </c>
-      <c r="J44" s="4">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4">
         <v>8227</v>
       </c>
-      <c r="K44" s="4">
+      <c r="O44" s="4">
         <v>6640</v>
       </c>
-      <c r="L44" s="4">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4">
         <v>1970393</v>
       </c>
-      <c r="M44" s="4">
+      <c r="S44" s="4">
         <v>1996994</v>
       </c>
-      <c r="N44" s="4">
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4">
         <v>79143</v>
       </c>
-      <c r="O44" s="4">
+      <c r="W44" s="4">
         <v>74768</v>
       </c>
-      <c r="P44" s="4">
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4">
         <v>47406</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="AA44" s="4">
         <v>42054</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -3081,38 +3580,48 @@
       <c r="G45" s="4">
         <v>178438</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4">
         <v>4363</v>
       </c>
-      <c r="I45" s="4">
+      <c r="K45" s="4">
         <v>3938</v>
       </c>
-      <c r="J45" s="4">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4">
         <v>3172</v>
       </c>
-      <c r="K45" s="4">
+      <c r="O45" s="4">
         <v>2669</v>
       </c>
-      <c r="L45" s="4">
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4">
         <v>1770967</v>
       </c>
-      <c r="M45" s="4">
+      <c r="S45" s="4">
         <v>176853</v>
       </c>
-      <c r="N45" s="4">
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4">
         <v>70747</v>
       </c>
-      <c r="O45" s="4">
+      <c r="W45" s="4">
         <v>66748</v>
       </c>
-      <c r="P45" s="4">
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4">
         <v>41208</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="AA45" s="4">
         <v>37385</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3131,38 +3640,48 @@
       <c r="G46" s="4">
         <v>160935</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4">
         <v>8498</v>
       </c>
-      <c r="I46" s="4">
+      <c r="K46" s="4">
         <v>3240</v>
       </c>
-      <c r="J46" s="4">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4">
         <v>2568</v>
       </c>
-      <c r="K46" s="4">
+      <c r="O46" s="4">
         <v>2087</v>
       </c>
-      <c r="L46" s="4">
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4">
         <v>1780396</v>
       </c>
-      <c r="M46" s="4">
+      <c r="S46" s="4">
         <v>1813442</v>
       </c>
-      <c r="N46" s="4">
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4">
         <v>66497</v>
       </c>
-      <c r="O46" s="4">
+      <c r="W46" s="4">
         <v>62510</v>
       </c>
-      <c r="P46" s="4">
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4">
         <v>43248</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="AA46" s="4">
         <v>89311</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -3181,38 +3700,48 @@
       <c r="G47" s="4">
         <v>49692</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4">
         <v>1183</v>
       </c>
-      <c r="I47" s="4">
+      <c r="K47" s="4">
         <v>817</v>
       </c>
-      <c r="J47" s="4">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4">
         <v>636</v>
       </c>
-      <c r="K47" s="4">
+      <c r="O47" s="4">
         <v>523</v>
       </c>
-      <c r="L47" s="4">
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4">
         <v>440360</v>
       </c>
-      <c r="M47" s="4">
+      <c r="S47" s="4">
         <v>444334</v>
       </c>
-      <c r="N47" s="4">
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4">
         <v>12842</v>
       </c>
-      <c r="O47" s="4">
+      <c r="W47" s="4">
         <v>12135</v>
       </c>
-      <c r="P47" s="4">
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4">
         <v>7120</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="AA47" s="4">
         <v>6979</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -3231,38 +3760,48 @@
       <c r="G48" s="4">
         <v>845571</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4">
         <v>19918</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="K48" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J48" s="4">
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4">
         <v>14603</v>
       </c>
-      <c r="K48" s="4">
+      <c r="O48" s="4">
         <v>11819</v>
       </c>
-      <c r="L48" s="4">
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4">
         <v>5962116</v>
       </c>
-      <c r="M48" s="4">
+      <c r="S48" s="4">
         <v>6023305</v>
       </c>
-      <c r="N48" s="4">
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4">
         <v>229229</v>
       </c>
-      <c r="O48" s="4">
+      <c r="W48" s="4">
         <v>216161</v>
       </c>
-      <c r="P48" s="4">
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4">
         <v>138982</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="AA48" s="4">
         <v>125729</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -3281,38 +3820,48 @@
       <c r="G49" s="4">
         <v>137664</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4">
         <v>4067</v>
       </c>
-      <c r="I49" s="4">
+      <c r="K49" s="4">
         <v>3806</v>
       </c>
-      <c r="J49" s="4">
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4">
         <v>3794</v>
       </c>
-      <c r="K49" s="4">
+      <c r="O49" s="4">
         <v>3157</v>
       </c>
-      <c r="L49" s="4">
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4">
         <v>1088454</v>
       </c>
-      <c r="M49" s="4">
+      <c r="S49" s="4">
         <v>1102067</v>
       </c>
-      <c r="N49" s="4">
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4">
         <v>47792</v>
       </c>
-      <c r="O49" s="4">
+      <c r="W49" s="4">
         <v>44777</v>
       </c>
-      <c r="P49" s="4">
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4">
         <v>35696</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="AA49" s="4">
         <v>34040</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -3331,38 +3880,48 @@
       <c r="G50" s="4">
         <v>109459</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4">
         <v>4244</v>
       </c>
-      <c r="I50" s="4">
+      <c r="K50" s="4">
         <v>4216</v>
       </c>
-      <c r="J50" s="4">
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4">
         <v>3395</v>
       </c>
-      <c r="K50" s="4">
+      <c r="O50" s="4">
         <v>2728</v>
       </c>
-      <c r="L50" s="4">
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4">
         <v>1464120</v>
       </c>
-      <c r="M50" s="4">
+      <c r="S50" s="4">
         <v>1370919</v>
       </c>
-      <c r="N50" s="4">
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4">
         <v>60471</v>
       </c>
-      <c r="O50" s="4">
+      <c r="W50" s="4">
         <v>57692</v>
       </c>
-      <c r="P50" s="4">
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4">
         <v>36125</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="AA50" s="4">
         <v>30869</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -3381,38 +3940,48 @@
       <c r="G51" s="4">
         <v>53821</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4">
         <v>2381</v>
       </c>
-      <c r="I51" s="4">
+      <c r="K51" s="4">
         <v>2219</v>
       </c>
-      <c r="J51" s="4">
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4">
         <v>1876</v>
       </c>
-      <c r="K51" s="4">
+      <c r="O51" s="4">
         <v>1434</v>
       </c>
-      <c r="L51" s="4">
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4">
         <v>0</v>
       </c>
-      <c r="M51" s="4">
+      <c r="S51" s="4">
         <v>0</v>
       </c>
-      <c r="N51" s="4">
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4">
         <v>0</v>
       </c>
-      <c r="O51" s="4">
+      <c r="W51" s="4">
         <v>0</v>
       </c>
-      <c r="P51" s="4">
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4">
         <v>0</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="AA51" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -3431,38 +4000,48 @@
       <c r="G52" s="4">
         <v>325983</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4">
         <v>7309</v>
       </c>
-      <c r="I52" s="4">
+      <c r="K52" s="4">
         <v>6946</v>
       </c>
-      <c r="J52" s="4">
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4">
         <v>5778</v>
       </c>
-      <c r="K52" s="4">
+      <c r="O52" s="4">
         <v>4470</v>
       </c>
-      <c r="L52" s="4">
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4">
         <v>0</v>
       </c>
-      <c r="M52" s="4">
+      <c r="S52" s="4">
         <v>0</v>
       </c>
-      <c r="N52" s="4">
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4">
         <v>0</v>
       </c>
-      <c r="O52" s="4">
+      <c r="W52" s="4">
         <v>0</v>
       </c>
-      <c r="P52" s="4">
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4">
         <v>0</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="AA52" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -3481,38 +4060,48 @@
       <c r="G53" s="4">
         <v>166564</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4">
         <v>6652</v>
       </c>
-      <c r="I53" s="4">
+      <c r="K53" s="4">
         <v>6051</v>
       </c>
-      <c r="J53" s="4">
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4">
         <v>4640</v>
       </c>
-      <c r="K53" s="4">
+      <c r="O53" s="4">
         <v>3454</v>
       </c>
-      <c r="L53" s="4">
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4">
         <v>826813</v>
       </c>
-      <c r="M53" s="4">
+      <c r="S53" s="4">
         <v>788777</v>
       </c>
-      <c r="N53" s="4">
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4">
         <v>38476</v>
       </c>
-      <c r="O53" s="4">
+      <c r="W53" s="4">
         <v>36307</v>
       </c>
-      <c r="P53" s="4">
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4">
         <v>19664</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="AA53" s="4">
         <v>18170</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -3531,38 +4120,48 @@
       <c r="G54" s="4">
         <v>33419</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4">
         <v>1410</v>
       </c>
-      <c r="I54" s="4">
+      <c r="K54" s="4">
         <v>1338</v>
       </c>
-      <c r="J54" s="4">
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4">
         <v>999</v>
       </c>
-      <c r="K54" s="4">
+      <c r="O54" s="4">
         <v>774</v>
       </c>
-      <c r="L54" s="4">
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4">
         <v>0</v>
       </c>
-      <c r="M54" s="4">
+      <c r="S54" s="4">
         <v>0</v>
       </c>
-      <c r="N54" s="4">
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4">
         <v>0</v>
       </c>
-      <c r="O54" s="4">
+      <c r="W54" s="4">
         <v>0</v>
       </c>
-      <c r="P54" s="4">
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4">
         <v>0</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="AA54" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -3581,38 +4180,48 @@
       <c r="G55" s="4">
         <v>238172</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4">
         <v>8606</v>
       </c>
-      <c r="I55" s="4">
+      <c r="K55" s="4">
         <v>8112</v>
       </c>
-      <c r="J55" s="4">
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4">
         <v>5745</v>
       </c>
-      <c r="K55" s="4">
+      <c r="O55" s="4">
         <v>4334</v>
       </c>
-      <c r="L55" s="4">
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4">
         <v>1547391</v>
       </c>
-      <c r="M55" s="4">
+      <c r="S55" s="4">
         <v>1386170</v>
       </c>
-      <c r="N55" s="4">
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4">
         <v>74011</v>
       </c>
-      <c r="O55" s="4">
+      <c r="W55" s="4">
         <v>69643</v>
       </c>
-      <c r="P55" s="4">
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4">
         <v>37716</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="AA55" s="4">
         <v>31762</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -3631,38 +4240,48 @@
       <c r="G56" s="4">
         <v>192727</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4">
         <v>7076</v>
       </c>
-      <c r="I56" s="4">
+      <c r="K56" s="4">
         <v>6848</v>
       </c>
-      <c r="J56" s="4">
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4">
         <v>6182</v>
       </c>
-      <c r="K56" s="4">
+      <c r="O56" s="4">
         <v>3901</v>
       </c>
-      <c r="L56" s="4">
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4">
         <v>1667144</v>
       </c>
-      <c r="M56" s="4">
+      <c r="S56" s="4">
         <v>1614608</v>
       </c>
-      <c r="N56" s="4">
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4">
         <v>81253</v>
       </c>
-      <c r="O56" s="4">
+      <c r="W56" s="4">
         <v>77010</v>
       </c>
-      <c r="P56" s="4">
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4">
         <v>47770</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="AA56" s="4">
         <v>42285</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -3681,38 +4300,48 @@
       <c r="G57" s="4">
         <v>1247798</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4">
         <v>41634</v>
       </c>
-      <c r="I57" s="4">
+      <c r="K57" s="4">
         <v>39536</v>
       </c>
-      <c r="J57" s="4">
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4">
         <v>31309</v>
       </c>
-      <c r="K57" s="4">
+      <c r="O57" s="4">
         <v>24252</v>
       </c>
-      <c r="L57" s="4">
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4">
         <v>6583922</v>
       </c>
-      <c r="M57" s="4">
+      <c r="S57" s="4">
         <v>8262441</v>
       </c>
-      <c r="N57" s="4">
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4">
         <v>302003</v>
       </c>
-      <c r="O57" s="4">
+      <c r="W57" s="4">
         <v>285429</v>
       </c>
-      <c r="P57" s="4">
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4">
         <v>175971</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="AA57" s="4">
         <v>157126</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -3731,38 +4360,48 @@
       <c r="G58" s="4">
         <v>171899</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4">
         <v>4759</v>
       </c>
-      <c r="I58" s="4">
+      <c r="K58" s="4">
         <v>4059</v>
       </c>
-      <c r="J58" s="4">
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4">
         <v>2109</v>
       </c>
-      <c r="K58" s="4">
+      <c r="O58" s="4">
         <v>1839</v>
       </c>
-      <c r="L58" s="4">
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4">
         <v>782092</v>
       </c>
-      <c r="M58" s="4">
+      <c r="S58" s="4">
         <v>798818</v>
       </c>
-      <c r="N58" s="4">
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4">
         <v>28478</v>
       </c>
-      <c r="O58" s="4">
+      <c r="W58" s="4">
         <v>27300</v>
       </c>
-      <c r="P58" s="4">
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4">
         <v>16286</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="AA58" s="4">
         <v>14191</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -3781,38 +4420,48 @@
       <c r="G59" s="4">
         <v>89927</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4">
         <v>2889</v>
       </c>
-      <c r="I59" s="4">
+      <c r="K59" s="4">
         <v>2241</v>
       </c>
-      <c r="J59" s="4">
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4">
         <v>1823</v>
       </c>
-      <c r="K59" s="4">
+      <c r="O59" s="4">
         <v>1501</v>
       </c>
-      <c r="L59" s="4">
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4">
         <v>977853</v>
       </c>
-      <c r="M59" s="4">
+      <c r="S59" s="4">
         <v>982500</v>
       </c>
-      <c r="N59" s="4">
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4">
         <v>47334</v>
       </c>
-      <c r="O59" s="4">
+      <c r="W59" s="4">
         <v>44635</v>
       </c>
-      <c r="P59" s="4">
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4">
         <v>30319</v>
       </c>
-      <c r="Q59" s="4">
+      <c r="AA59" s="4">
         <v>26295</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -3831,38 +4480,48 @@
       <c r="G60" s="4">
         <v>139858</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4">
         <v>2819</v>
       </c>
-      <c r="I60" s="4">
+      <c r="K60" s="4">
         <v>2666</v>
       </c>
-      <c r="J60" s="4">
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4">
         <v>1938</v>
       </c>
-      <c r="K60" s="4">
+      <c r="O60" s="4">
         <v>1528</v>
       </c>
-      <c r="L60" s="4">
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4">
         <v>1058284</v>
       </c>
-      <c r="M60" s="4">
+      <c r="S60" s="4">
         <v>1049032</v>
       </c>
-      <c r="N60" s="4">
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4">
         <v>41496</v>
       </c>
-      <c r="O60" s="4">
+      <c r="W60" s="4">
         <v>39698</v>
       </c>
-      <c r="P60" s="4">
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4">
         <v>21686</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="AA60" s="4">
         <v>19482</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3881,38 +4540,48 @@
       <c r="G61" s="4">
         <v>129884</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4">
         <v>4580</v>
       </c>
-      <c r="I61" s="4">
+      <c r="K61" s="4">
         <v>4026</v>
       </c>
-      <c r="J61" s="4">
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4">
         <v>2687</v>
       </c>
-      <c r="K61" s="4">
+      <c r="O61" s="4">
         <v>2338</v>
       </c>
-      <c r="L61" s="4">
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4">
         <v>1366431</v>
       </c>
-      <c r="M61" s="4">
+      <c r="S61" s="4">
         <v>1363067</v>
       </c>
-      <c r="N61" s="4">
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4">
         <v>52316</v>
       </c>
-      <c r="O61" s="4">
+      <c r="W61" s="4">
         <v>48789</v>
       </c>
-      <c r="P61" s="4">
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4">
         <v>26886</v>
       </c>
-      <c r="Q61" s="4">
+      <c r="AA61" s="4">
         <v>23470</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -3931,38 +4600,48 @@
       <c r="G62" s="4">
         <v>531558</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4">
         <v>14527</v>
       </c>
-      <c r="I62" s="4">
+      <c r="K62" s="4">
         <v>12993</v>
       </c>
-      <c r="J62" s="4">
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4">
         <v>8547</v>
       </c>
-      <c r="K62" s="4">
+      <c r="O62" s="4">
         <v>7196</v>
       </c>
-      <c r="L62" s="4">
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4">
         <v>4184660</v>
       </c>
-      <c r="M62" s="4">
+      <c r="S62" s="4">
         <v>4138417</v>
       </c>
-      <c r="N62" s="4">
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4">
         <v>189624</v>
       </c>
-      <c r="O62" s="4">
+      <c r="W62" s="4">
         <v>160422</v>
       </c>
-      <c r="P62" s="4">
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4">
         <v>95179</v>
       </c>
-      <c r="Q62" s="4">
+      <c r="AA62" s="4">
         <v>83438</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -3981,38 +4660,48 @@
       <c r="G63" s="4">
         <v>152067</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4">
         <v>3536</v>
       </c>
-      <c r="I63" s="4">
+      <c r="K63" s="4">
         <v>2886</v>
       </c>
-      <c r="J63" s="4">
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4">
         <v>2263</v>
       </c>
-      <c r="K63" s="4">
+      <c r="O63" s="4">
         <v>1856</v>
       </c>
-      <c r="L63" s="4">
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4">
         <v>809846</v>
       </c>
-      <c r="M63" s="4">
+      <c r="S63" s="4">
         <v>797025</v>
       </c>
-      <c r="N63" s="4">
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4">
         <v>28064</v>
       </c>
-      <c r="O63" s="4">
+      <c r="W63" s="4">
         <v>26368</v>
       </c>
-      <c r="P63" s="4">
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4">
         <v>17060</v>
       </c>
-      <c r="Q63" s="4">
+      <c r="AA63" s="4">
         <v>15763</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -4031,38 +4720,48 @@
       <c r="G64" s="4">
         <v>145596</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4">
         <v>3930</v>
       </c>
-      <c r="I64" s="4">
+      <c r="K64" s="4">
         <v>3508</v>
       </c>
-      <c r="J64" s="4">
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4">
         <v>2968</v>
       </c>
-      <c r="K64" s="4">
+      <c r="O64" s="4">
         <v>2558</v>
       </c>
-      <c r="L64" s="4">
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4">
         <v>832616</v>
       </c>
-      <c r="M64" s="4">
+      <c r="S64" s="4">
         <v>841136</v>
       </c>
-      <c r="N64" s="4">
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4">
         <v>25748</v>
       </c>
-      <c r="O64" s="4">
+      <c r="W64" s="4">
         <v>24486</v>
       </c>
-      <c r="P64" s="4">
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4">
         <v>14882</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="AA64" s="4">
         <v>13087</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -4081,38 +4780,48 @@
       <c r="G65" s="4">
         <v>72698</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4">
         <v>1988</v>
       </c>
-      <c r="I65" s="4">
+      <c r="K65" s="4">
         <v>1821</v>
       </c>
-      <c r="J65" s="4">
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4">
         <v>1529</v>
       </c>
-      <c r="K65" s="4">
+      <c r="O65" s="4">
         <v>1286</v>
       </c>
-      <c r="L65" s="4">
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4">
         <v>807499</v>
       </c>
-      <c r="M65" s="4">
+      <c r="S65" s="4">
         <v>833168</v>
       </c>
-      <c r="N65" s="4">
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4">
         <v>22850</v>
       </c>
-      <c r="O65" s="4">
+      <c r="W65" s="4">
         <v>213421</v>
       </c>
-      <c r="P65" s="4">
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4">
         <v>15274</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="AA65" s="4">
         <v>14122</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -4131,38 +4840,48 @@
       <c r="G66" s="4">
         <v>370381</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4">
         <v>9454</v>
       </c>
-      <c r="I66" s="4">
+      <c r="K66" s="4">
         <v>8215</v>
       </c>
-      <c r="J66" s="4">
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4">
         <v>6755</v>
       </c>
-      <c r="K66" s="4">
+      <c r="O66" s="4">
         <v>5700</v>
       </c>
-      <c r="L66" s="4">
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4">
         <v>2449960</v>
       </c>
-      <c r="M66" s="4">
+      <c r="S66" s="4">
         <v>2471313</v>
       </c>
-      <c r="N66" s="4">
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4">
         <v>76671</v>
       </c>
-      <c r="O66" s="4">
+      <c r="W66" s="4">
         <v>72196</v>
       </c>
-      <c r="P66" s="4">
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4">
         <v>47216</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="AA66" s="4">
         <v>42972</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -4181,38 +4900,48 @@
       <c r="G67" s="4">
         <v>101962</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4">
         <v>2932</v>
       </c>
-      <c r="I67" s="4">
+      <c r="K67" s="4">
         <v>2717</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K67" s="4">
+      <c r="O67" s="4">
         <v>2093</v>
       </c>
-      <c r="L67" s="4">
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4">
         <v>286170</v>
       </c>
-      <c r="M67" s="4">
+      <c r="S67" s="4">
         <v>288189</v>
       </c>
-      <c r="N67" s="4">
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4">
         <v>6685</v>
       </c>
-      <c r="O67" s="4">
+      <c r="W67" s="4">
         <v>6922</v>
       </c>
-      <c r="P67" s="4">
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4">
         <v>4691</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="AA67" s="4">
         <v>4843</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -4231,38 +4960,48 @@
       <c r="G68" s="4">
         <v>225394</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4">
         <v>7338</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="K68" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J68" s="4">
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4">
         <v>6101</v>
       </c>
-      <c r="K68" s="4">
+      <c r="O68" s="4">
         <v>4834</v>
       </c>
-      <c r="L68" s="4">
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4">
         <v>492586</v>
       </c>
-      <c r="M68" s="4">
+      <c r="S68" s="4">
         <v>526444</v>
       </c>
-      <c r="N68" s="4">
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4">
         <v>9306</v>
       </c>
-      <c r="O68" s="4">
+      <c r="W68" s="4">
         <v>8624</v>
       </c>
-      <c r="P68" s="4">
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4">
         <v>7374</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="AA68" s="4">
         <v>6627</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -4281,38 +5020,48 @@
       <c r="G69" s="4">
         <v>50200</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4">
         <v>1690</v>
       </c>
-      <c r="I69" s="4">
+      <c r="K69" s="4">
         <v>1533</v>
       </c>
-      <c r="J69" s="4">
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4">
         <v>1606</v>
       </c>
-      <c r="K69" s="4">
+      <c r="O69" s="4">
         <v>1128</v>
       </c>
-      <c r="L69" s="4">
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4">
         <v>192400</v>
       </c>
-      <c r="M69" s="4">
+      <c r="S69" s="4">
         <v>199100</v>
       </c>
-      <c r="N69" s="4">
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4">
         <v>4298</v>
       </c>
-      <c r="O69" s="4">
+      <c r="W69" s="4">
         <v>4132</v>
       </c>
-      <c r="P69" s="4">
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4">
         <v>3363</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="AA69" s="4">
         <v>2992</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -4331,38 +5080,48 @@
       <c r="G70" s="4">
         <v>377555</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4">
         <v>11960</v>
       </c>
-      <c r="I70" s="4">
+      <c r="K70" s="4">
         <v>10910</v>
       </c>
-      <c r="J70" s="4">
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4">
         <v>10002</v>
       </c>
-      <c r="K70" s="4">
+      <c r="O70" s="4">
         <v>8055</v>
       </c>
-      <c r="L70" s="5">
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="5">
         <v>971158</v>
       </c>
-      <c r="M70" s="4">
+      <c r="S70" s="4">
         <v>1013733</v>
       </c>
-      <c r="N70" s="4">
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4">
         <v>28239</v>
       </c>
-      <c r="O70" s="4">
+      <c r="W70" s="4">
         <v>19678</v>
       </c>
-      <c r="P70" s="4">
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4">
         <v>15428</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="AA70" s="4">
         <v>14462</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -4381,38 +5140,48 @@
       <c r="G71" s="4">
         <v>8411138</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4">
         <v>282333</v>
       </c>
-      <c r="I71" s="4">
+      <c r="K71" s="4">
         <v>267015</v>
       </c>
-      <c r="J71" s="4">
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4">
         <v>225502</v>
       </c>
-      <c r="K71" s="4">
+      <c r="O71" s="4">
         <v>182257</v>
       </c>
-      <c r="L71" s="4">
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4">
         <v>54643834</v>
       </c>
-      <c r="M71" s="4">
+      <c r="S71" s="4">
         <v>55596362</v>
       </c>
-      <c r="N71" s="4">
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4">
         <v>2421328</v>
       </c>
-      <c r="O71" s="4">
+      <c r="W71" s="4">
         <v>2305380</v>
       </c>
-      <c r="P71" s="4">
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4">
         <v>1338415</v>
       </c>
-      <c r="Q71" s="4">
+      <c r="AA71" s="4">
         <v>1408022</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -4431,38 +5200,48 @@
       <c r="G72" s="4">
         <v>5321432</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4">
         <v>211085</v>
       </c>
-      <c r="I72" s="4">
+      <c r="K72" s="4">
         <v>201533</v>
       </c>
-      <c r="J72" s="4">
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4">
         <v>72948</v>
       </c>
-      <c r="K72" s="4">
+      <c r="O72" s="4">
         <v>139645</v>
       </c>
-      <c r="L72" s="4">
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4">
         <v>38612676</v>
       </c>
-      <c r="M72" s="4">
+      <c r="S72" s="4">
         <v>39903408</v>
       </c>
-      <c r="N72" s="4">
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4">
         <v>1805486</v>
       </c>
-      <c r="O72" s="4">
+      <c r="W72" s="4">
         <v>1721753</v>
       </c>
-      <c r="P72" s="4">
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4">
         <v>1168738</v>
       </c>
-      <c r="Q72" s="4">
+      <c r="AA72" s="4">
         <v>1073609</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -4481,38 +5260,48 @@
       <c r="G73" s="4">
         <v>1859571</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4">
         <v>51027</v>
       </c>
-      <c r="I73" s="4">
+      <c r="K73" s="4">
         <v>45907</v>
       </c>
-      <c r="J73" s="4">
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4">
         <v>36737</v>
       </c>
-      <c r="K73" s="4">
+      <c r="O73" s="4">
         <v>30133</v>
       </c>
-      <c r="L73" s="4">
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4">
         <v>12962498</v>
       </c>
-      <c r="M73" s="4">
+      <c r="S73" s="4">
         <v>13020379</v>
       </c>
-      <c r="N73" s="4">
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4">
         <v>501478</v>
       </c>
-      <c r="O73" s="4">
+      <c r="W73" s="4">
         <v>475404</v>
       </c>
-      <c r="P73" s="4">
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4">
         <v>299359</v>
       </c>
-      <c r="Q73" s="4">
+      <c r="AA73" s="4">
         <v>270687</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -4531,38 +5320,48 @@
       <c r="G74" s="4">
         <v>109900</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
       <c r="J74" s="4" t="s">
         <v>123</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L74" s="4">
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4">
         <v>804000</v>
       </c>
-      <c r="M74" s="4">
+      <c r="S74" s="4">
         <v>781400</v>
       </c>
-      <c r="N74" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O74" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="P74" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q74" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA74" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -4581,38 +5380,48 @@
       <c r="G75" s="4">
         <v>437973</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4">
         <v>11817</v>
       </c>
-      <c r="I75" s="4">
+      <c r="K75" s="4">
         <v>11048</v>
       </c>
-      <c r="J75" s="4">
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4">
         <v>8722</v>
       </c>
-      <c r="K75" s="4">
+      <c r="O75" s="4">
         <v>7840</v>
       </c>
-      <c r="L75" s="4">
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4">
         <v>0</v>
       </c>
-      <c r="M75" s="4">
+      <c r="S75" s="4">
         <v>0</v>
       </c>
-      <c r="N75" s="4">
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4">
         <v>0</v>
       </c>
-      <c r="O75" s="4">
+      <c r="W75" s="4">
         <v>0</v>
       </c>
-      <c r="P75" s="4">
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4">
         <v>0</v>
       </c>
-      <c r="Q75" s="4">
+      <c r="AA75" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -4631,38 +5440,48 @@
       <c r="G76" s="4">
         <v>96200</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
       <c r="J76" s="4" t="s">
         <v>123</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L76" s="4">
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4">
         <v>646600</v>
       </c>
-      <c r="M76" s="4">
+      <c r="S76" s="4">
         <v>566900</v>
       </c>
-      <c r="N76" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O76" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="P76" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q76" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA76" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -4681,38 +5500,48 @@
       <c r="G77" s="4">
         <v>40800</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
         <v>123</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L77" s="4">
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4">
         <v>460600</v>
       </c>
-      <c r="M77" s="4">
+      <c r="S77" s="4">
         <v>486800</v>
       </c>
-      <c r="N77" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O77" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="P77" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q77" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA77" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -4731,38 +5560,48 @@
       <c r="G78" s="4">
         <v>47200</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
         <v>123</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L78" s="4">
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4">
         <v>359200</v>
       </c>
-      <c r="M78" s="4">
+      <c r="S78" s="4">
         <v>341800</v>
       </c>
-      <c r="N78" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O78" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="P78" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q78" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA78" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -4781,38 +5620,48 @@
       <c r="G79" s="4">
         <v>98903</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4">
         <v>2774</v>
       </c>
-      <c r="I79" s="4">
+      <c r="K79" s="4">
         <v>2679</v>
       </c>
-      <c r="J79" s="4">
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4">
         <v>1997</v>
       </c>
-      <c r="K79" s="4">
+      <c r="O79" s="4">
         <v>1791</v>
       </c>
-      <c r="L79" s="4">
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4">
         <v>718641</v>
       </c>
-      <c r="M79" s="4">
+      <c r="S79" s="4">
         <v>721213</v>
       </c>
-      <c r="N79" s="4">
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4">
         <v>20893</v>
       </c>
-      <c r="O79" s="4">
+      <c r="W79" s="4">
         <v>19887</v>
       </c>
-      <c r="P79" s="4">
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4">
         <v>11345</v>
       </c>
-      <c r="Q79" s="4">
+      <c r="AA79" s="4">
         <v>10516</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -4831,38 +5680,48 @@
       <c r="G80" s="4">
         <v>411300</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
       <c r="J80" s="4" t="s">
         <v>123</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L80" s="4">
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4">
         <v>610100</v>
       </c>
-      <c r="M80" s="4">
+      <c r="S80" s="4">
         <v>613500</v>
       </c>
-      <c r="N80" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="P80" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q80" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA80" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -4881,38 +5740,48 @@
       <c r="G81" s="4">
         <v>47826</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4">
         <v>1149</v>
       </c>
-      <c r="I81" s="4">
+      <c r="K81" s="4">
         <v>990</v>
       </c>
-      <c r="J81" s="4">
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4">
         <v>852</v>
       </c>
-      <c r="K81" s="4">
+      <c r="O81" s="4">
         <v>771</v>
       </c>
-      <c r="L81" s="4">
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4">
         <v>344777</v>
       </c>
-      <c r="M81" s="4">
+      <c r="S81" s="4">
         <v>349782</v>
       </c>
-      <c r="N81" s="4">
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4">
         <v>9220</v>
       </c>
-      <c r="O81" s="4">
+      <c r="W81" s="4">
         <v>9210</v>
       </c>
-      <c r="P81" s="4">
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4">
         <v>6760</v>
       </c>
-      <c r="Q81" s="4">
+      <c r="AA81" s="4">
         <v>5625</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -4931,38 +5800,48 @@
       <c r="G82" s="4">
         <v>52962</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4">
         <v>1860</v>
       </c>
-      <c r="I82" s="4">
+      <c r="K82" s="4">
         <v>1715</v>
       </c>
-      <c r="J82" s="4">
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4">
         <v>1199</v>
       </c>
-      <c r="K82" s="4">
+      <c r="O82" s="4">
         <v>1089</v>
       </c>
-      <c r="L82" s="4">
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4">
         <v>596465</v>
       </c>
-      <c r="M82" s="4">
+      <c r="S82" s="4">
         <v>587599</v>
       </c>
-      <c r="N82" s="4">
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4">
         <v>19588</v>
       </c>
-      <c r="O82" s="4">
+      <c r="W82" s="4">
         <v>18602</v>
       </c>
-      <c r="P82" s="4">
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4">
         <v>10704</v>
       </c>
-      <c r="Q82" s="4">
+      <c r="AA82" s="4">
         <v>10038</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -4981,38 +5860,48 @@
       <c r="G83" s="4">
         <v>34687</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4">
         <v>564</v>
       </c>
-      <c r="I83" s="4">
+      <c r="K83" s="4">
         <v>534</v>
       </c>
-      <c r="J83" s="4">
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4">
         <v>406</v>
       </c>
-      <c r="K83" s="4">
+      <c r="O83" s="4">
         <v>344</v>
       </c>
-      <c r="L83" s="4">
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4">
         <v>282421</v>
       </c>
-      <c r="M83" s="4">
+      <c r="S83" s="4">
         <v>300405</v>
       </c>
-      <c r="N83" s="4">
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4">
         <v>7336</v>
       </c>
-      <c r="O83" s="4">
+      <c r="W83" s="4">
         <v>7160</v>
       </c>
-      <c r="P83" s="4">
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4">
         <v>5029</v>
       </c>
-      <c r="Q83" s="4">
+      <c r="AA83" s="4">
         <v>4970</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -5031,38 +5920,48 @@
       <c r="G84" s="4">
         <v>1375551</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4">
         <v>18164</v>
       </c>
-      <c r="I84" s="4">
+      <c r="K84" s="4">
         <v>18961</v>
       </c>
-      <c r="J84" s="4">
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4">
         <v>13175</v>
       </c>
-      <c r="K84" s="4">
+      <c r="O84" s="4">
         <v>11835</v>
       </c>
-      <c r="L84" s="4">
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4">
         <v>4720804</v>
       </c>
-      <c r="M84" s="4">
+      <c r="S84" s="4">
         <v>4719199</v>
       </c>
-      <c r="N84" s="4">
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4">
         <v>57037</v>
       </c>
-      <c r="O84" s="4">
+      <c r="W84" s="4">
         <v>54869</v>
       </c>
-      <c r="P84" s="4">
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4">
         <v>32828</v>
       </c>
-      <c r="Q84" s="4">
+      <c r="AA84" s="4">
         <v>31149</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -5081,38 +5980,48 @@
       <c r="G85" s="4">
         <v>9786789</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4">
         <v>300497</v>
       </c>
-      <c r="I85" s="4">
+      <c r="K85" s="4">
         <v>283976</v>
       </c>
-      <c r="J85" s="4">
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4">
         <v>238875</v>
       </c>
-      <c r="K85" s="4">
+      <c r="O85" s="4">
         <v>194092</v>
       </c>
-      <c r="L85" s="4">
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4">
         <v>59364638</v>
       </c>
-      <c r="M85" s="4">
+      <c r="S85" s="4">
         <v>50315581</v>
       </c>
-      <c r="N85" s="4">
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4">
         <v>2478365</v>
       </c>
-      <c r="O85" s="4">
+      <c r="W85" s="4">
         <v>2350839</v>
       </c>
-      <c r="P85" s="4">
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4">
         <v>1571243</v>
       </c>
-      <c r="Q85" s="4">
+      <c r="AA85" s="4">
         <v>1439171</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -5131,38 +6040,48 @@
       <c r="G86" s="4">
         <v>4400</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4">
         <v>739</v>
       </c>
-      <c r="I86" s="4">
+      <c r="K86" s="4">
         <v>571</v>
       </c>
-      <c r="J86" s="4">
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4">
         <v>543</v>
       </c>
-      <c r="K86" s="4">
+      <c r="O86" s="4">
         <v>380</v>
       </c>
-      <c r="L86" s="4">
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4">
         <v>393016</v>
       </c>
-      <c r="M86" s="4">
+      <c r="S86" s="4">
         <v>334646</v>
       </c>
-      <c r="N86" s="4">
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4">
         <v>10849</v>
       </c>
-      <c r="O86" s="4">
+      <c r="W86" s="4">
         <v>9357</v>
       </c>
-      <c r="P86" s="4">
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4">
         <v>7933</v>
       </c>
-      <c r="Q86" s="4">
+      <c r="AA86" s="4">
         <v>6541</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>125</v>
       </c>
@@ -5181,38 +6100,48 @@
       <c r="G87" s="4">
         <v>163475</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4">
         <v>5781</v>
       </c>
-      <c r="I87" s="4">
+      <c r="K87" s="4">
         <v>5621</v>
       </c>
-      <c r="J87" s="4">
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4">
         <v>2800</v>
       </c>
-      <c r="K87" s="4">
+      <c r="O87" s="4">
         <v>2224</v>
       </c>
-      <c r="L87" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M87" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N87" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O87" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="P87" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q87" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA87" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -5231,38 +6160,48 @@
       <c r="G88" s="4">
         <v>19481</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4">
         <v>626</v>
       </c>
-      <c r="I88" s="4">
+      <c r="K88" s="4">
         <v>559</v>
       </c>
-      <c r="J88" s="4">
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4">
         <v>434</v>
       </c>
-      <c r="K88" s="4">
+      <c r="O88" s="4">
         <v>267</v>
       </c>
-      <c r="L88" s="4">
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4">
         <v>69284</v>
       </c>
-      <c r="M88" s="4">
+      <c r="S88" s="4">
         <v>60633</v>
       </c>
-      <c r="N88" s="4">
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4">
         <v>1882</v>
       </c>
-      <c r="O88" s="4">
+      <c r="W88" s="4">
         <v>1635</v>
       </c>
-      <c r="P88" s="4">
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4">
         <v>757</v>
       </c>
-      <c r="Q88" s="4">
+      <c r="AA88" s="4">
         <v>630</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -5281,38 +6220,48 @@
       <c r="G89" s="4">
         <v>23889</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4">
         <v>890</v>
       </c>
-      <c r="I89" s="4">
+      <c r="K89" s="4">
         <v>717</v>
       </c>
-      <c r="J89" s="4">
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4">
         <v>728</v>
       </c>
-      <c r="K89" s="4">
+      <c r="O89" s="4">
         <v>461</v>
       </c>
-      <c r="L89" s="4">
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4">
         <v>317696</v>
       </c>
-      <c r="M89" s="4">
+      <c r="S89" s="4">
         <v>310690</v>
       </c>
-      <c r="N89" s="4">
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4">
         <v>8000</v>
       </c>
-      <c r="O89" s="4">
+      <c r="W89" s="4">
         <v>7649</v>
       </c>
-      <c r="P89" s="4">
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4">
         <v>6044</v>
       </c>
-      <c r="Q89" s="4">
+      <c r="AA89" s="4">
         <v>6814</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -5331,38 +6280,48 @@
       <c r="G90" s="4">
         <v>72521</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4">
         <v>1273</v>
       </c>
-      <c r="I90" s="4">
+      <c r="K90" s="4">
         <v>1227</v>
       </c>
-      <c r="J90" s="4">
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4">
         <v>987</v>
       </c>
-      <c r="K90" s="4">
+      <c r="O90" s="4">
         <v>882</v>
       </c>
-      <c r="L90" s="4">
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4">
         <v>680716</v>
       </c>
-      <c r="M90" s="4">
+      <c r="S90" s="4">
         <v>624178</v>
       </c>
-      <c r="N90" s="4">
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4">
         <v>12789</v>
       </c>
-      <c r="O90" s="4">
+      <c r="W90" s="4">
         <v>9724</v>
       </c>
-      <c r="P90" s="4">
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4">
         <v>7528</v>
       </c>
-      <c r="Q90" s="4">
+      <c r="AA90" s="4">
         <v>7066</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -5381,38 +6340,48 @@
       <c r="G91" s="4">
         <v>21200</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
       <c r="J91" s="4" t="s">
         <v>123</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L91" s="4">
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4">
         <v>183200</v>
       </c>
-      <c r="M91" s="4">
+      <c r="S91" s="4">
         <v>160400</v>
       </c>
-      <c r="N91" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O91" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="P91" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q91" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA91" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -5431,38 +6400,48 @@
       <c r="G92" s="4">
         <v>119900</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4">
         <v>4648</v>
       </c>
-      <c r="I92" s="4">
+      <c r="K92" s="4">
         <v>4381</v>
       </c>
-      <c r="J92" s="4">
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4">
         <v>3728</v>
       </c>
-      <c r="K92" s="4">
+      <c r="O92" s="4">
         <v>2801</v>
       </c>
-      <c r="L92" s="4">
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4">
         <v>1352200</v>
       </c>
-      <c r="M92" s="4">
+      <c r="S92" s="4">
         <v>1314800</v>
       </c>
-      <c r="N92" s="4">
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4">
         <v>74442</v>
       </c>
-      <c r="O92" s="4">
+      <c r="W92" s="4">
         <v>69620</v>
       </c>
-      <c r="P92" s="4">
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4">
         <v>38868</v>
       </c>
-      <c r="Q92" s="4">
+      <c r="AA92" s="4">
         <v>35777</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -5481,38 +6460,48 @@
       <c r="G93" s="4">
         <v>43720</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4">
         <v>1102</v>
       </c>
-      <c r="I93" s="4">
+      <c r="K93" s="4">
         <v>1057</v>
       </c>
-      <c r="J93" s="4">
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4">
         <v>801</v>
       </c>
-      <c r="K93" s="4">
+      <c r="O93" s="4">
         <v>670</v>
       </c>
-      <c r="L93" s="4">
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4">
         <v>687133</v>
       </c>
-      <c r="M93" s="4">
+      <c r="S93" s="4">
         <v>604511</v>
       </c>
-      <c r="N93" s="4">
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4">
         <v>13124</v>
       </c>
-      <c r="O93" s="4">
+      <c r="W93" s="4">
         <v>12668</v>
       </c>
-      <c r="P93" s="4">
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4">
         <v>6759</v>
       </c>
-      <c r="Q93" s="4">
+      <c r="AA93" s="4">
         <v>6182</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -5531,38 +6520,48 @@
       <c r="G94" s="4">
         <v>34369</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4">
         <v>1260</v>
       </c>
-      <c r="I94" s="4">
+      <c r="K94" s="4">
         <v>1171</v>
       </c>
-      <c r="J94" s="4">
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4">
         <v>912</v>
       </c>
-      <c r="K94" s="4">
+      <c r="O94" s="4">
         <v>744</v>
       </c>
-      <c r="L94" s="4">
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4">
         <v>616293</v>
       </c>
-      <c r="M94" s="4">
+      <c r="S94" s="4">
         <v>693258</v>
       </c>
-      <c r="N94" s="4">
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4">
         <v>85853</v>
       </c>
-      <c r="O94" s="4">
+      <c r="W94" s="4">
         <v>33834</v>
       </c>
-      <c r="P94" s="4">
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4">
         <v>19695</v>
       </c>
-      <c r="Q94" s="4">
+      <c r="AA94" s="4">
         <v>17826</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -5581,38 +6580,48 @@
       <c r="G95" s="4">
         <v>96232</v>
       </c>
-      <c r="H95" s="4">
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4">
         <v>3984</v>
       </c>
-      <c r="I95" s="4">
+      <c r="K95" s="4">
         <v>3897</v>
       </c>
-      <c r="J95" s="4">
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4">
         <v>2693</v>
       </c>
-      <c r="K95" s="4">
+      <c r="O95" s="4">
         <v>2218</v>
       </c>
-      <c r="L95" s="4">
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4">
         <v>634730</v>
       </c>
-      <c r="M95" s="4">
+      <c r="S95" s="4">
         <v>492578</v>
       </c>
-      <c r="N95" s="4">
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4">
         <v>24088</v>
       </c>
-      <c r="O95" s="4">
+      <c r="W95" s="4">
         <v>23495</v>
       </c>
-      <c r="P95" s="4">
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4">
         <v>12691</v>
       </c>
-      <c r="Q95" s="4">
+      <c r="AA95" s="4">
         <v>11442</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -5631,38 +6640,48 @@
       <c r="G96" s="4">
         <v>207807</v>
       </c>
-      <c r="H96" s="4">
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4">
         <v>3534</v>
       </c>
-      <c r="I96" s="4">
+      <c r="K96" s="4">
         <v>3213</v>
       </c>
-      <c r="J96" s="4">
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4">
         <v>2853</v>
       </c>
-      <c r="K96" s="4">
+      <c r="O96" s="4">
         <v>2261</v>
       </c>
-      <c r="L96" s="4">
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4">
         <v>658707</v>
       </c>
-      <c r="M96" s="4">
+      <c r="S96" s="4">
         <v>482536</v>
       </c>
-      <c r="N96" s="4">
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4">
         <v>22203</v>
       </c>
-      <c r="O96" s="4">
+      <c r="W96" s="4">
         <v>17778</v>
       </c>
-      <c r="P96" s="4">
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4">
         <v>11756</v>
       </c>
-      <c r="Q96" s="4">
+      <c r="AA96" s="4">
         <v>10273</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -5681,38 +6700,48 @@
       <c r="G97" s="4">
         <v>35501</v>
       </c>
-      <c r="H97" s="4">
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4">
         <v>1141</v>
       </c>
-      <c r="I97" s="4">
+      <c r="K97" s="4">
         <v>3107</v>
       </c>
-      <c r="J97" s="4">
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4">
         <v>956</v>
       </c>
-      <c r="K97" s="4">
+      <c r="O97" s="4">
         <v>621</v>
       </c>
-      <c r="L97" s="4">
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4">
         <v>61194</v>
       </c>
-      <c r="M97" s="4">
+      <c r="S97" s="4">
         <v>36575</v>
       </c>
-      <c r="N97" s="4">
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4">
         <v>1747</v>
       </c>
-      <c r="O97" s="4">
+      <c r="W97" s="4">
         <v>1600</v>
       </c>
-      <c r="P97" s="4">
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4">
         <v>725</v>
       </c>
-      <c r="Q97" s="4">
+      <c r="AA97" s="4">
         <v>617</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -5731,38 +6760,48 @@
       <c r="G98" s="4">
         <v>39040</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4">
         <v>1331</v>
       </c>
-      <c r="I98" s="4">
+      <c r="K98" s="4">
         <v>1267</v>
       </c>
-      <c r="J98" s="4">
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4">
         <v>1045</v>
       </c>
-      <c r="K98" s="4">
+      <c r="O98" s="4">
         <v>841</v>
       </c>
-      <c r="L98" s="4">
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4">
         <v>438798</v>
       </c>
-      <c r="M98" s="4">
+      <c r="S98" s="4">
         <v>387621</v>
       </c>
-      <c r="N98" s="4">
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4">
         <v>17797</v>
       </c>
-      <c r="O98" s="4">
+      <c r="W98" s="4">
         <v>15561</v>
       </c>
-      <c r="P98" s="4">
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4">
         <v>8942</v>
       </c>
-      <c r="Q98" s="4">
+      <c r="AA98" s="4">
         <v>7941</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -5781,38 +6820,48 @@
       <c r="G99" s="4">
         <v>926235</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4">
         <v>20209</v>
       </c>
-      <c r="I99" s="4">
+      <c r="K99" s="4">
         <v>24788</v>
       </c>
-      <c r="J99" s="4">
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4">
         <v>18480</v>
       </c>
-      <c r="K99" s="4">
+      <c r="O99" s="4">
         <v>14110</v>
       </c>
-      <c r="L99" s="4">
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4">
         <v>5880966</v>
       </c>
-      <c r="M99" s="4">
+      <c r="S99" s="4">
         <v>5201420</v>
       </c>
-      <c r="N99" s="4">
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4">
         <v>222774</v>
       </c>
-      <c r="O99" s="4">
+      <c r="W99" s="4">
         <v>201811</v>
       </c>
-      <c r="P99" s="4">
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4">
         <v>121888</v>
       </c>
-      <c r="Q99" s="4">
+      <c r="AA99" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -5831,38 +6880,48 @@
       <c r="G100" s="4">
         <v>29083</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4">
         <v>1589</v>
       </c>
-      <c r="I100" s="4">
+      <c r="K100" s="4">
         <v>1541</v>
       </c>
-      <c r="J100" s="4">
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4">
         <v>969</v>
       </c>
-      <c r="K100" s="4">
+      <c r="O100" s="4">
         <v>705</v>
       </c>
-      <c r="L100" s="4">
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4">
         <v>148069</v>
       </c>
-      <c r="M100" s="4">
+      <c r="S100" s="4">
         <v>98072</v>
       </c>
-      <c r="N100" s="4">
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4">
         <v>5121</v>
       </c>
-      <c r="O100" s="4">
+      <c r="W100" s="4">
         <v>4490</v>
       </c>
-      <c r="P100" s="4">
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4">
         <v>2106</v>
       </c>
-      <c r="Q100" s="4">
+      <c r="AA100" s="4">
         <v>1604</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -5881,38 +6940,48 @@
       <c r="G101" s="4">
         <v>68729</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4">
         <v>2686</v>
       </c>
-      <c r="I101" s="4">
+      <c r="K101" s="4">
         <v>2628</v>
       </c>
-      <c r="J101" s="4">
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4">
         <v>2182</v>
       </c>
-      <c r="K101" s="4">
+      <c r="O101" s="4">
         <v>1693</v>
       </c>
-      <c r="L101" s="4">
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4">
         <v>503570</v>
       </c>
-      <c r="M101" s="4">
+      <c r="S101" s="4">
         <v>468406</v>
       </c>
-      <c r="N101" s="4">
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4">
         <v>27660</v>
       </c>
-      <c r="O101" s="4">
+      <c r="W101" s="4">
         <v>26306</v>
       </c>
-      <c r="P101" s="4">
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4">
         <v>18399</v>
       </c>
-      <c r="Q101" s="4">
+      <c r="AA101" s="4">
         <v>16246</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -5931,38 +7000,48 @@
       <c r="G102" s="4">
         <v>56286</v>
       </c>
-      <c r="H102" s="4">
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4">
         <v>2202</v>
       </c>
-      <c r="I102" s="4">
+      <c r="K102" s="4">
         <v>1981</v>
       </c>
-      <c r="J102" s="4">
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4">
         <v>1484</v>
       </c>
-      <c r="K102" s="4">
+      <c r="O102" s="4">
         <v>1150</v>
       </c>
-      <c r="L102" s="4">
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4">
         <v>404502</v>
       </c>
-      <c r="M102" s="4">
+      <c r="S102" s="4">
         <v>380267</v>
       </c>
-      <c r="N102" s="4">
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4">
         <v>16093</v>
       </c>
-      <c r="O102" s="4">
+      <c r="W102" s="4">
         <v>14854</v>
       </c>
-      <c r="P102" s="4">
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4">
         <v>9974</v>
       </c>
-      <c r="Q102" s="4">
+      <c r="AA102" s="4">
         <v>9011</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -5981,38 +7060,48 @@
       <c r="G103" s="4">
         <v>63172</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4">
         <v>2571</v>
       </c>
-      <c r="I103" s="4">
+      <c r="K103" s="4">
         <v>2711</v>
       </c>
-      <c r="J103" s="4">
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4">
         <v>1102</v>
       </c>
-      <c r="K103" s="4">
+      <c r="O103" s="4">
         <v>1550</v>
       </c>
-      <c r="L103" s="4">
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4">
         <v>320473</v>
       </c>
-      <c r="M103" s="4">
+      <c r="S103" s="4">
         <v>277354</v>
       </c>
-      <c r="N103" s="4">
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4">
         <v>13209</v>
       </c>
-      <c r="O103" s="4">
+      <c r="W103" s="4">
         <v>12183</v>
       </c>
-      <c r="P103" s="4">
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4">
         <v>8940</v>
       </c>
-      <c r="Q103" s="4">
+      <c r="AA103" s="4">
         <v>7614</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -6031,38 +7120,48 @@
       <c r="G104" s="4">
         <v>1400</v>
       </c>
-      <c r="H104" s="4">
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4">
         <v>90</v>
       </c>
-      <c r="I104" s="4">
+      <c r="K104" s="4">
         <v>94</v>
       </c>
-      <c r="J104" s="4">
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4">
         <v>92</v>
       </c>
-      <c r="K104" s="4">
+      <c r="O104" s="4">
         <v>64</v>
       </c>
-      <c r="L104" s="4">
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4">
         <v>19100</v>
       </c>
-      <c r="M104" s="4">
+      <c r="S104" s="4">
         <v>17500</v>
       </c>
-      <c r="N104" s="4">
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4">
         <v>317</v>
       </c>
-      <c r="O104" s="4">
+      <c r="W104" s="4">
         <v>306</v>
       </c>
-      <c r="P104" s="4">
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4">
         <v>240</v>
       </c>
-      <c r="Q104" s="4">
+      <c r="AA104" s="4">
         <v>226</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -6081,38 +7180,48 @@
       <c r="G105" s="4">
         <v>62863</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4">
         <v>2796</v>
       </c>
-      <c r="I105" s="4">
+      <c r="K105" s="4">
         <v>2544</v>
       </c>
-      <c r="J105" s="4">
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4">
         <v>2032</v>
       </c>
-      <c r="K105" s="4">
+      <c r="O105" s="4">
         <v>1120</v>
       </c>
-      <c r="L105" s="4">
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4">
         <v>231017</v>
       </c>
-      <c r="M105" s="4">
+      <c r="S105" s="4">
         <v>176678</v>
       </c>
-      <c r="N105" s="4">
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4">
         <v>8157</v>
       </c>
-      <c r="O105" s="4">
+      <c r="W105" s="4">
         <v>6930</v>
       </c>
-      <c r="P105" s="4">
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4">
         <v>3447</v>
       </c>
-      <c r="Q105" s="4">
+      <c r="AA105" s="4">
         <v>2992</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -6131,38 +7240,48 @@
       <c r="G106" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H106" s="4" t="s">
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I106" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="K106" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L106" s="4">
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O106" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4">
         <v>3383</v>
       </c>
-      <c r="M106" s="4">
+      <c r="S106" s="4">
         <v>2210</v>
       </c>
-      <c r="N106" s="4">
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4">
         <v>112</v>
       </c>
-      <c r="O106" s="4">
+      <c r="W106" s="4">
         <v>102</v>
       </c>
-      <c r="P106" s="4">
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4">
         <v>118</v>
       </c>
-      <c r="Q106" s="4">
+      <c r="AA106" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -6181,38 +7300,48 @@
       <c r="G107" s="4">
         <v>67014</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4">
         <v>2405</v>
       </c>
-      <c r="I107" s="4">
+      <c r="K107" s="4">
         <v>2873</v>
       </c>
-      <c r="J107" s="4">
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4">
         <v>2425</v>
       </c>
-      <c r="K107" s="4">
+      <c r="O107" s="4">
         <v>1972</v>
       </c>
-      <c r="L107" s="4">
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4">
         <v>982669</v>
       </c>
-      <c r="M107" s="4">
+      <c r="S107" s="4">
         <v>977768</v>
       </c>
-      <c r="N107" s="4">
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4">
         <v>56449</v>
       </c>
-      <c r="O107" s="4">
+      <c r="W107" s="4">
         <v>52688</v>
       </c>
-      <c r="P107" s="4">
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="4">
         <v>40460</v>
       </c>
-      <c r="Q107" s="4">
+      <c r="AA107" s="4">
         <v>37324</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -6231,38 +7360,48 @@
       <c r="G108" s="4">
         <v>116614</v>
       </c>
-      <c r="H108" s="4">
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4">
         <v>4949</v>
       </c>
-      <c r="I108" s="4">
+      <c r="K108" s="4">
         <v>4700</v>
       </c>
-      <c r="J108" s="4">
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4">
         <v>3309</v>
       </c>
-      <c r="K108" s="4">
+      <c r="O108" s="4">
         <v>2929</v>
       </c>
-      <c r="L108" s="4">
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4">
         <v>1990447</v>
       </c>
-      <c r="M108" s="4">
+      <c r="S108" s="4">
         <v>1951346</v>
       </c>
-      <c r="N108" s="4">
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4">
         <v>106507</v>
       </c>
-      <c r="O108" s="4">
+      <c r="W108" s="4">
         <v>107979</v>
       </c>
-      <c r="P108" s="4">
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4">
         <v>65033</v>
       </c>
-      <c r="Q108" s="4">
+      <c r="AA108" s="4">
         <v>65040</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -6281,38 +7420,48 @@
       <c r="G109" s="4">
         <v>5141</v>
       </c>
-      <c r="H109" s="4">
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4">
         <v>373</v>
       </c>
-      <c r="I109" s="4">
+      <c r="K109" s="4">
         <v>336</v>
       </c>
-      <c r="J109" s="4">
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4">
         <v>306</v>
       </c>
-      <c r="K109" s="4">
+      <c r="O109" s="4">
         <v>232</v>
       </c>
-      <c r="L109" s="4">
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4">
         <v>136746</v>
       </c>
-      <c r="M109" s="4">
+      <c r="S109" s="4">
         <v>131876</v>
       </c>
-      <c r="N109" s="4">
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4">
         <v>3088</v>
       </c>
-      <c r="O109" s="4">
+      <c r="W109" s="4">
         <v>2935</v>
       </c>
-      <c r="P109" s="4">
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4">
         <v>2606</v>
       </c>
-      <c r="Q109" s="4">
+      <c r="AA109" s="4">
         <v>2331</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -6331,38 +7480,48 @@
       <c r="G110" s="4">
         <v>470302</v>
       </c>
-      <c r="H110" s="4">
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4">
         <v>19000</v>
       </c>
-      <c r="I110" s="4">
+      <c r="K110" s="4">
         <v>18803</v>
       </c>
-      <c r="J110" s="4">
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4">
         <v>15001</v>
       </c>
-      <c r="K110" s="4">
+      <c r="O110" s="4">
         <v>11415</v>
       </c>
-      <c r="L110" s="4">
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4">
         <v>4739876</v>
       </c>
-      <c r="M110" s="4">
+      <c r="S110" s="4">
         <v>4481475</v>
       </c>
-      <c r="N110" s="4">
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4">
         <v>235703</v>
       </c>
-      <c r="O110" s="4">
+      <c r="W110" s="4">
         <v>228772</v>
       </c>
-      <c r="P110" s="4">
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4">
         <v>51225</v>
       </c>
-      <c r="Q110" s="4">
+      <c r="AA110" s="4">
         <v>142421</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -6381,38 +7540,48 @@
       <c r="G111" s="4">
         <v>102456</v>
       </c>
-      <c r="H111" s="4">
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4">
         <v>3693</v>
       </c>
-      <c r="I111" s="4">
+      <c r="K111" s="4">
         <v>3624</v>
       </c>
-      <c r="J111" s="4">
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4">
         <v>2537</v>
       </c>
-      <c r="K111" s="4">
+      <c r="O111" s="4">
         <v>2514</v>
       </c>
-      <c r="L111" s="4">
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4">
         <v>683192</v>
       </c>
-      <c r="M111" s="4">
+      <c r="S111" s="4">
         <v>638006</v>
       </c>
-      <c r="N111" s="4">
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4">
         <v>28881</v>
       </c>
-      <c r="O111" s="4">
+      <c r="W111" s="4">
         <v>26881</v>
       </c>
-      <c r="P111" s="4">
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4">
         <v>17245</v>
       </c>
-      <c r="Q111" s="4">
+      <c r="AA111" s="4">
         <v>15229</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -6431,38 +7600,48 @@
       <c r="G112" s="4">
         <v>33179</v>
       </c>
-      <c r="H112" s="4">
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4">
         <v>1577</v>
       </c>
-      <c r="I112" s="4">
+      <c r="K112" s="4">
         <v>1313</v>
       </c>
-      <c r="J112" s="4">
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4">
         <v>1391</v>
       </c>
-      <c r="K112" s="4">
+      <c r="O112" s="4">
         <v>1112</v>
       </c>
-      <c r="L112" s="4">
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4">
         <v>224758</v>
       </c>
-      <c r="M112" s="4">
+      <c r="S112" s="4">
         <v>190310</v>
       </c>
-      <c r="N112" s="4">
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4">
         <v>8088</v>
       </c>
-      <c r="O112" s="4">
+      <c r="W112" s="4">
         <v>7837</v>
       </c>
-      <c r="P112" s="4">
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4">
         <v>6204</v>
       </c>
-      <c r="Q112" s="4">
+      <c r="AA112" s="4">
         <v>5288</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -6481,38 +7660,48 @@
       <c r="G113" s="4">
         <v>93000</v>
       </c>
-      <c r="H113" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
       <c r="J113" s="4" t="s">
         <v>123</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L113" s="4">
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4">
         <v>541300</v>
       </c>
-      <c r="M113" s="4">
+      <c r="S113" s="4">
         <v>446300</v>
       </c>
-      <c r="N113" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O113" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="P113" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q113" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA113" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -6531,38 +7720,48 @@
       <c r="G114" s="4">
         <v>33800</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
       <c r="J114" s="4" t="s">
         <v>123</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L114" s="4">
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4">
         <v>426100</v>
       </c>
-      <c r="M114" s="4">
+      <c r="S114" s="4">
         <v>365900</v>
       </c>
-      <c r="N114" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O114" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="P114" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q114" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA114" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -6581,38 +7780,48 @@
       <c r="G115" s="4">
         <v>49284</v>
       </c>
-      <c r="H115" s="4">
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4">
         <v>2417</v>
       </c>
-      <c r="I115" s="4">
+      <c r="K115" s="4">
         <v>2337</v>
       </c>
-      <c r="J115" s="4">
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4">
         <v>1826</v>
       </c>
-      <c r="K115" s="4">
+      <c r="O115" s="4">
         <v>1666</v>
       </c>
-      <c r="L115" s="4">
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4">
         <v>654516</v>
       </c>
-      <c r="M115" s="4">
+      <c r="S115" s="4">
         <v>529233</v>
       </c>
-      <c r="N115" s="4">
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4">
         <v>22199</v>
       </c>
-      <c r="O115" s="4">
+      <c r="W115" s="4">
         <v>10021</v>
       </c>
-      <c r="P115" s="4">
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4">
         <v>13902</v>
       </c>
-      <c r="Q115" s="4">
+      <c r="AA115" s="4">
         <v>12198</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -6631,38 +7840,48 @@
       <c r="G116" s="4">
         <v>161515</v>
       </c>
-      <c r="H116" s="4">
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4">
         <v>2043</v>
       </c>
-      <c r="I116" s="4">
+      <c r="K116" s="4">
         <v>2742</v>
       </c>
-      <c r="J116" s="4">
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4">
         <v>1648</v>
       </c>
-      <c r="K116" s="4">
+      <c r="O116" s="4">
         <v>1377</v>
       </c>
-      <c r="L116" s="4">
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4">
         <v>838119</v>
       </c>
-      <c r="M116" s="4">
+      <c r="S116" s="4">
         <v>821962</v>
       </c>
-      <c r="N116" s="4">
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4">
         <v>30722</v>
       </c>
-      <c r="O116" s="4">
+      <c r="W116" s="4">
         <v>29647</v>
       </c>
-      <c r="P116" s="4">
+      <c r="X116" s="4"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4">
         <v>17124</v>
       </c>
-      <c r="Q116" s="4">
+      <c r="AA116" s="4">
         <v>16623</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -6681,38 +7900,48 @@
       <c r="G117" s="4">
         <v>20320</v>
       </c>
-      <c r="H117" s="4">
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4">
         <v>922</v>
       </c>
-      <c r="I117" s="4">
+      <c r="K117" s="4">
         <v>955</v>
       </c>
-      <c r="J117" s="4">
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4">
         <v>650</v>
       </c>
-      <c r="K117" s="4">
+      <c r="O117" s="4">
         <v>607</v>
       </c>
-      <c r="L117" s="4">
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4">
         <v>410290</v>
       </c>
-      <c r="M117" s="4">
+      <c r="S117" s="4">
         <v>370750</v>
       </c>
-      <c r="N117" s="4">
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4">
         <v>19421</v>
       </c>
-      <c r="O117" s="4">
+      <c r="W117" s="4">
         <v>17505</v>
       </c>
-      <c r="P117" s="4">
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4">
         <v>11661</v>
       </c>
-      <c r="Q117" s="4">
+      <c r="AA117" s="4">
         <v>10481</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -6731,38 +7960,48 @@
       <c r="G118" s="4">
         <v>31911</v>
       </c>
-      <c r="H118" s="4">
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4">
         <v>1196</v>
       </c>
-      <c r="I118" s="4">
+      <c r="K118" s="4">
         <v>1110</v>
       </c>
-      <c r="J118" s="4">
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4">
         <v>756</v>
       </c>
-      <c r="K118" s="4">
+      <c r="O118" s="4">
         <v>580</v>
       </c>
-      <c r="L118" s="4">
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4">
         <v>396878</v>
       </c>
-      <c r="M118" s="4">
+      <c r="S118" s="4">
         <v>366253</v>
       </c>
-      <c r="N118" s="4">
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4">
         <v>9831</v>
       </c>
-      <c r="O118" s="4">
+      <c r="W118" s="4">
         <v>8104</v>
       </c>
-      <c r="P118" s="4">
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4">
         <v>7116</v>
       </c>
-      <c r="Q118" s="4">
+      <c r="AA118" s="4">
         <v>6145</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -6781,38 +8020,48 @@
       <c r="G119" s="4">
         <v>196000</v>
       </c>
-      <c r="H119" s="4">
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4">
         <v>7134</v>
       </c>
-      <c r="I119" s="4">
+      <c r="K119" s="4">
         <v>6950</v>
       </c>
-      <c r="J119" s="4">
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4">
         <v>5436</v>
       </c>
-      <c r="K119" s="4">
+      <c r="O119" s="4">
         <v>6027</v>
       </c>
-      <c r="L119" s="4">
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4">
         <v>906300</v>
       </c>
-      <c r="M119" s="4">
+      <c r="S119" s="4">
         <v>792800</v>
       </c>
-      <c r="N119" s="4">
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4">
         <v>33885</v>
       </c>
-      <c r="O119" s="4">
+      <c r="W119" s="4">
         <v>32299</v>
       </c>
-      <c r="P119" s="4">
+      <c r="X119" s="4"/>
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="4">
         <v>17382</v>
       </c>
-      <c r="Q119" s="4">
+      <c r="AA119" s="4">
         <v>16903</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -6831,38 +8080,48 @@
       <c r="G120" s="4">
         <v>721414</v>
       </c>
-      <c r="H120" s="4">
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4">
         <v>19882</v>
       </c>
-      <c r="I120" s="4">
+      <c r="K120" s="4">
         <v>19031</v>
       </c>
-      <c r="J120" s="4">
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4">
         <v>14243</v>
       </c>
-      <c r="K120" s="4">
+      <c r="O120" s="4">
         <v>12882</v>
       </c>
-      <c r="L120" s="4">
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4">
         <v>5081052</v>
       </c>
-      <c r="M120" s="4">
+      <c r="S120" s="4">
         <v>4511013</v>
       </c>
-      <c r="N120" s="4">
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4">
         <v>153627</v>
       </c>
-      <c r="O120" s="4">
+      <c r="W120" s="4">
         <v>140824</v>
       </c>
-      <c r="P120" s="4">
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="4">
         <v>642</v>
       </c>
-      <c r="Q120" s="4">
+      <c r="AA120" s="4">
         <v>82768</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -6881,38 +8140,48 @@
       <c r="G121" s="4">
         <v>2117951</v>
       </c>
-      <c r="H121" s="4">
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4">
         <v>5037</v>
       </c>
-      <c r="I121" s="4">
+      <c r="K121" s="4">
         <v>2022</v>
       </c>
-      <c r="J121" s="4">
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4">
         <v>47724</v>
       </c>
-      <c r="K121" s="4">
+      <c r="O121" s="4">
         <v>38407</v>
       </c>
-      <c r="L121" s="4">
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4">
         <v>5501894</v>
       </c>
-      <c r="M121" s="4">
+      <c r="S121" s="4">
         <v>14193906</v>
       </c>
-      <c r="N121" s="4">
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4">
         <v>612104</v>
       </c>
-      <c r="O121" s="4">
+      <c r="W121" s="4">
         <v>571407</v>
       </c>
-      <c r="P121" s="4">
+      <c r="X121" s="4"/>
+      <c r="Y121" s="4"/>
+      <c r="Z121" s="4">
         <v>363755</v>
       </c>
-      <c r="Q121" s="4">
+      <c r="AA121" s="4">
         <v>335298</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -6931,38 +8200,48 @@
       <c r="G122" s="4">
         <v>11904740</v>
       </c>
-      <c r="H122" s="4">
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4">
         <v>300334</v>
       </c>
-      <c r="I122" s="4">
+      <c r="K122" s="4">
         <v>340598</v>
       </c>
-      <c r="J122" s="4">
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4">
         <v>280402</v>
       </c>
-      <c r="K122" s="4">
+      <c r="O122" s="4">
         <v>232499</v>
       </c>
-      <c r="L122" s="4">
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4">
         <v>74866532</v>
       </c>
-      <c r="M122" s="4">
+      <c r="S122" s="4">
         <v>74509469</v>
       </c>
-      <c r="N122" s="4">
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4">
         <v>3090469</v>
       </c>
-      <c r="O122" s="4">
+      <c r="W122" s="4">
         <v>2932246</v>
       </c>
-      <c r="P122" s="4">
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="4">
         <v>1934998</v>
       </c>
-      <c r="Q122" s="4">
+      <c r="AA122" s="4">
         <v>1774469</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -6978,8 +8257,18 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="4"/>
+      <c r="AA123" s="4"/>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -6995,8 +8284,18 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
+      <c r="AA124" s="4"/>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -7012,8 +8311,18 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
       <c r="Q125" s="4"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="4"/>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -7026,8 +8335,18 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
       <c r="Q126" s="4"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R126" s="4"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="4"/>
+      <c r="AA126" s="4"/>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -7040,8 +8359,18 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
       <c r="Q127" s="4"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
+      <c r="AA127" s="4"/>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -7054,8 +8383,18 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
       <c r="Q128" s="4"/>
-    </row>
-    <row r="129" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="R128" s="4"/>
+      <c r="S128" s="4"/>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+      <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="4"/>
+      <c r="AA128" s="4"/>
+    </row>
+    <row r="129" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -7068,8 +8407,18 @@
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
       <c r="Q129" s="4"/>
-    </row>
-    <row r="130" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
+      <c r="AA129" s="4"/>
+    </row>
+    <row r="130" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
@@ -7082,8 +8431,18 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
       <c r="Q130" s="4"/>
-    </row>
-    <row r="131" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="4"/>
+      <c r="AA130" s="4"/>
+    </row>
+    <row r="131" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
@@ -7096,8 +8455,18 @@
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
       <c r="Q131" s="4"/>
-    </row>
-    <row r="132" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="4"/>
+      <c r="AA131" s="4"/>
+    </row>
+    <row r="132" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
@@ -7110,6 +8479,16 @@
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
       <c r="Q132" s="4"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+      <c r="Z132" s="4"/>
+      <c r="AA132" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3955CE2-7B68-43B3-B266-5D2BD8803490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69508FD-F44C-4141-A09F-D178F8ABC146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="146">
   <si>
     <t>губ</t>
   </si>
@@ -447,22 +447,7 @@
     <t>чс-уез-ж YY</t>
   </si>
   <si>
-    <t>183(</t>
-  </si>
-  <si>
     <t>—</t>
-  </si>
-  <si>
-    <t>100079!</t>
-  </si>
-  <si>
-    <t>989І8І</t>
-  </si>
-  <si>
-    <t>6в60</t>
-  </si>
-  <si>
-    <t>2285!</t>
   </si>
   <si>
     <t>чж-гор-о NYY</t>
@@ -866,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C7940-0325-42DE-9989-EDE5D7F661BD}">
   <dimension ref="A1:AC132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="AA40" sqref="AA40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,10 +900,10 @@
         <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>128</v>
@@ -927,10 +912,10 @@
         <v>129</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>130</v>
@@ -939,10 +924,10 @@
         <v>131</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>132</v>
@@ -951,10 +936,10 @@
         <v>133</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>134</v>
@@ -963,10 +948,10 @@
         <v>135</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>136</v>
@@ -975,10 +960,10 @@
         <v>137</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -3126,8 +3111,8 @@
       </c>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="4" t="s">
-        <v>140</v>
+      <c r="V37" s="4">
+        <v>100079</v>
       </c>
       <c r="W37" s="4">
         <v>96747</v>
@@ -3257,8 +3242,8 @@
       <c r="Z39" s="4">
         <v>105713</v>
       </c>
-      <c r="AA39" s="4" t="s">
-        <v>141</v>
+      <c r="AA39" s="4">
+        <v>98918</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -3765,8 +3750,8 @@
       <c r="J48" s="4">
         <v>19918</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>138</v>
+      <c r="K48" s="4">
+        <v>18316</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -4910,8 +4895,8 @@
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="4" t="s">
-        <v>143</v>
+      <c r="N67" s="4">
+        <v>2235</v>
       </c>
       <c r="O67" s="4">
         <v>2093</v>
@@ -4965,8 +4950,8 @@
       <c r="J68" s="4">
         <v>7338</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>142</v>
+      <c r="K68" s="4">
+        <v>6660</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
@@ -7235,7 +7220,7 @@
         <v>151</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>123</v>
@@ -7243,7 +7228,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>123</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697F02B5-BC59-4956-8A97-21A59320C211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC13FDD-9BD2-44B0-BF38-2079B8927184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="151">
   <si>
     <t>губ</t>
   </si>
@@ -366,9 +366,6 @@
     <t>Якутская</t>
   </si>
   <si>
-    <t xml:space="preserve">Итого въ Сибири  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Акмолинская </t>
   </si>
   <si>
@@ -468,67 +465,25 @@
     <t>чс-уез-о YY</t>
   </si>
   <si>
-    <t>ібббіб</t>
-  </si>
-  <si>
-    <t>13Б2989</t>
-  </si>
-  <si>
     <t>353597В</t>
   </si>
   <si>
-    <t>} 87384</t>
-  </si>
-  <si>
-    <t>І147876</t>
-  </si>
-  <si>
     <t>115І144І</t>
   </si>
   <si>
     <t>1(985421</t>
   </si>
   <si>
-    <t>f2267065</t>
-  </si>
-  <si>
     <t>78П6084</t>
   </si>
   <si>
     <t>700В0С</t>
   </si>
   <si>
-    <t>4620С</t>
-  </si>
-  <si>
-    <t>344.800;'</t>
-  </si>
-  <si>
-    <t>112853:</t>
-  </si>
-  <si>
-    <t>73483!</t>
-  </si>
-  <si>
-    <t>7565В</t>
-  </si>
-  <si>
-    <t>1192!)</t>
-  </si>
-  <si>
-    <t>II12097</t>
-  </si>
-  <si>
-    <t>7СЮ00:</t>
-  </si>
-  <si>
-    <t>264І6</t>
-  </si>
-  <si>
     <t>8613!</t>
   </si>
   <si>
-    <t>79200С</t>
+    <t>Итого в Сибири</t>
   </si>
 </sst>
 </file>
@@ -558,7 +513,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +532,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -590,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -609,6 +570,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,7 +890,7 @@
   <dimension ref="A1:AC132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,76 +932,76 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="U1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Y1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="AC1" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -1060,14 +1024,14 @@
         <v>28091</v>
       </c>
       <c r="H2" s="4">
-        <v>57332</v>
+        <v>57382</v>
       </c>
       <c r="I2" s="8">
         <f>F2+G2-H2</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="K2" s="4">
         <v>960</v>
@@ -1077,7 +1041,7 @@
       </c>
       <c r="M2" s="8">
         <f>J2+K2-L2</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4">
         <v>989</v>
@@ -1159,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="K3" s="4">
         <v>1771</v>
@@ -1169,20 +1133,20 @@
       </c>
       <c r="M3" s="8">
         <f t="shared" ref="M3:M66" si="1">J3+K3-L3</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4">
         <v>1338</v>
       </c>
       <c r="O3" s="4">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="P3" s="4">
         <v>2397</v>
       </c>
       <c r="Q3" s="8">
         <f t="shared" ref="Q3:Q66" si="2">N3+O3-P3</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4">
         <v>770011</v>
@@ -1251,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>2616</v>
+        <v>2816</v>
       </c>
       <c r="K4" s="4">
         <v>2731</v>
@@ -1261,7 +1225,7 @@
       </c>
       <c r="M4" s="8">
         <f t="shared" si="1"/>
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4">
         <v>2327</v>
@@ -1441,11 +1405,11 @@
         <v>8608</v>
       </c>
       <c r="L6" s="4">
-        <v>17698</v>
+        <v>17598</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" si="1"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
         <v>8265</v>
@@ -1454,11 +1418,11 @@
         <v>6277</v>
       </c>
       <c r="P6" s="4">
-        <v>14642</v>
+        <v>14542</v>
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R6" s="4">
         <v>517355</v>
@@ -1543,14 +1507,14 @@
         <v>20925</v>
       </c>
       <c r="O7" s="4">
-        <v>16151</v>
+        <v>15151</v>
       </c>
       <c r="P7" s="4">
         <v>36076</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4">
         <v>0</v>
@@ -1606,7 +1570,7 @@
         <v>36783</v>
       </c>
       <c r="F8" s="4">
-        <v>417481</v>
+        <v>41748</v>
       </c>
       <c r="G8" s="4">
         <v>44132</v>
@@ -1616,20 +1580,20 @@
       </c>
       <c r="I8" s="8">
         <f t="shared" si="0"/>
-        <v>375733</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>1676</v>
+        <v>1576</v>
       </c>
       <c r="K8" s="4">
         <v>1458</v>
       </c>
       <c r="L8" s="4">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="M8" s="8">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4">
         <v>1459</v>
@@ -1638,11 +1602,11 @@
         <v>1154</v>
       </c>
       <c r="P8" s="4">
-        <v>2618</v>
+        <v>2613</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="R8" s="4">
         <v>667111</v>
@@ -1701,14 +1665,14 @@
         <v>43822</v>
       </c>
       <c r="G9" s="4">
-        <v>46038</v>
+        <v>46033</v>
       </c>
       <c r="H9" s="4">
         <v>89855</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4">
         <v>1742</v>
@@ -1730,11 +1694,11 @@
         <v>1388</v>
       </c>
       <c r="P9" s="4">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="4">
         <v>763340</v>
@@ -1793,14 +1757,14 @@
         <v>1314354</v>
       </c>
       <c r="G10" s="4">
-        <v>1186664</v>
+        <v>1186694</v>
       </c>
       <c r="H10" s="4">
         <v>2501048</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <v>35678</v>
@@ -1898,14 +1862,14 @@
         <v>2715</v>
       </c>
       <c r="K11" s="4">
-        <v>2615</v>
+        <v>2515</v>
       </c>
       <c r="L11" s="4">
         <v>5230</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4">
         <v>2280</v>
@@ -2000,17 +1964,17 @@
         <v>0</v>
       </c>
       <c r="N12" s="4">
-        <v>8778</v>
+        <v>3773</v>
       </c>
       <c r="O12" s="4">
         <v>3083</v>
       </c>
       <c r="P12" s="4">
-        <v>6866</v>
+        <v>6856</v>
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="2"/>
-        <v>4995</v>
+        <v>0</v>
       </c>
       <c r="R12" s="4">
         <v>565287</v>
@@ -2069,14 +2033,14 @@
         <v>48532</v>
       </c>
       <c r="G13" s="4">
-        <v>61822</v>
+        <v>51322</v>
       </c>
       <c r="H13" s="4">
         <v>99854</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="0"/>
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
         <v>2726</v>
@@ -2161,14 +2125,14 @@
         <v>190496</v>
       </c>
       <c r="G14" s="4">
-        <v>176547</v>
+        <v>175547</v>
       </c>
       <c r="H14" s="4">
         <v>366043</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="4">
         <v>7138</v>
@@ -2184,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4">
-        <v>6124</v>
+        <v>5124</v>
       </c>
       <c r="O14" s="4">
         <v>4504</v>
@@ -2194,7 +2158,7 @@
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R14" s="4">
         <v>931650</v>
@@ -2282,11 +2246,11 @@
         <v>2227</v>
       </c>
       <c r="P15" s="4">
-        <v>6041</v>
+        <v>5041</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="2"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="R15" s="4">
         <v>754790</v>
@@ -2342,7 +2306,7 @@
         <v>41940</v>
       </c>
       <c r="F16" s="4">
-        <v>905783</v>
+        <v>905733</v>
       </c>
       <c r="G16" s="4">
         <v>769114</v>
@@ -2352,7 +2316,7 @@
       </c>
       <c r="I16" s="8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <v>27831</v>
@@ -2374,11 +2338,11 @@
         <v>18736</v>
       </c>
       <c r="P16" s="4">
-        <v>419401</v>
+        <v>41940</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="2"/>
-        <v>-377461</v>
+        <v>0</v>
       </c>
       <c r="R16" s="4">
         <v>0</v>
@@ -2453,11 +2417,11 @@
         <v>1816</v>
       </c>
       <c r="L17" s="4">
-        <v>8759</v>
+        <v>3759</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" si="1"/>
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4">
         <v>1643</v>
@@ -2466,11 +2430,11 @@
         <v>1312</v>
       </c>
       <c r="P17" s="4">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="4">
         <v>654549</v>
@@ -2526,17 +2490,17 @@
         <v>365016</v>
       </c>
       <c r="F18" s="4">
-        <v>1452466</v>
+        <v>1462466</v>
       </c>
       <c r="G18" s="4">
         <v>1300983</v>
       </c>
       <c r="H18" s="4">
-        <v>2763440</v>
+        <v>2763449</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="0"/>
-        <v>-9991</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
         <v>50418</v>
@@ -2634,14 +2598,14 @@
         <v>3906</v>
       </c>
       <c r="K19" s="4">
-        <v>3681</v>
+        <v>3581</v>
       </c>
       <c r="L19" s="4">
         <v>7487</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4">
         <v>3550</v>
@@ -2802,7 +2766,7 @@
         <v>73317</v>
       </c>
       <c r="F21" s="4">
-        <v>159600</v>
+        <v>159500</v>
       </c>
       <c r="G21" s="4">
         <v>151800</v>
@@ -2812,7 +2776,7 @@
       </c>
       <c r="I21" s="8">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="4">
         <v>4198</v>
@@ -2828,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <v>8610</v>
+        <v>3610</v>
       </c>
       <c r="O21" s="4">
         <v>2944</v>
@@ -2838,7 +2802,7 @@
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="R21" s="4">
         <v>1178100</v>
@@ -2907,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>661</v>
+        <v>6561</v>
       </c>
       <c r="K22" s="4">
         <v>6098</v>
@@ -2917,7 +2881,7 @@
       </c>
       <c r="M22" s="8">
         <f t="shared" si="1"/>
-        <v>-5900</v>
+        <v>0</v>
       </c>
       <c r="N22" s="4">
         <v>4777</v>
@@ -2991,12 +2955,12 @@
       <c r="G23" s="4">
         <v>79443</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="8" t="e">
+      <c r="H23" s="4">
+        <v>166616</v>
+      </c>
+      <c r="I23" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="J23" s="4">
         <v>2767</v>
@@ -3005,11 +2969,11 @@
         <v>2656</v>
       </c>
       <c r="L23" s="4">
-        <v>6423</v>
+        <v>5423</v>
       </c>
       <c r="M23" s="8">
         <f t="shared" si="1"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4">
         <v>2358</v>
@@ -3031,7 +2995,7 @@
         <v>1744809</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="U23" s="8" t="e">
         <f t="shared" si="3"/>
@@ -3091,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <v>4726</v>
+        <v>4725</v>
       </c>
       <c r="K24" s="4">
         <v>4766</v>
@@ -3101,7 +3065,7 @@
       </c>
       <c r="M24" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4">
         <v>3711</v>
@@ -3175,12 +3139,12 @@
       <c r="G25" s="4">
         <v>662907</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I25" s="8" t="e">
+      <c r="H25" s="4">
+        <v>1362989</v>
+      </c>
+      <c r="I25" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="J25" s="4">
         <v>25048</v>
@@ -3370,14 +3334,14 @@
         <v>9769</v>
       </c>
       <c r="K27" s="4">
-        <v>233</v>
+        <v>9233</v>
       </c>
       <c r="L27" s="4">
         <v>19002</v>
       </c>
       <c r="M27" s="8">
         <f t="shared" si="1"/>
-        <v>-9000</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4">
         <v>8062</v>
@@ -3449,14 +3413,14 @@
         <v>91633</v>
       </c>
       <c r="G28" s="4">
-        <v>81648</v>
+        <v>81548</v>
       </c>
       <c r="H28" s="4">
         <v>173181</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J28" s="4">
         <v>4120</v>
@@ -3551,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="4">
-        <v>8291</v>
+        <v>3291</v>
       </c>
       <c r="K29" s="4">
         <v>3020</v>
@@ -3561,7 +3525,7 @@
       </c>
       <c r="M29" s="8">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4">
         <v>2711</v>
@@ -3722,7 +3686,7 @@
         <v>376814</v>
       </c>
       <c r="F31" s="4">
-        <v>658688</v>
+        <v>658888</v>
       </c>
       <c r="G31" s="4">
         <v>653642</v>
@@ -3732,7 +3696,7 @@
       </c>
       <c r="I31" s="8">
         <f t="shared" si="0"/>
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J31" s="4">
         <v>25378</v>
@@ -3741,11 +3705,11 @@
         <v>24781</v>
       </c>
       <c r="L31" s="4">
-        <v>59159</v>
+        <v>50159</v>
       </c>
       <c r="M31" s="8">
         <f t="shared" si="1"/>
-        <v>-9000</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4">
         <v>20930</v>
@@ -3814,17 +3778,17 @@
         <v>136454</v>
       </c>
       <c r="F32" s="4">
-        <v>79288</v>
+        <v>79268</v>
       </c>
       <c r="G32" s="4">
         <v>76452</v>
       </c>
       <c r="H32" s="4">
-        <v>156720</v>
+        <v>155720</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="0"/>
-        <v>-980</v>
+        <v>0</v>
       </c>
       <c r="J32" s="4">
         <v>2414</v>
@@ -3906,20 +3870,20 @@
         <v>154406</v>
       </c>
       <c r="F33" s="4">
-        <v>108932</v>
+        <v>103932</v>
       </c>
       <c r="G33" s="4">
         <v>102533</v>
       </c>
       <c r="H33" s="4">
-        <v>206466</v>
+        <v>206465</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="0"/>
-        <v>4999</v>
+        <v>0</v>
       </c>
       <c r="J33" s="4">
-        <v>6224</v>
+        <v>5224</v>
       </c>
       <c r="K33" s="4">
         <v>4922</v>
@@ -3929,7 +3893,7 @@
       </c>
       <c r="M33" s="8">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4">
         <v>4924</v>
@@ -4003,25 +3967,25 @@
       <c r="G34" s="4">
         <v>94206</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I34" s="8" t="e">
+      <c r="H34" s="4">
+        <v>187384</v>
+      </c>
+      <c r="I34" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="J34" s="4">
-        <v>4660</v>
+        <v>4560</v>
       </c>
       <c r="K34" s="4">
-        <v>4469</v>
+        <v>4459</v>
       </c>
       <c r="L34" s="4">
         <v>9019</v>
       </c>
       <c r="M34" s="8">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4">
         <v>3757</v>
@@ -4182,7 +4146,7 @@
         <v>81325</v>
       </c>
       <c r="F36" s="4">
-        <v>166173</v>
+        <v>155173</v>
       </c>
       <c r="G36" s="4">
         <v>136444</v>
@@ -4192,7 +4156,7 @@
       </c>
       <c r="I36" s="8">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="J36" s="4">
         <v>5909</v>
@@ -4280,11 +4244,11 @@
         <v>94617</v>
       </c>
       <c r="H37" s="4">
-        <v>179813</v>
+        <v>179613</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="0"/>
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J37" s="4">
         <v>6220</v>
@@ -4369,14 +4333,14 @@
         <v>99438</v>
       </c>
       <c r="G38" s="4">
-        <v>97265</v>
+        <v>97255</v>
       </c>
       <c r="H38" s="4">
-        <v>196893</v>
+        <v>196693</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="0"/>
-        <v>-190</v>
+        <v>0</v>
       </c>
       <c r="J38" s="4">
         <v>3735</v>
@@ -4411,7 +4375,7 @@
         <v>559198</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="U38" s="8" t="e">
         <f t="shared" si="3"/>
@@ -4569,11 +4533,11 @@
         <v>7299</v>
       </c>
       <c r="L40" s="4">
-        <v>15165</v>
+        <v>15155</v>
       </c>
       <c r="M40" s="8">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="N40" s="4">
         <v>5655</v>
@@ -4655,17 +4619,17 @@
         <v>0</v>
       </c>
       <c r="J41" s="4">
-        <v>6946</v>
+        <v>5945</v>
       </c>
       <c r="K41" s="4">
-        <v>6699</v>
+        <v>5699</v>
       </c>
       <c r="L41" s="4">
         <v>11644</v>
       </c>
       <c r="M41" s="8">
         <f t="shared" si="1"/>
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="N41" s="4">
         <v>4084</v>
@@ -4750,14 +4714,14 @@
         <v>3639</v>
       </c>
       <c r="K42" s="4">
-        <v>3653</v>
+        <v>3553</v>
       </c>
       <c r="L42" s="4">
         <v>7192</v>
       </c>
       <c r="M42" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N42" s="4">
         <v>2860</v>
@@ -4831,25 +4795,25 @@
       <c r="G43" s="4">
         <v>568361</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I43" s="8" t="e">
+      <c r="H43" s="4">
+        <v>1147876</v>
+      </c>
+      <c r="I43" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="J43" s="4">
         <v>17440</v>
       </c>
       <c r="K43" s="4">
-        <v>16851</v>
+        <v>16551</v>
       </c>
       <c r="L43" s="4">
         <v>33991</v>
       </c>
       <c r="M43" s="8">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N43" s="4">
         <v>12590</v>
@@ -4924,11 +4888,11 @@
         <v>471506</v>
       </c>
       <c r="H44" s="4">
-        <v>936405</v>
+        <v>935405</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" si="0"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="J44" s="4">
         <v>10872</v>
@@ -5013,14 +4977,14 @@
         <v>161434</v>
       </c>
       <c r="G45" s="4">
-        <v>178438</v>
+        <v>173438</v>
       </c>
       <c r="H45" s="4">
         <v>334872</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J45" s="4">
         <v>4363</v>
@@ -5105,17 +5069,17 @@
         <v>144451</v>
       </c>
       <c r="G46" s="4">
-        <v>160935</v>
+        <v>150935</v>
       </c>
       <c r="H46" s="4">
         <v>295386</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J46" s="4">
-        <v>8498</v>
+        <v>3498</v>
       </c>
       <c r="K46" s="4">
         <v>3240</v>
@@ -5125,7 +5089,7 @@
       </c>
       <c r="M46" s="8">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="N46" s="4">
         <v>2568</v>
@@ -5194,7 +5158,7 @@
         <v>15258</v>
       </c>
       <c r="F47" s="4">
-        <v>62982</v>
+        <v>52982</v>
       </c>
       <c r="G47" s="4">
         <v>49692</v>
@@ -5204,10 +5168,10 @@
       </c>
       <c r="I47" s="8">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J47" s="4">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="K47" s="4">
         <v>817</v>
@@ -5217,7 +5181,7 @@
       </c>
       <c r="M47" s="8">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N47" s="4">
         <v>636</v>
@@ -5331,7 +5295,7 @@
         <v>6023305</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U48" s="8" t="e">
         <f t="shared" si="3"/>
@@ -5381,17 +5345,17 @@
         <v>144430</v>
       </c>
       <c r="G49" s="4">
-        <v>137664</v>
+        <v>137654</v>
       </c>
       <c r="H49" s="4">
         <v>282084</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J49" s="4">
-        <v>4067</v>
+        <v>4057</v>
       </c>
       <c r="K49" s="4">
         <v>3806</v>
@@ -5401,7 +5365,7 @@
       </c>
       <c r="M49" s="8">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N49" s="4">
         <v>3794</v>
@@ -5476,11 +5440,11 @@
         <v>109459</v>
       </c>
       <c r="H50" s="4">
-        <v>224866</v>
+        <v>224865</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="4">
         <v>4244</v>
@@ -5562,7 +5526,7 @@
         <v>3310</v>
       </c>
       <c r="F51" s="4">
-        <v>67226</v>
+        <v>57226</v>
       </c>
       <c r="G51" s="4">
         <v>53821</v>
@@ -5572,7 +5536,7 @@
       </c>
       <c r="I51" s="8">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J51" s="4">
         <v>2381</v>
@@ -5749,17 +5713,17 @@
         <v>178266</v>
       </c>
       <c r="G53" s="4">
-        <v>166564</v>
+        <v>156564</v>
       </c>
       <c r="H53" s="4">
-        <v>334330</v>
+        <v>334830</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" si="0"/>
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="J53" s="4">
-        <v>6652</v>
+        <v>6552</v>
       </c>
       <c r="K53" s="4">
         <v>6051</v>
@@ -5769,7 +5733,7 @@
       </c>
       <c r="M53" s="8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N53" s="4">
         <v>4640</v>
@@ -5943,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="4">
-        <v>8606</v>
+        <v>8605</v>
       </c>
       <c r="K55" s="4">
         <v>8112</v>
@@ -5953,7 +5917,7 @@
       </c>
       <c r="M55" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" s="4">
         <v>5745</v>
@@ -6028,11 +5992,11 @@
         <v>192727</v>
       </c>
       <c r="H56" s="4">
-        <v>897636</v>
+        <v>397636</v>
       </c>
       <c r="I56" s="8">
         <f t="shared" si="0"/>
-        <v>-500000</v>
+        <v>0</v>
       </c>
       <c r="J56" s="4">
         <v>7076</v>
@@ -6117,14 +6081,14 @@
         <v>1328077</v>
       </c>
       <c r="G57" s="4">
-        <v>1247798</v>
+        <v>1247799</v>
       </c>
       <c r="H57" s="4">
         <v>2575876</v>
       </c>
       <c r="I57" s="8">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="4">
         <v>41634</v>
@@ -6212,11 +6176,11 @@
         <v>171899</v>
       </c>
       <c r="H58" s="4">
-        <v>844881</v>
+        <v>344861</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" si="0"/>
-        <v>-500020</v>
+        <v>0</v>
       </c>
       <c r="J58" s="4">
         <v>4759</v>
@@ -6311,17 +6275,17 @@
         <v>0</v>
       </c>
       <c r="J59" s="4">
-        <v>2889</v>
+        <v>2389</v>
       </c>
       <c r="K59" s="4">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="L59" s="4">
         <v>4632</v>
       </c>
       <c r="M59" s="8">
         <f t="shared" si="1"/>
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="N59" s="4">
         <v>1823</v>
@@ -6495,17 +6459,17 @@
         <v>0</v>
       </c>
       <c r="J61" s="4">
-        <v>4580</v>
+        <v>4560</v>
       </c>
       <c r="K61" s="4">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="L61" s="4">
         <v>8585</v>
       </c>
       <c r="M61" s="8">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N61" s="4">
         <v>2687</v>
@@ -6577,14 +6541,14 @@
         <v>560862</v>
       </c>
       <c r="G62" s="4">
-        <v>531558</v>
+        <v>531568</v>
       </c>
       <c r="H62" s="4">
         <v>1092430</v>
       </c>
       <c r="I62" s="8">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J62" s="4">
         <v>14527</v>
@@ -6945,14 +6909,14 @@
         <v>379065</v>
       </c>
       <c r="G66" s="4">
-        <v>370381</v>
+        <v>370361</v>
       </c>
       <c r="H66" s="4">
         <v>749426</v>
       </c>
       <c r="I66" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J66" s="4">
         <v>9454</v>
@@ -7034,7 +6998,7 @@
         <v>13862</v>
       </c>
       <c r="F67" s="4">
-        <v>106132</v>
+        <v>105132</v>
       </c>
       <c r="G67" s="4">
         <v>101962</v>
@@ -7044,7 +7008,7 @@
       </c>
       <c r="I67" s="8">
         <f t="shared" ref="I67:I122" si="6">F67+G67-H67</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J67" s="4">
         <v>2932</v>
@@ -7053,11 +7017,11 @@
         <v>2717</v>
       </c>
       <c r="L67" s="4">
-        <v>5849</v>
+        <v>5649</v>
       </c>
       <c r="M67" s="8">
         <f t="shared" ref="M67:M122" si="7">J67+K67-L67</f>
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N67" s="4">
         <v>2235</v>
@@ -7218,7 +7182,7 @@
         <v>9089</v>
       </c>
       <c r="F69" s="4">
-        <v>50800</v>
+        <v>50300</v>
       </c>
       <c r="G69" s="4">
         <v>50200</v>
@@ -7228,7 +7192,7 @@
       </c>
       <c r="I69" s="8">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J69" s="4">
         <v>1690</v>
@@ -7313,14 +7277,14 @@
         <v>370157</v>
       </c>
       <c r="G70" s="4">
-        <v>377555</v>
+        <v>377556</v>
       </c>
       <c r="H70" s="4">
         <v>747713</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J70" s="4">
         <v>11960</v>
@@ -7494,17 +7458,17 @@
         <v>2554937</v>
       </c>
       <c r="F72" s="4">
-        <v>6345373</v>
+        <v>6345573</v>
       </c>
       <c r="G72" s="4">
-        <v>5321432</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I72" s="8" t="e">
+        <v>5921492</v>
+      </c>
+      <c r="H72" s="4">
+        <v>12267065</v>
+      </c>
+      <c r="I72" s="8">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="J72" s="4">
         <v>211085</v>
@@ -7539,7 +7503,7 @@
         <v>39903408</v>
       </c>
       <c r="T72" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="U72" s="8" t="e">
         <f t="shared" si="9"/>
@@ -7586,30 +7550,30 @@
         <v>635916</v>
       </c>
       <c r="F73" s="4">
-        <v>1883503</v>
+        <v>1883509</v>
       </c>
       <c r="G73" s="4">
-        <v>1859571</v>
+        <v>1869671</v>
       </c>
       <c r="H73" s="4">
         <v>3753180</v>
       </c>
       <c r="I73" s="8">
         <f t="shared" si="6"/>
-        <v>-10106</v>
+        <v>0</v>
       </c>
       <c r="J73" s="4">
         <v>51027</v>
       </c>
       <c r="K73" s="4">
-        <v>45907</v>
+        <v>46907</v>
       </c>
       <c r="L73" s="4">
         <v>97934</v>
       </c>
       <c r="M73" s="8">
         <f t="shared" si="7"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="N73" s="4">
         <v>36737</v>
@@ -7672,10 +7636,10 @@
         <v>1817500</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F74" s="4">
         <v>122200</v>
@@ -7691,26 +7655,26 @@
         <v>0</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M74" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q74" s="8" t="e">
         <f t="shared" si="8"/>
@@ -7730,26 +7694,26 @@
         <v>-100000</v>
       </c>
       <c r="V74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y74" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC74" s="8" t="e">
         <f t="shared" si="11"/>
@@ -7786,14 +7750,14 @@
         <v>11817</v>
       </c>
       <c r="K75" s="4">
-        <v>11048</v>
+        <v>11043</v>
       </c>
       <c r="L75" s="4">
         <v>22860</v>
       </c>
       <c r="M75" s="8">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N75" s="4">
         <v>8722</v>
@@ -7856,10 +7820,10 @@
         <v>1295400</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F76" s="4">
         <v>96700</v>
@@ -7875,26 +7839,26 @@
         <v>0</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M76" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q76" s="8" t="e">
         <f t="shared" si="8"/>
@@ -7914,26 +7878,26 @@
         <v>111000</v>
       </c>
       <c r="V76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y76" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB76" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC76" s="8" t="e">
         <f t="shared" si="11"/>
@@ -7948,10 +7912,10 @@
         <v>1010300</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F77" s="4">
         <v>42100</v>
@@ -7967,26 +7931,26 @@
         <v>0</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M77" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q77" s="8" t="e">
         <f t="shared" si="8"/>
@@ -8006,26 +7970,26 @@
         <v>20000</v>
       </c>
       <c r="V77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y77" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB77" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC77" s="8" t="e">
         <f t="shared" si="11"/>
@@ -8040,13 +8004,13 @@
         <v>805700</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F78" s="4">
-        <v>67700</v>
+        <v>57700</v>
       </c>
       <c r="G78" s="4">
         <v>47200</v>
@@ -8056,29 +8020,29 @@
       </c>
       <c r="I78" s="8">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M78" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q78" s="8" t="e">
         <f t="shared" si="8"/>
@@ -8091,33 +8055,33 @@
         <v>341800</v>
       </c>
       <c r="T78" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="U78" s="8" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="V78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y78" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB78" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC78" s="8" t="e">
         <f t="shared" si="11"/>
@@ -8141,14 +8105,14 @@
         <v>97356</v>
       </c>
       <c r="G79" s="4">
-        <v>98903</v>
+        <v>96903</v>
       </c>
       <c r="H79" s="4">
         <v>194259</v>
       </c>
       <c r="I79" s="8">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J79" s="4">
         <v>2774</v>
@@ -8224,10 +8188,10 @@
         <v>2044500</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F80" s="4">
         <v>409600</v>
@@ -8243,26 +8207,26 @@
         <v>0</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M80" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q80" s="8" t="e">
         <f t="shared" si="8"/>
@@ -8282,26 +8246,26 @@
         <v>0</v>
       </c>
       <c r="V80" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W80" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X80" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y80" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA80" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB80" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC80" s="8" t="e">
         <f t="shared" si="11"/>
@@ -8322,7 +8286,7 @@
         <v>12998</v>
       </c>
       <c r="F81" s="4">
-        <v>45346</v>
+        <v>45345</v>
       </c>
       <c r="G81" s="4">
         <v>47826</v>
@@ -8332,7 +8296,7 @@
       </c>
       <c r="I81" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="4">
         <v>1149</v>
@@ -8420,11 +8384,11 @@
         <v>52962</v>
       </c>
       <c r="H82" s="4">
-        <v>106125</v>
+        <v>105125</v>
       </c>
       <c r="I82" s="8">
         <f t="shared" si="6"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="J82" s="4">
         <v>1860</v>
@@ -8433,11 +8397,11 @@
         <v>1715</v>
       </c>
       <c r="L82" s="4">
-        <v>8676</v>
+        <v>3575</v>
       </c>
       <c r="M82" s="8">
         <f t="shared" si="7"/>
-        <v>-5101</v>
+        <v>0</v>
       </c>
       <c r="N82" s="4">
         <v>1199</v>
@@ -8509,14 +8473,14 @@
         <v>32796</v>
       </c>
       <c r="G83" s="4">
-        <v>34687</v>
+        <v>34587</v>
       </c>
       <c r="H83" s="4">
         <v>67383</v>
       </c>
       <c r="I83" s="8">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="4">
         <v>564</v>
@@ -8598,30 +8562,30 @@
         <v>88988</v>
       </c>
       <c r="F84" s="4">
-        <v>1383117</v>
+        <v>1363117</v>
       </c>
       <c r="G84" s="4">
-        <v>1375551</v>
+        <v>1375651</v>
       </c>
       <c r="H84" s="4">
         <v>2738768</v>
       </c>
       <c r="I84" s="8">
         <f t="shared" si="6"/>
-        <v>19900</v>
+        <v>0</v>
       </c>
       <c r="J84" s="4">
         <v>18164</v>
       </c>
       <c r="K84" s="4">
-        <v>18961</v>
+        <v>16961</v>
       </c>
       <c r="L84" s="4">
         <v>35125</v>
       </c>
       <c r="M84" s="8">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N84" s="4">
         <v>13175</v>
@@ -8784,15 +8748,15 @@
       <c r="F86" s="4">
         <v>47616</v>
       </c>
-      <c r="G86" s="4">
-        <v>4400</v>
+      <c r="G86" s="10">
+        <v>44100</v>
       </c>
       <c r="H86" s="4">
         <v>91716</v>
       </c>
       <c r="I86" s="8">
         <f t="shared" si="6"/>
-        <v>-39700</v>
+        <v>0</v>
       </c>
       <c r="J86" s="4">
         <v>739</v>
@@ -8801,11 +8765,11 @@
         <v>571</v>
       </c>
       <c r="L86" s="4">
-        <v>3310</v>
+        <v>1310</v>
       </c>
       <c r="M86" s="8">
         <f t="shared" si="7"/>
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="N86" s="4">
         <v>543</v>
@@ -8862,7 +8826,7 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2">
         <v>383726</v>
@@ -8874,7 +8838,7 @@
         <v>5024</v>
       </c>
       <c r="F87" s="4">
-        <v>220261</v>
+        <v>220251</v>
       </c>
       <c r="G87" s="4">
         <v>163475</v>
@@ -8884,10 +8848,10 @@
       </c>
       <c r="I87" s="8">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J87" s="4">
-        <v>5781</v>
+        <v>5761</v>
       </c>
       <c r="K87" s="4">
         <v>5621</v>
@@ -8897,7 +8861,7 @@
       </c>
       <c r="M87" s="8">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N87" s="4">
         <v>2800</v>
@@ -9061,14 +9025,14 @@
         <v>43690</v>
       </c>
       <c r="G89" s="4">
-        <v>23889</v>
+        <v>28889</v>
       </c>
       <c r="H89" s="4">
-        <v>72571</v>
+        <v>72579</v>
       </c>
       <c r="I89" s="8">
         <f t="shared" si="6"/>
-        <v>-4992</v>
+        <v>0</v>
       </c>
       <c r="J89" s="4">
         <v>890</v>
@@ -9236,10 +9200,10 @@
         <v>389800</v>
       </c>
       <c r="C91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F91" s="4">
         <v>25000</v>
@@ -9247,34 +9211,34 @@
       <c r="G91" s="4">
         <v>21200</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I91" s="8" t="e">
+      <c r="H91" s="4">
+        <v>46200</v>
+      </c>
+      <c r="I91" s="8">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M91" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q91" s="8" t="e">
         <f t="shared" si="8"/>
@@ -9294,26 +9258,26 @@
         <v>0</v>
       </c>
       <c r="V91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y91" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC91" s="8" t="e">
         <f t="shared" si="11"/>
@@ -9339,12 +9303,12 @@
       <c r="G92" s="4">
         <v>119900</v>
       </c>
-      <c r="H92" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I92" s="8" t="e">
+      <c r="H92" s="4">
+        <v>244800</v>
+      </c>
+      <c r="I92" s="8">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="J92" s="4">
         <v>4648</v>
@@ -9353,11 +9317,11 @@
         <v>4381</v>
       </c>
       <c r="L92" s="4">
-        <v>902</v>
+        <v>9029</v>
       </c>
       <c r="M92" s="8">
         <f t="shared" si="7"/>
-        <v>8127</v>
+        <v>0</v>
       </c>
       <c r="N92" s="4">
         <v>3728</v>
@@ -9431,12 +9395,12 @@
       <c r="G93" s="4">
         <v>43720</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I93" s="8" t="e">
+      <c r="H93" s="4">
+        <v>112853</v>
+      </c>
+      <c r="I93" s="8">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="J93" s="4">
         <v>1102</v>
@@ -9445,11 +9409,11 @@
         <v>1057</v>
       </c>
       <c r="L93" s="4">
-        <v>2169</v>
+        <v>2159</v>
       </c>
       <c r="M93" s="8">
         <f t="shared" si="7"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="N93" s="4">
         <v>801</v>
@@ -9523,12 +9487,12 @@
       <c r="G94" s="4">
         <v>34369</v>
       </c>
-      <c r="H94" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I94" s="8" t="e">
+      <c r="H94" s="4">
+        <v>73483</v>
+      </c>
+      <c r="I94" s="8">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="J94" s="4">
         <v>1260</v>
@@ -9810,14 +9774,14 @@
         <v>1141</v>
       </c>
       <c r="K97" s="4">
-        <v>3107</v>
+        <v>1107</v>
       </c>
       <c r="L97" s="4">
         <v>2248</v>
       </c>
       <c r="M97" s="8">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N97" s="4">
         <v>956</v>
@@ -9886,7 +9850,7 @@
         <v>18769</v>
       </c>
       <c r="F98" s="4">
-        <v>63160</v>
+        <v>53160</v>
       </c>
       <c r="G98" s="4">
         <v>39040</v>
@@ -9896,7 +9860,7 @@
       </c>
       <c r="I98" s="8">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J98" s="4">
         <v>1331</v>
@@ -9984,14 +9948,14 @@
         <v>926235</v>
       </c>
       <c r="H99" s="4">
-        <v>2087637</v>
+        <v>2067637</v>
       </c>
       <c r="I99" s="8">
         <f t="shared" si="6"/>
-        <v>-20000</v>
+        <v>0</v>
       </c>
       <c r="J99" s="4">
-        <v>20209</v>
+        <v>26289</v>
       </c>
       <c r="K99" s="4">
         <v>24788</v>
@@ -10001,7 +9965,7 @@
       </c>
       <c r="M99" s="8">
         <f t="shared" si="7"/>
-        <v>-6080</v>
+        <v>0</v>
       </c>
       <c r="N99" s="4">
         <v>18480</v>
@@ -10070,17 +10034,17 @@
         <v>5386</v>
       </c>
       <c r="F100" s="4">
-        <v>46670</v>
+        <v>46570</v>
       </c>
       <c r="G100" s="4">
         <v>29083</v>
       </c>
-      <c r="H100" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I100" s="8" t="e">
+      <c r="H100" s="4">
+        <v>75653</v>
+      </c>
+      <c r="I100" s="8">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="J100" s="4">
         <v>1589</v>
@@ -10089,11 +10053,11 @@
         <v>1541</v>
       </c>
       <c r="L100" s="4">
-        <v>3180</v>
+        <v>3130</v>
       </c>
       <c r="M100" s="8">
         <f t="shared" si="7"/>
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="N100" s="4">
         <v>969</v>
@@ -10162,7 +10126,7 @@
         <v>38520</v>
       </c>
       <c r="F101" s="4">
-        <v>78604</v>
+        <v>78504</v>
       </c>
       <c r="G101" s="4">
         <v>68729</v>
@@ -10172,20 +10136,20 @@
       </c>
       <c r="I101" s="8">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="4">
         <v>2686</v>
       </c>
       <c r="K101" s="4">
-        <v>2628</v>
+        <v>2523</v>
       </c>
       <c r="L101" s="4">
         <v>5209</v>
       </c>
       <c r="M101" s="8">
         <f t="shared" si="7"/>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="N101" s="4">
         <v>2182</v>
@@ -10273,11 +10237,11 @@
         <v>1981</v>
       </c>
       <c r="L102" s="4">
-        <v>4188</v>
+        <v>4183</v>
       </c>
       <c r="M102" s="8">
         <f t="shared" si="7"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N102" s="4">
         <v>1484</v>
@@ -10714,30 +10678,30 @@
         <v>82181</v>
       </c>
       <c r="F107" s="4">
-        <v>75043</v>
+        <v>75943</v>
       </c>
       <c r="G107" s="4">
         <v>67014</v>
       </c>
       <c r="H107" s="4">
-        <v>142967</v>
+        <v>142957</v>
       </c>
       <c r="I107" s="8">
         <f t="shared" si="6"/>
-        <v>-910</v>
+        <v>0</v>
       </c>
       <c r="J107" s="4">
         <v>2405</v>
       </c>
       <c r="K107" s="4">
-        <v>2873</v>
+        <v>2373</v>
       </c>
       <c r="L107" s="4">
-        <v>4776</v>
+        <v>4778</v>
       </c>
       <c r="M107" s="8">
         <f t="shared" si="7"/>
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="N107" s="4">
         <v>2425</v>
@@ -10903,15 +10867,15 @@
       <c r="G109" s="4">
         <v>5141</v>
       </c>
-      <c r="H109" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I109" s="8" t="e">
+      <c r="H109" s="4">
+        <v>11929</v>
+      </c>
+      <c r="I109" s="8">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="J109" s="4">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="K109" s="4">
         <v>336</v>
@@ -10921,7 +10885,7 @@
       </c>
       <c r="M109" s="8">
         <f t="shared" si="7"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N109" s="4">
         <v>306</v>
@@ -10978,7 +10942,7 @@
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="B110" s="2">
         <v>10333448</v>
@@ -10995,15 +10959,15 @@
       <c r="G110" s="4">
         <v>470302</v>
       </c>
-      <c r="H110" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I110" s="8" t="e">
+      <c r="H110" s="4">
+        <v>1112097</v>
+      </c>
+      <c r="I110" s="8">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="J110" s="4">
-        <v>19000</v>
+        <v>19666</v>
       </c>
       <c r="K110" s="4">
         <v>18803</v>
@@ -11013,7 +10977,7 @@
       </c>
       <c r="M110" s="8">
         <f t="shared" si="7"/>
-        <v>-666</v>
+        <v>0</v>
       </c>
       <c r="N110" s="4">
         <v>15001</v>
@@ -11021,12 +10985,12 @@
       <c r="O110" s="4">
         <v>11415</v>
       </c>
-      <c r="P110" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q110" s="8" t="e">
+      <c r="P110" s="4">
+        <v>26416</v>
+      </c>
+      <c r="Q110" s="8">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="R110" s="4">
         <v>4739876</v>
@@ -11070,7 +11034,7 @@
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2">
         <v>1525543</v>
@@ -11085,14 +11049,14 @@
         <v>101891</v>
       </c>
       <c r="G111" s="4">
-        <v>102456</v>
+        <v>102455</v>
       </c>
       <c r="H111" s="4">
         <v>204346</v>
       </c>
       <c r="I111" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" s="4">
         <v>3693</v>
@@ -11162,7 +11126,7 @@
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2">
         <v>487501</v>
@@ -11254,16 +11218,16 @@
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2">
         <v>1194000</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F113" s="4">
         <v>113400</v>
@@ -11279,26 +11243,26 @@
         <v>0</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M113" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P113" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q113" s="8" t="e">
         <f t="shared" si="8"/>
@@ -11318,26 +11282,26 @@
         <v>0</v>
       </c>
       <c r="V113" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W113" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X113" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y113" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z113" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA113" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC113" s="8" t="e">
         <f t="shared" si="11"/>
@@ -11346,16 +11310,16 @@
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2">
         <v>862000</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F114" s="4">
         <v>36200</v>
@@ -11363,34 +11327,34 @@
       <c r="G114" s="4">
         <v>33800</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I114" s="8" t="e">
+      <c r="H114" s="4">
+        <v>70000</v>
+      </c>
+      <c r="I114" s="8">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M114" s="8" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P114" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q114" s="8" t="e">
         <f t="shared" si="8"/>
@@ -11402,34 +11366,34 @@
       <c r="S114" s="4">
         <v>365900</v>
       </c>
-      <c r="T114" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="U114" s="8" t="e">
+      <c r="T114" s="4">
+        <v>792000</v>
+      </c>
+      <c r="U114" s="8">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="V114" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W114" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X114" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y114" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z114" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA114" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC114" s="8" t="e">
         <f t="shared" si="11"/>
@@ -11438,7 +11402,7 @@
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2">
         <v>1291672</v>
@@ -11453,14 +11417,14 @@
         <v>58690</v>
       </c>
       <c r="G115" s="4">
-        <v>49284</v>
+        <v>49234</v>
       </c>
       <c r="H115" s="4">
         <v>107924</v>
       </c>
       <c r="I115" s="8">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J115" s="4">
         <v>2417</v>
@@ -11530,7 +11494,7 @@
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2">
         <v>1985311</v>
@@ -11542,20 +11506,20 @@
         <v>36672</v>
       </c>
       <c r="F116" s="4">
-        <v>163116</v>
+        <v>163115</v>
       </c>
       <c r="G116" s="4">
         <v>161515</v>
       </c>
       <c r="H116" s="4">
-        <v>824680</v>
+        <v>324630</v>
       </c>
       <c r="I116" s="8">
         <f t="shared" si="6"/>
-        <v>-500049</v>
+        <v>0</v>
       </c>
       <c r="J116" s="4">
-        <v>2043</v>
+        <v>2943</v>
       </c>
       <c r="K116" s="4">
         <v>2742</v>
@@ -11565,7 +11529,7 @@
       </c>
       <c r="M116" s="8">
         <f t="shared" si="7"/>
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="N116" s="4">
         <v>1648</v>
@@ -11622,7 +11586,7 @@
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2">
         <v>823885</v>
@@ -11634,7 +11598,7 @@
         <v>23407</v>
       </c>
       <c r="F117" s="4">
-        <v>22625</v>
+        <v>22525</v>
       </c>
       <c r="G117" s="4">
         <v>20320</v>
@@ -11644,7 +11608,7 @@
       </c>
       <c r="I117" s="8">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J117" s="4">
         <v>922</v>
@@ -11714,7 +11678,7 @@
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2">
         <v>818260</v>
@@ -11745,11 +11709,11 @@
         <v>1110</v>
       </c>
       <c r="L118" s="4">
-        <v>2806</v>
+        <v>2306</v>
       </c>
       <c r="M118" s="8">
         <f t="shared" si="7"/>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="N118" s="4">
         <v>756</v>
@@ -11806,7 +11770,7 @@
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2">
         <v>2116000</v>
@@ -11898,7 +11862,7 @@
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2">
         <v>11104172</v>
@@ -11910,7 +11874,7 @@
         <v>200535</v>
       </c>
       <c r="F120" s="4">
-        <v>790993</v>
+        <v>790693</v>
       </c>
       <c r="G120" s="4">
         <v>721414</v>
@@ -11920,7 +11884,7 @@
       </c>
       <c r="I120" s="8">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J120" s="4">
         <v>19882</v>
@@ -11990,7 +11954,7 @@
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2">
         <v>34387543</v>
@@ -12008,24 +11972,24 @@
         <v>2117951</v>
       </c>
       <c r="H121" s="4">
-        <v>4091841</v>
+        <v>4691841</v>
       </c>
       <c r="I121" s="8">
         <f t="shared" si="6"/>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="J121" s="4">
-        <v>5037</v>
+        <v>65837</v>
       </c>
       <c r="K121" s="4">
-        <v>2022</v>
+        <v>62622</v>
       </c>
       <c r="L121" s="4">
         <v>128459</v>
       </c>
       <c r="M121" s="8">
         <f t="shared" si="7"/>
-        <v>-121400</v>
+        <v>0</v>
       </c>
       <c r="N121" s="4">
         <v>47724</v>
@@ -12034,7 +11998,7 @@
         <v>38407</v>
       </c>
       <c r="P121" s="4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="Q121" s="8" t="e">
         <f t="shared" si="8"/>
@@ -12082,7 +12046,7 @@
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2">
         <v>174074878</v>
@@ -12094,30 +12058,30 @@
         <v>4228368</v>
       </c>
       <c r="F122" s="4">
-        <v>12734137</v>
+        <v>12794137</v>
       </c>
       <c r="G122" s="4">
         <v>11904740</v>
       </c>
       <c r="H122" s="4">
-        <v>24098877</v>
+        <v>24698877</v>
       </c>
       <c r="I122" s="8">
         <f t="shared" si="6"/>
-        <v>540000</v>
+        <v>0</v>
       </c>
       <c r="J122" s="4">
-        <v>300334</v>
+        <v>366334</v>
       </c>
       <c r="K122" s="4">
-        <v>340598</v>
+        <v>346598</v>
       </c>
       <c r="L122" s="4">
         <v>712932</v>
       </c>
       <c r="M122" s="8">
         <f t="shared" si="7"/>
-        <v>-72000</v>
+        <v>0</v>
       </c>
       <c r="N122" s="4">
         <v>280402</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC13FDD-9BD2-44B0-BF38-2079B8927184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACD8436-C7D5-4C8C-97E2-C259970B9851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
+    <workbookView xWindow="57465" yWindow="75" windowWidth="29190" windowHeight="23205" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="145">
   <si>
     <t>губ</t>
   </si>
@@ -463,24 +468,6 @@
   </si>
   <si>
     <t>чс-уез-о YY</t>
-  </si>
-  <si>
-    <t>353597В</t>
-  </si>
-  <si>
-    <t>115І144І</t>
-  </si>
-  <si>
-    <t>1(985421</t>
-  </si>
-  <si>
-    <t>78П6084</t>
-  </si>
-  <si>
-    <t>700В0С</t>
-  </si>
-  <si>
-    <t>8613!</t>
   </si>
   <si>
     <t>Итого в Сибири</t>
@@ -890,35 +877,38 @@
   <dimension ref="A1:AC132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M67" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Z92" sqref="Z92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.26171875" customWidth="1"/>
+    <col min="2" max="2" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.41796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.41796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.41796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.41796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.83984375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +994,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1096,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1165,14 +1155,14 @@
         <v>39808</v>
       </c>
       <c r="W3" s="4">
-        <v>33272</v>
+        <v>38272</v>
       </c>
       <c r="X3" s="4">
         <v>78080</v>
       </c>
       <c r="Y3" s="8">
         <f t="shared" ref="Y3:Y66" si="4">V3+W3-X3</f>
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4">
         <v>27829</v>
@@ -1188,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1247,14 +1237,14 @@
         <v>1052748</v>
       </c>
       <c r="T4" s="4">
-        <v>2920448</v>
+        <v>2020448</v>
       </c>
       <c r="U4" s="8">
         <f t="shared" si="3"/>
-        <v>-900000</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4">
-        <v>40321</v>
+        <v>48921</v>
       </c>
       <c r="W4" s="4">
         <v>47216</v>
@@ -1264,7 +1254,7 @@
       </c>
       <c r="Y4" s="8">
         <f t="shared" si="4"/>
-        <v>-8600</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4">
         <v>33528</v>
@@ -1280,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1372,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1556,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1609,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="4">
-        <v>667111</v>
+        <v>657111</v>
       </c>
       <c r="S8" s="4">
         <v>706610</v>
@@ -1619,23 +1609,23 @@
       </c>
       <c r="U8" s="8">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="V8" s="4">
-        <v>266511</v>
+        <v>26651</v>
       </c>
       <c r="W8" s="4">
         <v>25701</v>
       </c>
       <c r="X8" s="4">
-        <v>52852</v>
+        <v>52352</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="4"/>
-        <v>239360</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="4">
-        <v>18128</v>
+        <v>18123</v>
       </c>
       <c r="AA8" s="4">
         <v>16047</v>
@@ -1645,10 +1635,10 @@
       </c>
       <c r="AC8" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1701,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="4">
-        <v>763340</v>
+        <v>753340</v>
       </c>
       <c r="S9" s="4">
         <v>823873</v>
@@ -1711,7 +1701,7 @@
       </c>
       <c r="U9" s="8">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="V9" s="4">
         <v>34732</v>
@@ -1740,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1819,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="4">
-        <v>92419</v>
+        <v>62419</v>
       </c>
       <c r="AA10" s="4">
         <v>54405</v>
@@ -1829,10 +1819,10 @@
       </c>
       <c r="AC10" s="8">
         <f t="shared" si="5"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1901,30 +1891,30 @@
         <v>45142</v>
       </c>
       <c r="W11" s="4">
-        <v>48217</v>
+        <v>43217</v>
       </c>
       <c r="X11" s="4">
-        <v>68359</v>
+        <v>88359</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="4"/>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="4">
-        <v>82918</v>
+        <v>32918</v>
       </c>
       <c r="AA11" s="4">
-        <v>29840</v>
+        <v>29340</v>
       </c>
       <c r="AB11">
         <v>62258</v>
       </c>
       <c r="AC11" s="8">
         <f t="shared" si="5"/>
-        <v>50500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1977,46 +1967,46 @@
         <v>0</v>
       </c>
       <c r="R12" s="4">
-        <v>565287</v>
+        <v>565237</v>
       </c>
       <c r="S12" s="4">
-        <v>642201</v>
+        <v>642261</v>
       </c>
       <c r="T12" s="4">
-        <v>1207493</v>
+        <v>1207498</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="3"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="V12" s="4">
         <v>21657</v>
       </c>
       <c r="W12" s="4">
-        <v>20668</v>
+        <v>20868</v>
       </c>
       <c r="X12" s="4">
         <v>42525</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="4"/>
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="4">
         <v>16105</v>
       </c>
       <c r="AA12" s="4">
-        <v>16027</v>
+        <v>15027</v>
       </c>
       <c r="AB12">
         <v>31132</v>
       </c>
       <c r="AC12" s="8">
         <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2069,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="4">
-        <v>7914151</v>
+        <v>791415</v>
       </c>
       <c r="S13" s="4">
         <v>893100</v>
@@ -2079,7 +2069,7 @@
       </c>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>7122736</v>
+        <v>0</v>
       </c>
       <c r="V13" s="4">
         <v>38515</v>
@@ -2088,11 +2078,11 @@
         <v>36619</v>
       </c>
       <c r="X13" s="6">
-        <v>5134</v>
+        <v>75134</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="4"/>
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="4">
         <v>26363</v>
@@ -2108,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2164,17 +2154,17 @@
         <v>931650</v>
       </c>
       <c r="S14" s="4">
-        <v>968466</v>
+        <v>953456</v>
       </c>
       <c r="T14" s="4">
         <v>1885106</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" si="3"/>
-        <v>15010</v>
+        <v>0</v>
       </c>
       <c r="V14" s="4">
-        <v>38062</v>
+        <v>39062</v>
       </c>
       <c r="W14" s="4">
         <v>37424</v>
@@ -2184,7 +2174,7 @@
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="4"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="4">
         <v>26728</v>
@@ -2200,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2269,14 +2259,14 @@
         <v>36532</v>
       </c>
       <c r="W15" s="4">
-        <v>36501</v>
+        <v>35501</v>
       </c>
       <c r="X15" s="4">
-        <v>72053</v>
+        <v>72033</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="4"/>
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="4">
         <v>27939</v>
@@ -2292,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2384,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2443,11 +2433,11 @@
         <v>744083</v>
       </c>
       <c r="T17" s="4">
-        <v>1393632</v>
+        <v>1398632</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="V17" s="4">
         <v>32668</v>
@@ -2476,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2568,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2624,17 +2614,17 @@
         <v>878264</v>
       </c>
       <c r="S19" s="4">
-        <v>893546</v>
+        <v>898546</v>
       </c>
       <c r="T19" s="4">
         <v>1776810</v>
       </c>
       <c r="U19" s="8">
         <f t="shared" si="3"/>
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="V19" s="4">
-        <v>88554</v>
+        <v>38554</v>
       </c>
       <c r="W19" s="4">
         <v>36433</v>
@@ -2644,7 +2634,7 @@
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="4">
         <v>29093</v>
@@ -2653,14 +2643,14 @@
         <v>26199</v>
       </c>
       <c r="AB19">
-        <v>56292</v>
+        <v>55292</v>
       </c>
       <c r="AC19" s="8">
         <f t="shared" si="5"/>
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2752,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2811,11 +2801,11 @@
         <v>1229700</v>
       </c>
       <c r="T21" s="4">
-        <v>2497800</v>
+        <v>2407800</v>
       </c>
       <c r="U21" s="8">
         <f t="shared" si="3"/>
-        <v>-90000</v>
+        <v>0</v>
       </c>
       <c r="V21" s="4">
         <v>56364</v>
@@ -2844,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2936,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2994,12 +2984,12 @@
       <c r="S23" s="4">
         <v>1744809</v>
       </c>
-      <c r="T23" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="U23" s="8" t="e">
+      <c r="T23" s="4">
+        <v>3535973</v>
+      </c>
+      <c r="U23" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="V23" s="4">
         <v>87092</v>
@@ -3018,17 +3008,17 @@
         <v>54705</v>
       </c>
       <c r="AA23" s="4">
-        <v>60223</v>
+        <v>50223</v>
       </c>
       <c r="AB23">
         <v>104928</v>
       </c>
       <c r="AC23" s="8">
         <f t="shared" si="5"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3081,17 +3071,17 @@
         <v>0</v>
       </c>
       <c r="R24" s="4">
-        <v>1770778</v>
+        <v>1770776</v>
       </c>
       <c r="S24" s="4">
-        <v>1791583</v>
+        <v>1791588</v>
       </c>
       <c r="T24" s="4">
-        <v>3662364</v>
+        <v>3562364</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="3"/>
-        <v>-100003</v>
+        <v>0</v>
       </c>
       <c r="V24" s="4">
         <v>86513</v>
@@ -3107,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="4">
-        <v>65009</v>
+        <v>55009</v>
       </c>
       <c r="AA24" s="4">
         <v>50753</v>
@@ -3117,10 +3107,10 @@
       </c>
       <c r="AC24" s="8">
         <f t="shared" si="5"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3212,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3291,20 +3281,20 @@
         <v>0</v>
       </c>
       <c r="Z26" s="4">
-        <v>30766</v>
+        <v>30756</v>
       </c>
       <c r="AA26" s="4">
         <v>28175</v>
       </c>
       <c r="AB26">
-        <v>68931</v>
+        <v>58931</v>
       </c>
       <c r="AC26" s="8">
         <f t="shared" si="5"/>
-        <v>-9990</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3396,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3455,11 +3445,11 @@
         <v>950590</v>
       </c>
       <c r="T28" s="4">
-        <v>1866638</v>
+        <v>1865638</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="3"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="V28" s="4">
         <v>47516</v>
@@ -3488,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3580,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3665,14 +3655,14 @@
         <v>39894</v>
       </c>
       <c r="AB30">
-        <v>80766</v>
+        <v>80765</v>
       </c>
       <c r="AC30" s="8">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3731,11 +3721,11 @@
         <v>5544187</v>
       </c>
       <c r="T31" s="4">
-        <v>10934861</v>
+        <v>10984861</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="3"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="V31" s="4">
         <v>259786</v>
@@ -3744,11 +3734,11 @@
         <v>249137</v>
       </c>
       <c r="X31" s="4">
-        <v>569923</v>
+        <v>508923</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="4"/>
-        <v>-61000</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="4">
         <v>174829</v>
@@ -3757,14 +3747,14 @@
         <v>163557</v>
       </c>
       <c r="AB31">
-        <v>338336</v>
+        <v>338386</v>
       </c>
       <c r="AC31" s="8">
         <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -3817,20 +3807,20 @@
         <v>0</v>
       </c>
       <c r="R32" s="4">
-        <v>1791168</v>
+        <v>1791198</v>
       </c>
       <c r="S32" s="4">
         <v>1866345</v>
       </c>
       <c r="T32" s="4">
-        <v>8667543</v>
+        <v>3657543</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="3"/>
-        <v>-5010030</v>
+        <v>0</v>
       </c>
       <c r="V32" s="4">
-        <v>84025</v>
+        <v>94025</v>
       </c>
       <c r="W32" s="4">
         <v>89731</v>
@@ -3840,10 +3830,10 @@
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="4"/>
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="4">
-        <v>88142</v>
+        <v>68142</v>
       </c>
       <c r="AA32" s="4">
         <v>64608</v>
@@ -3853,10 +3843,10 @@
       </c>
       <c r="AC32" s="8">
         <f t="shared" si="5"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -3915,11 +3905,11 @@
         <v>1872811</v>
       </c>
       <c r="T33" s="4">
-        <v>3626123</v>
+        <v>3625123</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="3"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="V33" s="4">
         <v>99766</v>
@@ -3948,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -4004,14 +3994,14 @@
         <v>1425375</v>
       </c>
       <c r="S34" s="4">
-        <v>1630334</v>
+        <v>1530334</v>
       </c>
       <c r="T34" s="4">
         <v>2955709</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="3"/>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="V34" s="4">
         <v>70811</v>
@@ -4020,11 +4010,11 @@
         <v>67445</v>
       </c>
       <c r="X34" s="4">
-        <v>138266</v>
+        <v>138256</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="4"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="4">
         <v>43394</v>
@@ -4040,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -4132,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -4224,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -4316,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -4374,12 +4364,12 @@
       <c r="S38" s="4">
         <v>559198</v>
       </c>
-      <c r="T38" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="U38" s="8" t="e">
+      <c r="T38" s="4">
+        <v>1151144</v>
+      </c>
+      <c r="U38" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="V38" s="4">
         <v>22049</v>
@@ -4408,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -4500,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -4579,20 +4569,20 @@
         <v>0</v>
       </c>
       <c r="Z40" s="4">
-        <v>39226</v>
+        <v>39225</v>
       </c>
       <c r="AA40" s="4">
-        <v>36139</v>
+        <v>36189</v>
       </c>
       <c r="AB40">
         <v>75414</v>
       </c>
       <c r="AC40" s="8">
         <f t="shared" si="5"/>
-        <v>-49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4635,14 +4625,14 @@
         <v>4084</v>
       </c>
       <c r="O41" s="4">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="P41" s="4">
         <v>7409</v>
       </c>
       <c r="Q41" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="4">
         <v>1683523</v>
@@ -4684,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -4730,24 +4720,24 @@
         <v>2308</v>
       </c>
       <c r="P42" s="4">
-        <v>6168</v>
+        <v>5168</v>
       </c>
       <c r="Q42" s="8">
         <f t="shared" si="2"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="R42" s="4">
         <v>1344730</v>
       </c>
       <c r="S42" s="4">
-        <v>1332653</v>
+        <v>1332553</v>
       </c>
       <c r="T42" s="4">
-        <v>2677288</v>
+        <v>2677283</v>
       </c>
       <c r="U42" s="8">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="V42" s="4">
         <v>54870</v>
@@ -4769,14 +4759,14 @@
         <v>27534</v>
       </c>
       <c r="AB42">
-        <v>56106</v>
+        <v>58106</v>
       </c>
       <c r="AC42" s="8">
         <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -4816,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="4">
-        <v>12590</v>
+        <v>12599</v>
       </c>
       <c r="O43" s="4">
         <v>10416</v>
@@ -4826,7 +4816,7 @@
       </c>
       <c r="Q43" s="8">
         <f t="shared" si="2"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="R43" s="4">
         <v>4630005</v>
@@ -4842,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="4">
-        <v>186353</v>
+        <v>186953</v>
       </c>
       <c r="W43" s="4">
         <v>176461</v>
@@ -4852,7 +4842,7 @@
       </c>
       <c r="Y43" s="8">
         <f t="shared" si="4"/>
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="4">
         <v>103782</v>
@@ -4868,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -4960,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -5003,27 +4993,27 @@
         <v>3172</v>
       </c>
       <c r="O45" s="4">
-        <v>2669</v>
+        <v>2569</v>
       </c>
       <c r="P45" s="4">
         <v>5741</v>
       </c>
       <c r="Q45" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="4">
         <v>1770967</v>
       </c>
       <c r="S45" s="4">
-        <v>176853</v>
+        <v>1768535</v>
       </c>
       <c r="T45" s="4">
         <v>3539502</v>
       </c>
       <c r="U45" s="8">
         <f t="shared" si="3"/>
-        <v>-1591682</v>
+        <v>0</v>
       </c>
       <c r="V45" s="4">
         <v>70747</v>
@@ -5052,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -5134,17 +5124,17 @@
         <v>43248</v>
       </c>
       <c r="AA46" s="4">
-        <v>89311</v>
+        <v>39311</v>
       </c>
       <c r="AB46">
         <v>82559</v>
       </c>
       <c r="AC46" s="8">
         <f t="shared" si="5"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -5190,11 +5180,11 @@
         <v>523</v>
       </c>
       <c r="P47" s="4">
-        <v>11695</v>
+        <v>1159</v>
       </c>
       <c r="Q47" s="8">
         <f t="shared" si="2"/>
-        <v>-10536</v>
+        <v>0</v>
       </c>
       <c r="R47" s="4">
         <v>440360</v>
@@ -5236,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5294,12 +5284,12 @@
       <c r="S48" s="4">
         <v>6023305</v>
       </c>
-      <c r="T48" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="U48" s="8" t="e">
+      <c r="T48" s="4">
+        <v>11985421</v>
+      </c>
+      <c r="U48" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="V48" s="4">
         <v>229229</v>
@@ -5328,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -5420,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -5466,11 +5456,11 @@
         <v>2728</v>
       </c>
       <c r="P50" s="4">
-        <v>6128</v>
+        <v>6123</v>
       </c>
       <c r="Q50" s="8">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="R50" s="4">
         <v>1464120</v>
@@ -5479,11 +5469,11 @@
         <v>1370919</v>
       </c>
       <c r="T50" s="4">
-        <v>2835089</v>
+        <v>2835039</v>
       </c>
       <c r="U50" s="8">
         <f t="shared" si="3"/>
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="V50" s="4">
         <v>60471</v>
@@ -5512,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -5604,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -5696,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -5736,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="4">
-        <v>4640</v>
+        <v>4540</v>
       </c>
       <c r="O53" s="4">
         <v>3454</v>
@@ -5746,7 +5736,7 @@
       </c>
       <c r="Q53" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R53" s="4">
         <v>826813</v>
@@ -5788,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -5880,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -5952,11 +5942,11 @@
         <v>69643</v>
       </c>
       <c r="X55" s="4">
-        <v>143664</v>
+        <v>143654</v>
       </c>
       <c r="Y55" s="8">
         <f t="shared" si="4"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="4">
         <v>37716</v>
@@ -5972,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -6012,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="4">
-        <v>6182</v>
+        <v>5182</v>
       </c>
       <c r="O56" s="4">
         <v>3901</v>
@@ -6022,20 +6012,20 @@
       </c>
       <c r="Q56" s="8">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R56" s="4">
-        <v>1667144</v>
+        <v>1657144</v>
       </c>
       <c r="S56" s="4">
-        <v>1614608</v>
+        <v>1614508</v>
       </c>
       <c r="T56" s="4">
         <v>3271652</v>
       </c>
       <c r="U56" s="8">
         <f t="shared" si="3"/>
-        <v>10100</v>
+        <v>0</v>
       </c>
       <c r="V56" s="4">
         <v>81253</v>
@@ -6064,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -6120,14 +6110,14 @@
         <v>6583922</v>
       </c>
       <c r="S57" s="4">
-        <v>8262441</v>
+        <v>6262441</v>
       </c>
       <c r="T57" s="4">
         <v>12846363</v>
       </c>
       <c r="U57" s="8">
         <f t="shared" si="3"/>
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="V57" s="4">
         <v>302003</v>
@@ -6156,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -6212,14 +6202,14 @@
         <v>782092</v>
       </c>
       <c r="S58" s="4">
-        <v>798818</v>
+        <v>793818</v>
       </c>
       <c r="T58" s="4">
-        <v>1675910</v>
+        <v>1575910</v>
       </c>
       <c r="U58" s="8">
         <f t="shared" si="3"/>
-        <v>-95000</v>
+        <v>0</v>
       </c>
       <c r="V58" s="4">
         <v>28478</v>
@@ -6228,11 +6218,11 @@
         <v>27300</v>
       </c>
       <c r="X58" s="4">
-        <v>55773</v>
+        <v>55778</v>
       </c>
       <c r="Y58" s="8">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="4">
         <v>16286</v>
@@ -6248,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -6304,14 +6294,14 @@
         <v>977853</v>
       </c>
       <c r="S59" s="4">
-        <v>982500</v>
+        <v>932500</v>
       </c>
       <c r="T59" s="4">
-        <v>1910363</v>
+        <v>1910353</v>
       </c>
       <c r="U59" s="8">
         <f t="shared" si="3"/>
-        <v>49990</v>
+        <v>0</v>
       </c>
       <c r="V59" s="4">
         <v>47334</v>
@@ -6340,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -6380,17 +6370,17 @@
         <v>0</v>
       </c>
       <c r="N60" s="4">
-        <v>1938</v>
+        <v>1928</v>
       </c>
       <c r="O60" s="4">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="P60" s="4">
         <v>3451</v>
       </c>
       <c r="Q60" s="8">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R60" s="4">
         <v>1058284</v>
@@ -6419,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="4">
-        <v>21686</v>
+        <v>21688</v>
       </c>
       <c r="AA60" s="4">
         <v>19482</v>
@@ -6429,10 +6419,10 @@
       </c>
       <c r="AC60" s="8">
         <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -6475,14 +6465,14 @@
         <v>2687</v>
       </c>
       <c r="O61" s="4">
-        <v>2338</v>
+        <v>2333</v>
       </c>
       <c r="P61" s="4">
         <v>5020</v>
       </c>
       <c r="Q61" s="8">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R61" s="4">
         <v>1366431</v>
@@ -6517,14 +6507,14 @@
         <v>23470</v>
       </c>
       <c r="AB61">
-        <v>60356</v>
+        <v>50356</v>
       </c>
       <c r="AC61" s="8">
         <f t="shared" si="5"/>
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -6590,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="4">
-        <v>189624</v>
+        <v>169624</v>
       </c>
       <c r="W62" s="4">
         <v>160422</v>
@@ -6600,7 +6590,7 @@
       </c>
       <c r="Y62" s="8">
         <f t="shared" si="4"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="4">
         <v>95179</v>
@@ -6616,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -6708,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -6748,30 +6738,30 @@
         <v>0</v>
       </c>
       <c r="N64" s="4">
-        <v>2968</v>
+        <v>2963</v>
       </c>
       <c r="O64" s="4">
         <v>2558</v>
       </c>
       <c r="P64" s="4">
-        <v>6521</v>
+        <v>5521</v>
       </c>
       <c r="Q64" s="8">
         <f t="shared" si="2"/>
-        <v>-995</v>
+        <v>0</v>
       </c>
       <c r="R64" s="4">
-        <v>832616</v>
+        <v>832615</v>
       </c>
       <c r="S64" s="4">
-        <v>841136</v>
+        <v>841135</v>
       </c>
       <c r="T64" s="4">
-        <v>1678760</v>
+        <v>1673750</v>
       </c>
       <c r="U64" s="8">
         <f t="shared" si="3"/>
-        <v>-5008</v>
+        <v>0</v>
       </c>
       <c r="V64" s="4">
         <v>25748</v>
@@ -6800,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6856,27 +6846,27 @@
         <v>807499</v>
       </c>
       <c r="S65" s="4">
-        <v>833168</v>
+        <v>833163</v>
       </c>
       <c r="T65" s="4">
         <v>1640662</v>
       </c>
       <c r="U65" s="8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V65" s="4">
-        <v>22850</v>
+        <v>22859</v>
       </c>
       <c r="W65" s="4">
-        <v>213421</v>
+        <v>21342</v>
       </c>
       <c r="X65" s="4">
         <v>44201</v>
       </c>
       <c r="Y65" s="8">
         <f t="shared" si="4"/>
-        <v>192070</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="4">
         <v>15274</v>
@@ -6892,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -6984,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -7030,11 +7020,11 @@
         <v>2093</v>
       </c>
       <c r="P67" s="4">
-        <v>4828</v>
+        <v>4328</v>
       </c>
       <c r="Q67" s="8">
         <f t="shared" ref="Q67:Q122" si="8">N67+O67-P67</f>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="R67" s="4">
         <v>286170</v>
@@ -7043,11 +7033,11 @@
         <v>288189</v>
       </c>
       <c r="T67" s="4">
-        <v>574369</v>
+        <v>574359</v>
       </c>
       <c r="U67" s="8">
         <f t="shared" ref="U67:U122" si="9">R67+S67-T67</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="V67" s="4">
         <v>6685</v>
@@ -7076,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -7116,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="4">
-        <v>6101</v>
+        <v>6161</v>
       </c>
       <c r="O68" s="4">
         <v>4834</v>
@@ -7126,7 +7116,7 @@
       </c>
       <c r="Q68" s="8">
         <f t="shared" si="8"/>
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="R68" s="4">
         <v>492586</v>
@@ -7168,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -7260,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -7313,20 +7303,20 @@
         <v>0</v>
       </c>
       <c r="R70" s="5">
-        <v>971158</v>
+        <v>971156</v>
       </c>
       <c r="S70" s="4">
         <v>1013733</v>
       </c>
       <c r="T70" s="4">
-        <v>1984888</v>
+        <v>1984889</v>
       </c>
       <c r="U70" s="8">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V70" s="4">
-        <v>28239</v>
+        <v>20289</v>
       </c>
       <c r="W70" s="4">
         <v>19678</v>
@@ -7336,7 +7326,7 @@
       </c>
       <c r="Y70" s="8">
         <f t="shared" si="10"/>
-        <v>7950</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="4">
         <v>15428</v>
@@ -7352,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -7421,30 +7411,30 @@
         <v>2421328</v>
       </c>
       <c r="W71" s="4">
-        <v>2305380</v>
+        <v>2305980</v>
       </c>
       <c r="X71" s="4">
         <v>4727308</v>
       </c>
       <c r="Y71" s="8">
         <f t="shared" si="10"/>
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="4">
-        <v>1338415</v>
+        <v>1538415</v>
       </c>
       <c r="AA71" s="4">
         <v>1408022</v>
       </c>
       <c r="AB71">
-        <v>2846437</v>
+        <v>2946437</v>
       </c>
       <c r="AC71" s="8">
         <f t="shared" si="11"/>
-        <v>-100000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -7484,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="4">
-        <v>72948</v>
+        <v>172945</v>
       </c>
       <c r="O72" s="4">
         <v>139645</v>
@@ -7494,23 +7484,23 @@
       </c>
       <c r="Q72" s="8">
         <f t="shared" si="8"/>
-        <v>-99997</v>
+        <v>0</v>
       </c>
       <c r="R72" s="4">
         <v>38612676</v>
       </c>
       <c r="S72" s="4">
-        <v>39903408</v>
-      </c>
-      <c r="T72" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="U72" s="8" t="e">
+        <v>39503408</v>
+      </c>
+      <c r="T72" s="4">
+        <v>78116084</v>
+      </c>
+      <c r="U72" s="8">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="V72" s="4">
-        <v>1805486</v>
+        <v>1805466</v>
       </c>
       <c r="W72" s="4">
         <v>1721753</v>
@@ -7520,7 +7510,7 @@
       </c>
       <c r="Y72" s="8">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="4">
         <v>1168738</v>
@@ -7536,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -7608,11 +7598,11 @@
         <v>475404</v>
       </c>
       <c r="X73" s="4">
-        <v>978582</v>
+        <v>976882</v>
       </c>
       <c r="Y73" s="8">
         <f t="shared" si="10"/>
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="Z73" s="4">
         <v>299359</v>
@@ -7628,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -7687,11 +7677,11 @@
         <v>781400</v>
       </c>
       <c r="T74" s="4">
-        <v>1685400</v>
+        <v>1585400</v>
       </c>
       <c r="U74" s="8">
         <f t="shared" si="9"/>
-        <v>-100000</v>
+        <v>0</v>
       </c>
       <c r="V74" s="4" t="s">
         <v>122</v>
@@ -7720,7 +7710,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -7812,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -7865,17 +7855,17 @@
         <v>#VALUE!</v>
       </c>
       <c r="R76" s="4">
-        <v>646600</v>
+        <v>545600</v>
       </c>
       <c r="S76" s="4">
-        <v>566900</v>
+        <v>556900</v>
       </c>
       <c r="T76" s="4">
         <v>1102500</v>
       </c>
       <c r="U76" s="8">
         <f t="shared" si="9"/>
-        <v>111000</v>
+        <v>0</v>
       </c>
       <c r="V76" s="4" t="s">
         <v>122</v>
@@ -7904,7 +7894,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -7960,14 +7950,14 @@
         <v>460600</v>
       </c>
       <c r="S77" s="4">
-        <v>486800</v>
+        <v>466800</v>
       </c>
       <c r="T77" s="4">
         <v>927400</v>
       </c>
       <c r="U77" s="8">
         <f t="shared" si="9"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="V77" s="4" t="s">
         <v>122</v>
@@ -7996,7 +7986,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -8052,14 +8042,14 @@
         <v>359200</v>
       </c>
       <c r="S78" s="4">
-        <v>341800</v>
-      </c>
-      <c r="T78" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="U78" s="8" t="e">
+        <v>341600</v>
+      </c>
+      <c r="T78" s="4">
+        <v>700800</v>
+      </c>
+      <c r="U78" s="8">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="V78" s="4" t="s">
         <v>122</v>
@@ -8088,7 +8078,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -8180,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -8272,7 +8262,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -8331,11 +8321,11 @@
         <v>349782</v>
       </c>
       <c r="T81" s="4">
-        <v>694659</v>
+        <v>694559</v>
       </c>
       <c r="U81" s="8">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="4">
         <v>9220</v>
@@ -8351,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="Z81" s="4">
-        <v>6760</v>
+        <v>5750</v>
       </c>
       <c r="AA81" s="4">
         <v>5625</v>
@@ -8361,10 +8351,10 @@
       </c>
       <c r="AC81" s="8">
         <f t="shared" si="11"/>
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -8417,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="R82" s="4">
-        <v>596465</v>
+        <v>595465</v>
       </c>
       <c r="S82" s="4">
         <v>587599</v>
@@ -8427,7 +8417,7 @@
       </c>
       <c r="U82" s="8">
         <f t="shared" si="9"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V82" s="4">
         <v>19588</v>
@@ -8456,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -8548,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -8588,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="4">
-        <v>13175</v>
+        <v>13176</v>
       </c>
       <c r="O84" s="4">
         <v>11835</v>
@@ -8598,7 +8588,7 @@
       </c>
       <c r="Q84" s="8">
         <f t="shared" si="8"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R84" s="4">
         <v>4720804</v>
@@ -8617,14 +8607,14 @@
         <v>57037</v>
       </c>
       <c r="W84" s="4">
-        <v>54869</v>
+        <v>54859</v>
       </c>
       <c r="X84" s="4">
         <v>111896</v>
       </c>
       <c r="Y84" s="8">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z84" s="4">
         <v>32828</v>
@@ -8640,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -8680,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="N85" s="4">
-        <v>238875</v>
+        <v>238678</v>
       </c>
       <c r="O85" s="4">
         <v>194092</v>
@@ -8690,33 +8680,33 @@
       </c>
       <c r="Q85" s="8">
         <f t="shared" si="8"/>
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="R85" s="4">
         <v>59364638</v>
       </c>
       <c r="S85" s="4">
-        <v>50315581</v>
+        <v>60315561</v>
       </c>
       <c r="T85" s="4">
         <v>119680199</v>
       </c>
       <c r="U85" s="8">
         <f t="shared" si="9"/>
-        <v>-9999980</v>
+        <v>0</v>
       </c>
       <c r="V85" s="4">
         <v>2478365</v>
       </c>
       <c r="W85" s="4">
-        <v>2350839</v>
+        <v>2360839</v>
       </c>
       <c r="X85" s="4">
         <v>4839204</v>
       </c>
       <c r="Y85" s="8">
         <f t="shared" si="10"/>
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="Z85" s="4">
         <v>1571243</v>
@@ -8732,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -8824,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>124</v>
       </c>
@@ -8916,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -8959,14 +8949,14 @@
         <v>434</v>
       </c>
       <c r="O88" s="4">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="P88" s="4">
         <v>691</v>
       </c>
       <c r="Q88" s="8">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R88" s="4">
         <v>69284</v>
@@ -8988,11 +8978,11 @@
         <v>1635</v>
       </c>
       <c r="X88" s="4">
-        <v>35171</v>
+        <v>3517</v>
       </c>
       <c r="Y88" s="8">
         <f t="shared" si="10"/>
-        <v>-31654</v>
+        <v>0</v>
       </c>
       <c r="Z88" s="4">
         <v>757</v>
@@ -9001,14 +8991,14 @@
         <v>630</v>
       </c>
       <c r="AB88">
-        <v>1337</v>
+        <v>1387</v>
       </c>
       <c r="AC88" s="8">
         <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -9061,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="R89" s="4">
-        <v>317696</v>
+        <v>317695</v>
       </c>
       <c r="S89" s="4">
         <v>310690</v>
@@ -9071,7 +9061,7 @@
       </c>
       <c r="U89" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V89" s="4">
         <v>8000</v>
@@ -9090,17 +9080,17 @@
         <v>6044</v>
       </c>
       <c r="AA89" s="4">
-        <v>6814</v>
+        <v>5814</v>
       </c>
       <c r="AB89">
         <v>11858</v>
       </c>
       <c r="AC89" s="8">
         <f t="shared" si="11"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -9143,27 +9133,27 @@
         <v>987</v>
       </c>
       <c r="O90" s="4">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="P90" s="4">
         <v>1819</v>
       </c>
       <c r="Q90" s="8">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R90" s="4">
-        <v>680716</v>
+        <v>580716</v>
       </c>
       <c r="S90" s="4">
-        <v>624178</v>
+        <v>524173</v>
       </c>
       <c r="T90" s="4">
         <v>1104889</v>
       </c>
       <c r="U90" s="8">
         <f t="shared" si="9"/>
-        <v>200005</v>
+        <v>0</v>
       </c>
       <c r="V90" s="4">
         <v>12789</v>
@@ -9192,7 +9182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -9284,7 +9274,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -9353,17 +9343,17 @@
         <v>74442</v>
       </c>
       <c r="W92" s="4">
-        <v>69620</v>
+        <v>69520</v>
       </c>
       <c r="X92" s="4">
         <v>143962</v>
       </c>
       <c r="Y92" s="8">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z92" s="4">
-        <v>38868</v>
+        <v>38858</v>
       </c>
       <c r="AA92" s="4">
         <v>35777</v>
@@ -9373,10 +9363,10 @@
       </c>
       <c r="AC92" s="8">
         <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -9419,40 +9409,40 @@
         <v>801</v>
       </c>
       <c r="O93" s="4">
-        <v>670</v>
+        <v>570</v>
       </c>
       <c r="P93" s="4">
         <v>1371</v>
       </c>
       <c r="Q93" s="8">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R93" s="4">
-        <v>687133</v>
+        <v>587133</v>
       </c>
       <c r="S93" s="4">
-        <v>604511</v>
+        <v>504511</v>
       </c>
       <c r="T93" s="4">
-        <v>1001644</v>
+        <v>1091644</v>
       </c>
       <c r="U93" s="8">
         <f t="shared" si="9"/>
-        <v>290000</v>
+        <v>0</v>
       </c>
       <c r="V93" s="4">
         <v>13124</v>
       </c>
       <c r="W93" s="4">
-        <v>12668</v>
+        <v>12658</v>
       </c>
       <c r="X93" s="4">
         <v>25782</v>
       </c>
       <c r="Y93" s="8">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z93" s="4">
         <v>6759</v>
@@ -9468,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -9514,27 +9504,27 @@
         <v>744</v>
       </c>
       <c r="P94" s="4">
-        <v>1666</v>
+        <v>1656</v>
       </c>
       <c r="Q94" s="8">
         <f t="shared" si="8"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="R94" s="4">
         <v>616293</v>
       </c>
       <c r="S94" s="4">
-        <v>693258</v>
+        <v>593258</v>
       </c>
       <c r="T94" s="4">
         <v>1209551</v>
       </c>
       <c r="U94" s="8">
         <f t="shared" si="9"/>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="V94" s="4">
-        <v>85853</v>
+        <v>35853</v>
       </c>
       <c r="W94" s="4">
         <v>33834</v>
@@ -9544,7 +9534,7 @@
       </c>
       <c r="Y94" s="8">
         <f t="shared" si="10"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Z94" s="4">
         <v>19695</v>
@@ -9560,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -9613,7 +9603,7 @@
         <v>0</v>
       </c>
       <c r="R95" s="4">
-        <v>634730</v>
+        <v>534730</v>
       </c>
       <c r="S95" s="4">
         <v>492578</v>
@@ -9623,36 +9613,36 @@
       </c>
       <c r="U95" s="8">
         <f t="shared" si="9"/>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="V95" s="4">
         <v>24088</v>
       </c>
       <c r="W95" s="4">
-        <v>23495</v>
+        <v>22495</v>
       </c>
       <c r="X95" s="4">
         <v>46583</v>
       </c>
       <c r="Y95" s="8">
         <f t="shared" si="10"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z95" s="4">
-        <v>12691</v>
+        <v>12891</v>
       </c>
       <c r="AA95" s="4">
         <v>11442</v>
       </c>
       <c r="AB95">
-        <v>24358</v>
+        <v>24333</v>
       </c>
       <c r="AC95" s="8">
         <f t="shared" si="11"/>
-        <v>-225</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -9698,24 +9688,24 @@
         <v>2261</v>
       </c>
       <c r="P96" s="4">
-        <v>6114</v>
+        <v>5114</v>
       </c>
       <c r="Q96" s="8">
         <f t="shared" si="8"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="R96" s="4">
-        <v>658707</v>
+        <v>556707</v>
       </c>
       <c r="S96" s="4">
-        <v>482536</v>
+        <v>482535</v>
       </c>
       <c r="T96" s="4">
         <v>1039242</v>
       </c>
       <c r="U96" s="8">
         <f t="shared" si="9"/>
-        <v>102001</v>
+        <v>0</v>
       </c>
       <c r="V96" s="4">
         <v>22203</v>
@@ -9744,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -9787,27 +9777,27 @@
         <v>956</v>
       </c>
       <c r="O97" s="4">
-        <v>621</v>
+        <v>521</v>
       </c>
       <c r="P97" s="4">
         <v>1477</v>
       </c>
       <c r="Q97" s="8">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R97" s="4">
-        <v>61194</v>
+        <v>51194</v>
       </c>
       <c r="S97" s="4">
-        <v>36575</v>
+        <v>35575</v>
       </c>
       <c r="T97" s="4">
         <v>86769</v>
       </c>
       <c r="U97" s="8">
         <f t="shared" si="9"/>
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="V97" s="4">
         <v>1747</v>
@@ -9829,14 +9819,14 @@
         <v>617</v>
       </c>
       <c r="AB97">
-        <v>1542</v>
+        <v>1342</v>
       </c>
       <c r="AC97" s="8">
         <f t="shared" si="11"/>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -9895,11 +9885,11 @@
         <v>387621</v>
       </c>
       <c r="T98" s="4">
-        <v>626419</v>
+        <v>826419</v>
       </c>
       <c r="U98" s="8">
         <f t="shared" si="9"/>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="V98" s="4">
         <v>17797</v>
@@ -9928,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -9981,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="R99" s="4">
-        <v>5880966</v>
+        <v>5680966</v>
       </c>
       <c r="S99" s="4">
         <v>5201420</v>
@@ -9991,7 +9981,7 @@
       </c>
       <c r="U99" s="8">
         <f t="shared" si="9"/>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="V99" s="4">
         <v>222774</v>
@@ -10010,17 +10000,17 @@
         <v>121888</v>
       </c>
       <c r="AA99" s="4">
-        <v>109</v>
+        <v>110109</v>
       </c>
       <c r="AB99">
         <v>231997</v>
       </c>
       <c r="AC99" s="8">
         <f t="shared" si="11"/>
-        <v>-110000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -10099,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="Z100" s="4">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="AA100" s="4">
         <v>1604</v>
@@ -10109,10 +10099,10 @@
       </c>
       <c r="AC100" s="8">
         <f t="shared" si="11"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -10168,14 +10158,14 @@
         <v>503570</v>
       </c>
       <c r="S101" s="4">
-        <v>468406</v>
+        <v>468405</v>
       </c>
       <c r="T101" s="4">
         <v>971975</v>
       </c>
       <c r="U101" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V101" s="4">
         <v>27660</v>
@@ -10204,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -10289,14 +10279,14 @@
         <v>9011</v>
       </c>
       <c r="AB102">
-        <v>18986</v>
+        <v>18985</v>
       </c>
       <c r="AC102" s="8">
         <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -10336,17 +10326,17 @@
         <v>0</v>
       </c>
       <c r="N103" s="4">
-        <v>1102</v>
+        <v>1702</v>
       </c>
       <c r="O103" s="4">
         <v>1550</v>
       </c>
       <c r="P103" s="4">
-        <v>3262</v>
+        <v>3252</v>
       </c>
       <c r="Q103" s="8">
         <f t="shared" si="8"/>
-        <v>-610</v>
+        <v>0</v>
       </c>
       <c r="R103" s="4">
         <v>320473</v>
@@ -10355,11 +10345,11 @@
         <v>277354</v>
       </c>
       <c r="T103" s="4">
-        <v>697827</v>
+        <v>597827</v>
       </c>
       <c r="U103" s="8">
         <f t="shared" si="9"/>
-        <v>-100000</v>
+        <v>0</v>
       </c>
       <c r="V103" s="4">
         <v>13209</v>
@@ -10368,11 +10358,11 @@
         <v>12183</v>
       </c>
       <c r="X103" s="4">
-        <v>26392</v>
+        <v>25392</v>
       </c>
       <c r="Y103" s="8">
         <f t="shared" si="10"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="Z103" s="4">
         <v>8940</v>
@@ -10381,14 +10371,14 @@
         <v>7614</v>
       </c>
       <c r="AB103">
-        <v>16564</v>
+        <v>16554</v>
       </c>
       <c r="AC103" s="8">
         <f t="shared" si="11"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -10457,14 +10447,14 @@
         <v>317</v>
       </c>
       <c r="W104" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X104" s="4">
         <v>622</v>
       </c>
       <c r="Y104" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z104" s="4">
         <v>240</v>
@@ -10480,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -10552,11 +10542,11 @@
         <v>6930</v>
       </c>
       <c r="X105" s="4">
-        <v>16087</v>
+        <v>15087</v>
       </c>
       <c r="Y105" s="8">
         <f t="shared" si="10"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="Z105" s="4">
         <v>3447</v>
@@ -10572,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -10631,11 +10621,11 @@
         <v>2210</v>
       </c>
       <c r="T106" s="4">
-        <v>5503</v>
+        <v>5593</v>
       </c>
       <c r="U106" s="8">
         <f t="shared" si="9"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="V106" s="4">
         <v>112</v>
@@ -10664,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -10717,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="R107" s="4">
-        <v>982669</v>
+        <v>982569</v>
       </c>
       <c r="S107" s="4">
         <v>977768</v>
@@ -10727,10 +10717,10 @@
       </c>
       <c r="U107" s="8">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V107" s="4">
-        <v>56449</v>
+        <v>55449</v>
       </c>
       <c r="W107" s="4">
         <v>52688</v>
@@ -10740,7 +10730,7 @@
       </c>
       <c r="Y107" s="8">
         <f t="shared" si="10"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z107" s="4">
         <v>40460</v>
@@ -10756,7 +10746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -10796,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="N108" s="4">
-        <v>3309</v>
+        <v>3809</v>
       </c>
       <c r="O108" s="4">
         <v>2929</v>
@@ -10806,20 +10796,20 @@
       </c>
       <c r="Q108" s="8">
         <f t="shared" si="8"/>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="R108" s="4">
         <v>1990447</v>
       </c>
       <c r="S108" s="4">
-        <v>1951346</v>
+        <v>1951345</v>
       </c>
       <c r="T108" s="4">
         <v>3941792</v>
       </c>
       <c r="U108" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V108" s="4">
         <v>106507</v>
@@ -10841,14 +10831,14 @@
         <v>65040</v>
       </c>
       <c r="AB108">
-        <v>130078</v>
+        <v>130073</v>
       </c>
       <c r="AC108" s="8">
         <f t="shared" si="11"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -10927,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="Z109" s="4">
-        <v>2606</v>
+        <v>2506</v>
       </c>
       <c r="AA109" s="4">
         <v>2331</v>
@@ -10937,12 +10927,12 @@
       </c>
       <c r="AC109" s="8">
         <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2">
         <v>10333448</v>
@@ -11019,20 +11009,20 @@
         <v>0</v>
       </c>
       <c r="Z110" s="4">
-        <v>51225</v>
+        <v>151225</v>
       </c>
       <c r="AA110" s="4">
         <v>142421</v>
       </c>
       <c r="AB110">
-        <v>2936461</v>
+        <v>293646</v>
       </c>
       <c r="AC110" s="8">
         <f t="shared" si="11"/>
-        <v>-2742815</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -11078,24 +11068,24 @@
         <v>2514</v>
       </c>
       <c r="P111" s="4">
-        <v>6061</v>
+        <v>5051</v>
       </c>
       <c r="Q111" s="8">
         <f t="shared" si="8"/>
-        <v>-1010</v>
+        <v>0</v>
       </c>
       <c r="R111" s="4">
         <v>683192</v>
       </c>
       <c r="S111" s="4">
-        <v>638006</v>
+        <v>638005</v>
       </c>
       <c r="T111" s="4">
         <v>1321197</v>
       </c>
       <c r="U111" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V111" s="4">
         <v>28881</v>
@@ -11124,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -11183,24 +11173,24 @@
         <v>190310</v>
       </c>
       <c r="T112" s="4">
-        <v>416008</v>
+        <v>415068</v>
       </c>
       <c r="U112" s="8">
         <f t="shared" si="9"/>
-        <v>-940</v>
+        <v>0</v>
       </c>
       <c r="V112" s="4">
-        <v>8088</v>
+        <v>8988</v>
       </c>
       <c r="W112" s="4">
-        <v>7837</v>
+        <v>7367</v>
       </c>
       <c r="X112" s="4">
-        <v>16365</v>
+        <v>16355</v>
       </c>
       <c r="Y112" s="8">
         <f t="shared" si="10"/>
-        <v>-440</v>
+        <v>0</v>
       </c>
       <c r="Z112" s="4">
         <v>6204</v>
@@ -11216,7 +11206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -11308,7 +11298,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -11400,7 +11390,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -11443,17 +11433,17 @@
         <v>1826</v>
       </c>
       <c r="O115" s="4">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="P115" s="4">
         <v>3491</v>
       </c>
       <c r="Q115" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R115" s="4">
-        <v>654516</v>
+        <v>654515</v>
       </c>
       <c r="S115" s="4">
         <v>529233</v>
@@ -11463,36 +11453,36 @@
       </c>
       <c r="U115" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V115" s="4">
         <v>22199</v>
       </c>
       <c r="W115" s="4">
-        <v>10021</v>
+        <v>19021</v>
       </c>
       <c r="X115" s="4">
         <v>41220</v>
       </c>
       <c r="Y115" s="8">
         <f t="shared" si="10"/>
-        <v>-9000</v>
+        <v>0</v>
       </c>
       <c r="Z115" s="4">
         <v>13902</v>
       </c>
       <c r="AA115" s="4">
-        <v>12198</v>
+        <v>12199</v>
       </c>
       <c r="AB115">
         <v>26101</v>
       </c>
       <c r="AC115" s="8">
         <f t="shared" si="11"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -11545,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="R116" s="4">
-        <v>838119</v>
+        <v>838719</v>
       </c>
       <c r="S116" s="4">
         <v>821962</v>
@@ -11555,7 +11545,7 @@
       </c>
       <c r="U116" s="8">
         <f t="shared" si="9"/>
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="V116" s="4">
         <v>30722</v>
@@ -11574,17 +11564,17 @@
         <v>17124</v>
       </c>
       <c r="AA116" s="4">
-        <v>16623</v>
+        <v>16523</v>
       </c>
       <c r="AB116">
         <v>33647</v>
       </c>
       <c r="AC116" s="8">
         <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -11663,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="Z117" s="4">
-        <v>11661</v>
+        <v>11669</v>
       </c>
       <c r="AA117" s="4">
         <v>10481</v>
@@ -11673,10 +11663,10 @@
       </c>
       <c r="AC117" s="8">
         <f t="shared" si="11"/>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -11716,43 +11706,43 @@
         <v>0</v>
       </c>
       <c r="N118" s="4">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O118" s="4">
         <v>580</v>
       </c>
       <c r="P118" s="4">
-        <v>1836</v>
+        <v>1335</v>
       </c>
       <c r="Q118" s="8">
         <f t="shared" si="8"/>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="R118" s="4">
         <v>396878</v>
       </c>
       <c r="S118" s="4">
-        <v>366253</v>
+        <v>356253</v>
       </c>
       <c r="T118" s="4">
-        <v>753181</v>
+        <v>753131</v>
       </c>
       <c r="U118" s="8">
         <f t="shared" si="9"/>
-        <v>9950</v>
+        <v>0</v>
       </c>
       <c r="V118" s="4">
-        <v>9831</v>
+        <v>9531</v>
       </c>
       <c r="W118" s="4">
         <v>8104</v>
       </c>
       <c r="X118" s="4">
-        <v>17636</v>
+        <v>17635</v>
       </c>
       <c r="Y118" s="8">
         <f t="shared" si="10"/>
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="Z118" s="4">
         <v>7116</v>
@@ -11768,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -11811,27 +11801,27 @@
         <v>5436</v>
       </c>
       <c r="O119" s="4">
-        <v>6027</v>
+        <v>5027</v>
       </c>
       <c r="P119" s="4">
         <v>10463</v>
       </c>
       <c r="Q119" s="8">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R119" s="4">
-        <v>906300</v>
+        <v>905300</v>
       </c>
       <c r="S119" s="4">
-        <v>792800</v>
+        <v>792300</v>
       </c>
       <c r="T119" s="4">
-        <v>1607600</v>
+        <v>1697600</v>
       </c>
       <c r="U119" s="8">
         <f t="shared" si="9"/>
-        <v>91500</v>
+        <v>0</v>
       </c>
       <c r="V119" s="4">
         <v>33885</v>
@@ -11860,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -11939,7 +11929,7 @@
         <v>0</v>
       </c>
       <c r="Z120" s="4">
-        <v>642</v>
+        <v>90642</v>
       </c>
       <c r="AA120" s="4">
         <v>82768</v>
@@ -11949,10 +11939,10 @@
       </c>
       <c r="AC120" s="8">
         <f t="shared" si="11"/>
-        <v>-90000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -11997,25 +11987,25 @@
       <c r="O121" s="4">
         <v>38407</v>
       </c>
-      <c r="P121" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q121" s="8" t="e">
+      <c r="P121" s="4">
+        <v>86131</v>
+      </c>
+      <c r="Q121" s="8">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="R121" s="4">
-        <v>5501894</v>
+        <v>15501894</v>
       </c>
       <c r="S121" s="4">
-        <v>14193906</v>
+        <v>14193908</v>
       </c>
       <c r="T121" s="4">
         <v>29695802</v>
       </c>
       <c r="U121" s="8">
         <f t="shared" si="9"/>
-        <v>-10000002</v>
+        <v>0</v>
       </c>
       <c r="V121" s="4">
         <v>612104</v>
@@ -12044,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -12084,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="N122" s="4">
-        <v>280402</v>
+        <v>286402</v>
       </c>
       <c r="O122" s="4">
         <v>232499</v>
@@ -12094,7 +12084,7 @@
       </c>
       <c r="Q122" s="8">
         <f t="shared" si="8"/>
-        <v>-6000</v>
+        <v>0</v>
       </c>
       <c r="R122" s="4">
         <v>74866532</v>
@@ -12136,7 +12126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -12164,7 +12154,7 @@
       <c r="AA123" s="4"/>
       <c r="AC123" s="8"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -12192,7 +12182,7 @@
       <c r="AA124" s="4"/>
       <c r="AC124" s="8"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -12220,7 +12210,7 @@
       <c r="AA125" s="4"/>
       <c r="AC125" s="8"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -12245,7 +12235,7 @@
       <c r="AA126" s="4"/>
       <c r="AC126" s="8"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -12270,7 +12260,7 @@
       <c r="AA127" s="4"/>
       <c r="AC127" s="8"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -12295,7 +12285,7 @@
       <c r="AA128" s="4"/>
       <c r="AC128" s="8"/>
     </row>
-    <row r="129" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:29" x14ac:dyDescent="0.55000000000000004">
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -12320,7 +12310,7 @@
       <c r="AA129" s="4"/>
       <c r="AC129" s="8"/>
     </row>
-    <row r="130" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:29" x14ac:dyDescent="0.55000000000000004">
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
@@ -12345,7 +12335,7 @@
       <c r="AA130" s="4"/>
       <c r="AC130" s="8"/>
     </row>
-    <row r="131" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:29" x14ac:dyDescent="0.55000000000000004">
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
@@ -12370,7 +12360,7 @@
       <c r="AA131" s="4"/>
       <c r="AC131" s="8"/>
     </row>
-    <row r="132" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:29" x14ac:dyDescent="0.55000000000000004">
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1913.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACD8436-C7D5-4C8C-97E2-C259970B9851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7854B7-64C9-41F4-9DD1-4B8C9CDBBFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57465" yWindow="75" windowWidth="29190" windowHeight="23205" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
+    <workbookView xWindow="58905" yWindow="0" windowWidth="25830" windowHeight="19875" xr2:uid="{CDCB992A-7CB9-49B7-9D32-AB9EC620F123}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -877,10 +877,10 @@
   <dimension ref="A1:AC132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z92" sqref="Z92"/>
+      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1336,17 +1336,17 @@
         <v>0</v>
       </c>
       <c r="V5" s="4">
-        <v>9866</v>
+        <v>9865</v>
       </c>
       <c r="W5" s="4">
         <v>9543</v>
       </c>
       <c r="X5" s="4">
-        <v>19405</v>
+        <v>19408</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="4">
         <v>8291</v>
